--- a/apps/resources/categories_mapping_new.xlsx
+++ b/apps/resources/categories_mapping_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,18 +45,21 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -68,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="219">
   <si>
     <t xml:space="preserve">Anicennes catégories</t>
   </si>
@@ -112,7 +115,7 @@
     <t xml:space="preserve">NEW LVL 4 ID</t>
   </si>
   <si>
-    <t xml:space="preserve">ABPTYPE ID</t>
+    <t xml:space="preserve">ABP TYPE ID</t>
   </si>
   <si>
     <t xml:space="preserve">ABP NATURE ID</t>
@@ -602,6 +605,18 @@
   </si>
   <si>
     <t xml:space="preserve">Lvl 4 ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto-dispatching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABP Type ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABP Nature ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABP Bagtype ID</t>
   </si>
   <si>
     <t xml:space="preserve">Coating</t>
@@ -722,7 +737,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -760,12 +775,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -889,7 +898,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
@@ -926,10 +935,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -950,7 +955,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -962,11 +967,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1062,30 +1071,30 @@
   </sheetPr>
   <dimension ref="1:208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S26" activeCellId="0" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.7773279352227"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.3603238866397"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
   </cols>
@@ -1167,7 +1176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" s="10" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>17</v>
       </c>
@@ -1188,7 +1197,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="6" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -1200,28 +1209,28 @@
       <c r="L3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="9" t="n">
+      <c r="M3" s="8" t="n">
         <f aca="false">E3+1000</f>
         <v>1002</v>
       </c>
-      <c r="N3" s="9" t="n">
+      <c r="N3" s="8" t="n">
         <v>2000</v>
       </c>
-      <c r="O3" s="9" t="n">
+      <c r="O3" s="8" t="n">
         <f aca="false">G3+3000</f>
         <v>3029</v>
       </c>
-      <c r="P3" s="10" t="n">
+      <c r="P3" s="9" t="n">
         <f aca="false">P173</f>
         <v>4001</v>
       </c>
-      <c r="Q3" s="10" t="n">
+      <c r="Q3" s="9" t="n">
         <v>4</v>
       </c>
-      <c r="R3" s="10" t="n">
+      <c r="R3" s="9" t="n">
         <v>9</v>
       </c>
-      <c r="S3" s="10" t="n">
+      <c r="S3" s="9" t="n">
         <v>1</v>
       </c>
       <c r="AMF3" s="0"/>
@@ -1251,7 +1260,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="8" t="str">
+      <c r="I4" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1262,14 +1271,14 @@
         <v>26</v>
       </c>
       <c r="L4" s="0"/>
-      <c r="M4" s="11" t="n">
+      <c r="M4" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N4" s="9" t="n">
+      <c r="N4" s="8" t="n">
         <v>2001</v>
       </c>
-      <c r="O4" s="9" t="n">
+      <c r="O4" s="8" t="n">
         <f aca="false">G4+3000</f>
         <v>3030</v>
       </c>
@@ -1302,7 +1311,7 @@
         <v>31</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="8" t="str">
+      <c r="I5" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1313,22 +1322,22 @@
         <v>28</v>
       </c>
       <c r="L5" s="0"/>
-      <c r="M5" s="11" t="n">
+      <c r="M5" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N5" s="11" t="n">
+      <c r="N5" s="10" t="n">
         <f aca="false">N4</f>
         <v>2001</v>
       </c>
-      <c r="O5" s="9" t="n">
+      <c r="O5" s="8" t="n">
         <f aca="false">G5+3000</f>
         <v>3031</v>
       </c>
       <c r="P5" s="0"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
@@ -1351,7 +1360,7 @@
         <v>32</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="8" t="str">
+      <c r="I6" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1364,18 +1373,18 @@
       <c r="L6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M6" s="11" t="n">
+      <c r="M6" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N6" s="9" t="n">
+      <c r="N6" s="8" t="n">
         <v>2002</v>
       </c>
-      <c r="O6" s="9" t="n">
+      <c r="O6" s="8" t="n">
         <f aca="false">G6+3000</f>
         <v>3032</v>
       </c>
-      <c r="P6" s="9" t="n">
+      <c r="P6" s="8" t="n">
         <v>4010</v>
       </c>
       <c r="Q6" s="0" t="n">
@@ -1406,7 +1415,7 @@
         <v>78</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="8" t="str">
+      <c r="I7" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1417,22 +1426,22 @@
         <v>34</v>
       </c>
       <c r="L7" s="0"/>
-      <c r="M7" s="11" t="n">
+      <c r="M7" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N7" s="11" t="n">
+      <c r="N7" s="10" t="n">
         <f aca="false">N4</f>
         <v>2001</v>
       </c>
-      <c r="O7" s="11" t="n">
+      <c r="O7" s="10" t="n">
         <f aca="false">O5</f>
         <v>3031</v>
       </c>
       <c r="P7" s="0"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
@@ -1455,7 +1464,7 @@
         <v>79</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1468,15 +1477,15 @@
       <c r="L8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="11" t="n">
+      <c r="M8" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N8" s="11" t="n">
+      <c r="N8" s="10" t="n">
         <f aca="false">N6</f>
         <v>2002</v>
       </c>
-      <c r="O8" s="11" t="n">
+      <c r="O8" s="10" t="n">
         <f aca="false">O6</f>
         <v>3032</v>
       </c>
@@ -1512,7 +1521,7 @@
         <v>76</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1525,15 +1534,15 @@
       <c r="L9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="11" t="n">
+      <c r="M9" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N9" s="11" t="n">
+      <c r="N9" s="10" t="n">
         <f aca="false">N3</f>
         <v>2000</v>
       </c>
-      <c r="O9" s="11" t="n">
+      <c r="O9" s="10" t="n">
         <f aca="false">O3</f>
         <v>3029</v>
       </c>
@@ -1572,7 +1581,7 @@
         <v>77</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="8" t="str">
+      <c r="I10" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1583,15 +1592,15 @@
         <v>36</v>
       </c>
       <c r="L10" s="0"/>
-      <c r="M10" s="11" t="n">
+      <c r="M10" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N10" s="11" t="n">
+      <c r="N10" s="10" t="n">
         <f aca="false">N4</f>
         <v>2001</v>
       </c>
-      <c r="O10" s="11" t="n">
+      <c r="O10" s="10" t="n">
         <f aca="false">O4</f>
         <v>3030</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>54</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="8" t="str">
+      <c r="I11" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1637,15 +1646,15 @@
       <c r="L11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="11" t="n">
+      <c r="M11" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N11" s="11" t="n">
+      <c r="N11" s="10" t="n">
         <f aca="false">N3</f>
         <v>2000</v>
       </c>
-      <c r="O11" s="11" t="n">
+      <c r="O11" s="10" t="n">
         <f aca="false">O3</f>
         <v>3029</v>
       </c>
@@ -1684,7 +1693,7 @@
         <v>55</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="8" t="str">
+      <c r="I12" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1695,15 +1704,15 @@
         <v>36</v>
       </c>
       <c r="L12" s="0"/>
-      <c r="M12" s="11" t="n">
+      <c r="M12" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N12" s="11" t="n">
+      <c r="N12" s="10" t="n">
         <f aca="false">N4</f>
         <v>2001</v>
       </c>
-      <c r="O12" s="11" t="n">
+      <c r="O12" s="10" t="n">
         <f aca="false">O4</f>
         <v>3030</v>
       </c>
@@ -1736,7 +1745,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="8" t="str">
+      <c r="I13" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1747,22 +1756,22 @@
         <v>27</v>
       </c>
       <c r="L13" s="0"/>
-      <c r="M13" s="11" t="n">
+      <c r="M13" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N13" s="11" t="n">
+      <c r="N13" s="10" t="n">
         <f aca="false">N4</f>
         <v>2001</v>
       </c>
-      <c r="O13" s="11" t="n">
+      <c r="O13" s="10" t="n">
         <f aca="false">O5</f>
         <v>3031</v>
       </c>
       <c r="P13" s="0"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
@@ -1785,7 +1794,7 @@
         <v>57</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="8" t="str">
+      <c r="I14" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1798,15 +1807,15 @@
       <c r="L14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="11" t="n">
+      <c r="M14" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N14" s="11" t="n">
+      <c r="N14" s="10" t="n">
         <f aca="false">N6</f>
         <v>2002</v>
       </c>
-      <c r="O14" s="11" t="n">
+      <c r="O14" s="10" t="n">
         <f aca="false">O6</f>
         <v>3032</v>
       </c>
@@ -1842,7 +1851,7 @@
         <v>101</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="8" t="str">
+      <c r="I15" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1855,15 +1864,15 @@
       <c r="L15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M15" s="11" t="n">
+      <c r="M15" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N15" s="11" t="n">
+      <c r="N15" s="10" t="n">
         <f aca="false">N3</f>
         <v>2000</v>
       </c>
-      <c r="O15" s="11" t="n">
+      <c r="O15" s="10" t="n">
         <f aca="false">O3</f>
         <v>3029</v>
       </c>
@@ -1902,7 +1911,7 @@
         <v>102</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="8" t="str">
+      <c r="I16" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1913,15 +1922,15 @@
         <v>36</v>
       </c>
       <c r="L16" s="0"/>
-      <c r="M16" s="11" t="n">
+      <c r="M16" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N16" s="11" t="n">
+      <c r="N16" s="10" t="n">
         <f aca="false">N4</f>
         <v>2001</v>
       </c>
-      <c r="O16" s="11" t="n">
+      <c r="O16" s="10" t="n">
         <f aca="false">O4</f>
         <v>3030</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>103</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="8" t="str">
+      <c r="I17" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -1965,22 +1974,22 @@
         <v>27</v>
       </c>
       <c r="L17" s="0"/>
-      <c r="M17" s="11" t="n">
+      <c r="M17" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N17" s="11" t="n">
+      <c r="N17" s="10" t="n">
         <f aca="false">N4</f>
         <v>2001</v>
       </c>
-      <c r="O17" s="11" t="n">
+      <c r="O17" s="10" t="n">
         <f aca="false">O5</f>
         <v>3031</v>
       </c>
       <c r="P17" s="0"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
@@ -2003,7 +2012,7 @@
         <v>104</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="8" t="str">
+      <c r="I18" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -2016,15 +2025,15 @@
       <c r="L18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="11" t="n">
+      <c r="M18" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N18" s="11" t="n">
+      <c r="N18" s="10" t="n">
         <f aca="false">N6</f>
         <v>2002</v>
       </c>
-      <c r="O18" s="11" t="n">
+      <c r="O18" s="10" t="n">
         <f aca="false">O6</f>
         <v>3032</v>
       </c>
@@ -2060,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="8" t="str">
+      <c r="I19" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -2073,15 +2082,15 @@
       <c r="L19" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M19" s="11" t="n">
+      <c r="M19" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N19" s="11" t="n">
+      <c r="N19" s="10" t="n">
         <f aca="false">N3</f>
         <v>2000</v>
       </c>
-      <c r="O19" s="11" t="n">
+      <c r="O19" s="10" t="n">
         <f aca="false">O3</f>
         <v>3029</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>5</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="8" t="str">
+      <c r="I20" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -2131,15 +2140,15 @@
         <v>36</v>
       </c>
       <c r="L20" s="0"/>
-      <c r="M20" s="11" t="n">
+      <c r="M20" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N20" s="11" t="n">
+      <c r="N20" s="10" t="n">
         <f aca="false">N4</f>
         <v>2001</v>
       </c>
-      <c r="O20" s="11" t="n">
+      <c r="O20" s="10" t="n">
         <f aca="false">O4</f>
         <v>3030</v>
       </c>
@@ -2172,7 +2181,7 @@
         <v>6</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="8" t="str">
+      <c r="I21" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
@@ -2183,22 +2192,22 @@
         <v>34</v>
       </c>
       <c r="L21" s="0"/>
-      <c r="M21" s="11" t="n">
+      <c r="M21" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N21" s="11" t="n">
+      <c r="N21" s="10" t="n">
         <f aca="false">N4</f>
         <v>2001</v>
       </c>
-      <c r="O21" s="11" t="n">
+      <c r="O21" s="10" t="n">
         <f aca="false">O5</f>
         <v>3031</v>
       </c>
       <c r="P21" s="0"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+      <c r="S21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
@@ -2221,28 +2230,28 @@
         <v>7</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="8" t="str">
+      <c r="I22" s="6" t="str">
         <f aca="false">$I$3</f>
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J22" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="13" t="s">
+      <c r="K22" s="12" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="11" t="n">
+      <c r="M22" s="10" t="n">
         <f aca="false">$M$3</f>
         <v>1002</v>
       </c>
-      <c r="N22" s="11" t="n">
+      <c r="N22" s="10" t="n">
         <f aca="false">N6</f>
         <v>2002</v>
       </c>
-      <c r="O22" s="11" t="n">
+      <c r="O22" s="10" t="n">
         <f aca="false">O6</f>
         <v>3032</v>
       </c>
@@ -2288,14 +2297,14 @@
         <v>48</v>
       </c>
       <c r="L23" s="0"/>
-      <c r="M23" s="9" t="n">
+      <c r="M23" s="8" t="n">
         <f aca="false">E23+1000</f>
         <v>1006</v>
       </c>
-      <c r="N23" s="9" t="n">
+      <c r="N23" s="8" t="n">
         <v>2010</v>
       </c>
-      <c r="O23" s="9" t="n">
+      <c r="O23" s="8" t="n">
         <f aca="false">G23+3000</f>
         <v>3126</v>
       </c>
@@ -2336,10 +2345,10 @@
         <f aca="false">$M$23</f>
         <v>1006</v>
       </c>
-      <c r="N24" s="9" t="n">
+      <c r="N24" s="8" t="n">
         <v>2011</v>
       </c>
-      <c r="O24" s="9" t="n">
+      <c r="O24" s="8" t="n">
         <f aca="false">G24+3000</f>
         <v>3127</v>
       </c>
@@ -2380,10 +2389,10 @@
         <f aca="false">$M$23</f>
         <v>1006</v>
       </c>
-      <c r="N25" s="9" t="n">
+      <c r="N25" s="8" t="n">
         <v>2012</v>
       </c>
-      <c r="O25" s="9" t="n">
+      <c r="O25" s="8" t="n">
         <f aca="false">G25+3000</f>
         <v>3123</v>
       </c>
@@ -2428,7 +2437,7 @@
         <f aca="false">N23</f>
         <v>2010</v>
       </c>
-      <c r="O26" s="9" t="n">
+      <c r="O26" s="8" t="n">
         <f aca="false">G26+3000</f>
         <v>3044</v>
       </c>
@@ -2473,7 +2482,7 @@
         <f aca="false">N23</f>
         <v>2010</v>
       </c>
-      <c r="O27" s="9" t="n">
+      <c r="O27" s="8" t="n">
         <f aca="false">G27+3000</f>
         <v>3043</v>
       </c>
@@ -2518,7 +2527,7 @@
         <f aca="false">N24</f>
         <v>2011</v>
       </c>
-      <c r="O28" s="9" t="n">
+      <c r="O28" s="8" t="n">
         <f aca="false">G28+3000</f>
         <v>3042</v>
       </c>
@@ -2563,7 +2572,7 @@
         <f aca="false">N23</f>
         <v>2010</v>
       </c>
-      <c r="O29" s="9" t="n">
+      <c r="O29" s="8" t="n">
         <f aca="false">G29+3000</f>
         <v>3124</v>
       </c>
@@ -2608,7 +2617,7 @@
         <f aca="false">N25</f>
         <v>2012</v>
       </c>
-      <c r="O30" s="9" t="n">
+      <c r="O30" s="8" t="n">
         <f aca="false">G30+3000</f>
         <v>3125</v>
       </c>
@@ -4066,14 +4075,14 @@
         <v>67</v>
       </c>
       <c r="L63" s="0"/>
-      <c r="M63" s="9" t="n">
+      <c r="M63" s="8" t="n">
         <f aca="false">E63+1000</f>
         <v>1008</v>
       </c>
-      <c r="N63" s="9" t="n">
+      <c r="N63" s="8" t="n">
         <v>2020</v>
       </c>
-      <c r="O63" s="9" t="n">
+      <c r="O63" s="8" t="n">
         <f aca="false">G63+3000</f>
         <v>3049</v>
       </c>
@@ -4159,10 +4168,10 @@
         <f aca="false">$M$63</f>
         <v>1008</v>
       </c>
-      <c r="N65" s="9" t="n">
+      <c r="N65" s="8" t="n">
         <v>2021</v>
       </c>
-      <c r="O65" s="9" t="n">
+      <c r="O65" s="8" t="n">
         <f aca="false">G65+3000</f>
         <v>3048</v>
       </c>
@@ -4467,14 +4476,14 @@
         <v>75</v>
       </c>
       <c r="L72" s="0"/>
-      <c r="M72" s="9" t="n">
+      <c r="M72" s="8" t="n">
         <f aca="false">E72+1000</f>
         <v>1007</v>
       </c>
-      <c r="N72" s="9" t="n">
+      <c r="N72" s="8" t="n">
         <v>2030</v>
       </c>
-      <c r="O72" s="9" t="n">
+      <c r="O72" s="8" t="n">
         <f aca="false">G72+3000</f>
         <v>3045</v>
       </c>
@@ -4519,7 +4528,7 @@
         <f aca="false">$N$72</f>
         <v>2030</v>
       </c>
-      <c r="O73" s="9" t="n">
+      <c r="O73" s="8" t="n">
         <f aca="false">G73+3000</f>
         <v>3046</v>
       </c>
@@ -5137,18 +5146,18 @@
       <c r="J87" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="K87" s="14" t="s">
+      <c r="K87" s="13" t="s">
         <v>82</v>
       </c>
       <c r="L87" s="0"/>
-      <c r="M87" s="9" t="n">
+      <c r="M87" s="8" t="n">
         <f aca="false">E87+1000</f>
         <v>1004</v>
       </c>
-      <c r="N87" s="9" t="n">
+      <c r="N87" s="8" t="n">
         <v>2040</v>
       </c>
-      <c r="O87" s="9" t="n">
+      <c r="O87" s="8" t="n">
         <f aca="false">G87+3000</f>
         <v>3035</v>
       </c>
@@ -5181,7 +5190,7 @@
       <c r="J88" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K88" s="14" t="s">
+      <c r="K88" s="13" t="s">
         <v>84</v>
       </c>
       <c r="L88" s="0"/>
@@ -5189,10 +5198,10 @@
         <f aca="false">$M$87</f>
         <v>1004</v>
       </c>
-      <c r="N88" s="9" t="n">
+      <c r="N88" s="8" t="n">
         <v>2041</v>
       </c>
-      <c r="O88" s="9" t="n">
+      <c r="O88" s="8" t="n">
         <f aca="false">G88+3000</f>
         <v>3036</v>
       </c>
@@ -5225,7 +5234,7 @@
       <c r="J89" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K89" s="14" t="s">
+      <c r="K89" s="13" t="s">
         <v>86</v>
       </c>
       <c r="L89" s="0"/>
@@ -5233,10 +5242,10 @@
         <f aca="false">$M$87</f>
         <v>1004</v>
       </c>
-      <c r="N89" s="9" t="n">
+      <c r="N89" s="8" t="n">
         <v>2042</v>
       </c>
-      <c r="O89" s="9" t="n">
+      <c r="O89" s="8" t="n">
         <f aca="false">G89+3000</f>
         <v>3037</v>
       </c>
@@ -5269,7 +5278,7 @@
       <c r="J90" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K90" s="14" t="s">
+      <c r="K90" s="13" t="s">
         <v>87</v>
       </c>
       <c r="L90" s="0"/>
@@ -5314,7 +5323,7 @@
       <c r="J91" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K91" s="14" t="s">
+      <c r="K91" s="13" t="s">
         <v>84</v>
       </c>
       <c r="L91" s="0"/>
@@ -5359,7 +5368,7 @@
       <c r="J92" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K92" s="14" t="s">
+      <c r="K92" s="13" t="s">
         <v>86</v>
       </c>
       <c r="L92" s="0"/>
@@ -5404,7 +5413,7 @@
       <c r="J93" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K93" s="14" t="s">
+      <c r="K93" s="13" t="s">
         <v>84</v>
       </c>
       <c r="L93" s="0"/>
@@ -5449,7 +5458,7 @@
       <c r="J94" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K94" s="14" t="s">
+      <c r="K94" s="13" t="s">
         <v>86</v>
       </c>
       <c r="L94" s="0"/>
@@ -5494,7 +5503,7 @@
       <c r="J95" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K95" s="14" t="s">
+      <c r="K95" s="13" t="s">
         <v>87</v>
       </c>
       <c r="L95" s="0"/>
@@ -5539,7 +5548,7 @@
       <c r="J96" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="K96" s="14" t="s">
+      <c r="K96" s="13" t="s">
         <v>86</v>
       </c>
       <c r="L96" s="0"/>
@@ -5584,7 +5593,7 @@
       <c r="J97" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K97" s="14" t="s">
+      <c r="K97" s="13" t="s">
         <v>87</v>
       </c>
       <c r="L97" s="0"/>
@@ -5629,7 +5638,7 @@
       <c r="J98" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="K98" s="14" t="s">
+      <c r="K98" s="13" t="s">
         <v>84</v>
       </c>
       <c r="L98" s="0"/>
@@ -5671,21 +5680,21 @@
       <c r="I99" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J99" s="15" t="s">
+      <c r="J99" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K99" s="16" t="s">
+      <c r="K99" s="15" t="s">
         <v>91</v>
       </c>
       <c r="L99" s="0"/>
-      <c r="M99" s="9" t="n">
+      <c r="M99" s="8" t="n">
         <f aca="false">E99+1000</f>
         <v>1003</v>
       </c>
-      <c r="N99" s="9" t="n">
+      <c r="N99" s="8" t="n">
         <v>2050</v>
       </c>
-      <c r="O99" s="9" t="n">
+      <c r="O99" s="8" t="n">
         <f aca="false">G99+3000</f>
         <v>3033</v>
       </c>
@@ -5718,7 +5727,7 @@
       <c r="J100" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K100" s="14" t="s">
+      <c r="K100" s="13" t="s">
         <v>92</v>
       </c>
       <c r="L100" s="0"/>
@@ -5726,10 +5735,10 @@
         <f aca="false">$M$99</f>
         <v>1003</v>
       </c>
-      <c r="N100" s="9" t="n">
+      <c r="N100" s="8" t="n">
         <v>2051</v>
       </c>
-      <c r="O100" s="9" t="n">
+      <c r="O100" s="8" t="n">
         <f aca="false">G100+3000</f>
         <v>3034</v>
       </c>
@@ -5762,17 +5771,17 @@
       <c r="J101" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K101" s="14" t="s">
+      <c r="K101" s="13" t="s">
         <v>95</v>
       </c>
       <c r="L101" s="0"/>
-      <c r="M101" s="9" t="n">
+      <c r="M101" s="8" t="n">
         <v>1010</v>
       </c>
-      <c r="N101" s="9" t="n">
+      <c r="N101" s="8" t="n">
         <v>2052</v>
       </c>
-      <c r="O101" s="9" t="n">
+      <c r="O101" s="8" t="n">
         <f aca="false">G101+3000</f>
         <v>3117</v>
       </c>
@@ -5802,10 +5811,10 @@
       <c r="I102" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J102" s="15" t="s">
+      <c r="J102" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K102" s="16" t="s">
+      <c r="K102" s="15" t="s">
         <v>91</v>
       </c>
       <c r="L102" s="0"/>
@@ -5850,7 +5859,7 @@
       <c r="J103" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K103" s="14" t="s">
+      <c r="K103" s="13" t="s">
         <v>92</v>
       </c>
       <c r="L103" s="0"/>
@@ -5892,10 +5901,10 @@
       <c r="I104" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J104" s="15" t="s">
+      <c r="J104" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K104" s="16" t="s">
+      <c r="K104" s="15" t="s">
         <v>91</v>
       </c>
       <c r="L104" s="0"/>
@@ -5940,7 +5949,7 @@
       <c r="J105" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K105" s="14" t="s">
+      <c r="K105" s="13" t="s">
         <v>92</v>
       </c>
       <c r="L105" s="0"/>
@@ -5982,10 +5991,10 @@
       <c r="I106" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J106" s="15" t="s">
+      <c r="J106" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K106" s="16" t="s">
+      <c r="K106" s="15" t="s">
         <v>91</v>
       </c>
       <c r="L106" s="0"/>
@@ -6030,7 +6039,7 @@
       <c r="J107" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K107" s="14" t="s">
+      <c r="K107" s="13" t="s">
         <v>92</v>
       </c>
       <c r="L107" s="0"/>
@@ -6072,10 +6081,10 @@
       <c r="I108" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J108" s="15" t="s">
+      <c r="J108" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="K108" s="16" t="s">
+      <c r="K108" s="15" t="s">
         <v>91</v>
       </c>
       <c r="L108" s="0"/>
@@ -6120,7 +6129,7 @@
       <c r="J109" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K109" s="14" t="s">
+      <c r="K109" s="13" t="s">
         <v>92</v>
       </c>
       <c r="L109" s="0"/>
@@ -6165,18 +6174,18 @@
       <c r="J110" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K110" s="14" t="s">
+      <c r="K110" s="13" t="s">
         <v>99</v>
       </c>
       <c r="L110" s="0"/>
-      <c r="M110" s="9" t="n">
+      <c r="M110" s="8" t="n">
         <f aca="false">E110+1000</f>
         <v>1001</v>
       </c>
-      <c r="N110" s="9" t="n">
+      <c r="N110" s="8" t="n">
         <v>2060</v>
       </c>
-      <c r="O110" s="9" t="n">
+      <c r="O110" s="8" t="n">
         <f aca="false">G110+3000</f>
         <v>3026</v>
       </c>
@@ -6209,7 +6218,7 @@
       <c r="J111" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K111" s="14" t="s">
+      <c r="K111" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L111" s="0"/>
@@ -6217,10 +6226,10 @@
         <f aca="false">$M$110</f>
         <v>1001</v>
       </c>
-      <c r="N111" s="9" t="n">
+      <c r="N111" s="8" t="n">
         <v>2061</v>
       </c>
-      <c r="O111" s="9" t="n">
+      <c r="O111" s="8" t="n">
         <f aca="false">G111+3000</f>
         <v>3027</v>
       </c>
@@ -6253,7 +6262,7 @@
       <c r="J112" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K112" s="14" t="s">
+      <c r="K112" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L112" s="0"/>
@@ -6298,7 +6307,7 @@
       <c r="J113" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K113" s="14" t="s">
+      <c r="K113" s="13" t="s">
         <v>99</v>
       </c>
       <c r="L113" s="0"/>
@@ -6343,7 +6352,7 @@
       <c r="J114" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K114" s="14" t="s">
+      <c r="K114" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L114" s="0"/>
@@ -6388,7 +6397,7 @@
       <c r="J115" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K115" s="14" t="s">
+      <c r="K115" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L115" s="0"/>
@@ -6433,7 +6442,7 @@
       <c r="J116" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K116" s="14" t="s">
+      <c r="K116" s="13" t="s">
         <v>99</v>
       </c>
       <c r="L116" s="0"/>
@@ -6478,7 +6487,7 @@
       <c r="J117" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K117" s="14" t="s">
+      <c r="K117" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L117" s="0"/>
@@ -6523,7 +6532,7 @@
       <c r="J118" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K118" s="14" t="s">
+      <c r="K118" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L118" s="0"/>
@@ -6568,7 +6577,7 @@
       <c r="J119" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K119" s="14" t="s">
+      <c r="K119" s="13" t="s">
         <v>99</v>
       </c>
       <c r="L119" s="0"/>
@@ -6613,7 +6622,7 @@
       <c r="J120" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K120" s="14" t="s">
+      <c r="K120" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L120" s="0"/>
@@ -6658,7 +6667,7 @@
       <c r="J121" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K121" s="14" t="s">
+      <c r="K121" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L121" s="0"/>
@@ -6703,7 +6712,7 @@
       <c r="J122" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="K122" s="14" t="s">
+      <c r="K122" s="13" t="s">
         <v>99</v>
       </c>
       <c r="L122" s="0"/>
@@ -6748,7 +6757,7 @@
       <c r="J123" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K123" s="14" t="s">
+      <c r="K123" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L123" s="0"/>
@@ -6793,7 +6802,7 @@
       <c r="J124" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="K124" s="14" t="s">
+      <c r="K124" s="13" t="s">
         <v>101</v>
       </c>
       <c r="L124" s="0"/>
@@ -6838,18 +6847,18 @@
       <c r="J125" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K125" s="14" t="s">
+      <c r="K125" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L125" s="0"/>
-      <c r="M125" s="9" t="n">
+      <c r="M125" s="8" t="n">
         <f aca="false">E125+1000</f>
         <v>1005</v>
       </c>
-      <c r="N125" s="9" t="n">
+      <c r="N125" s="8" t="n">
         <v>2070</v>
       </c>
-      <c r="O125" s="9" t="n">
+      <c r="O125" s="8" t="n">
         <f aca="false">G125+3000</f>
         <v>3038</v>
       </c>
@@ -6882,7 +6891,7 @@
       <c r="J126" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K126" s="14" t="s">
+      <c r="K126" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L126" s="0"/>
@@ -6927,7 +6936,7 @@
       <c r="J127" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K127" s="14" t="s">
+      <c r="K127" s="13" t="s">
         <v>108</v>
       </c>
       <c r="L127" s="0"/>
@@ -6935,10 +6944,10 @@
         <f aca="false">M125</f>
         <v>1005</v>
       </c>
-      <c r="N127" s="9" t="n">
+      <c r="N127" s="8" t="n">
         <v>2071</v>
       </c>
-      <c r="O127" s="9" t="n">
+      <c r="O127" s="8" t="n">
         <f aca="false">G127+3000</f>
         <v>3041</v>
       </c>
@@ -6971,7 +6980,7 @@
       <c r="J128" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K128" s="14" t="s">
+      <c r="K128" s="13" t="s">
         <v>110</v>
       </c>
       <c r="L128" s="0"/>
@@ -6979,10 +6988,10 @@
         <f aca="false">M110</f>
         <v>1001</v>
       </c>
-      <c r="N128" s="9" t="n">
+      <c r="N128" s="8" t="n">
         <v>2072</v>
       </c>
-      <c r="O128" s="9" t="n">
+      <c r="O128" s="8" t="n">
         <f aca="false">G128+3000</f>
         <v>3040</v>
       </c>
@@ -7015,7 +7024,7 @@
       <c r="J129" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K129" s="14" t="s">
+      <c r="K129" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L129" s="0"/>
@@ -7060,7 +7069,7 @@
       <c r="J130" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K130" s="14" t="s">
+      <c r="K130" s="13" t="s">
         <v>110</v>
       </c>
       <c r="L130" s="0"/>
@@ -7105,7 +7114,7 @@
       <c r="J131" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K131" s="14" t="s">
+      <c r="K131" s="13" t="s">
         <v>108</v>
       </c>
       <c r="L131" s="0"/>
@@ -7150,7 +7159,7 @@
       <c r="J132" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K132" s="14" t="s">
+      <c r="K132" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L132" s="0"/>
@@ -7195,7 +7204,7 @@
       <c r="J133" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K133" s="14" t="s">
+      <c r="K133" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L133" s="0"/>
@@ -7240,7 +7249,7 @@
       <c r="J134" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K134" s="14" t="s">
+      <c r="K134" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L134" s="0"/>
@@ -7285,7 +7294,7 @@
       <c r="J135" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K135" s="14" t="s">
+      <c r="K135" s="13" t="s">
         <v>108</v>
       </c>
       <c r="L135" s="0"/>
@@ -7330,7 +7339,7 @@
       <c r="J136" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K136" s="14" t="s">
+      <c r="K136" s="13" t="s">
         <v>110</v>
       </c>
       <c r="L136" s="0"/>
@@ -7375,7 +7384,7 @@
       <c r="J137" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K137" s="14" t="s">
+      <c r="K137" s="13" t="s">
         <v>108</v>
       </c>
       <c r="L137" s="0"/>
@@ -7420,7 +7429,7 @@
       <c r="J138" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K138" s="14" t="s">
+      <c r="K138" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L138" s="0"/>
@@ -7465,7 +7474,7 @@
       <c r="J139" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K139" s="14" t="s">
+      <c r="K139" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L139" s="0"/>
@@ -7510,7 +7519,7 @@
       <c r="J140" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K140" s="14" t="s">
+      <c r="K140" s="13" t="s">
         <v>110</v>
       </c>
       <c r="L140" s="0"/>
@@ -7555,7 +7564,7 @@
       <c r="J141" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K141" s="14" t="s">
+      <c r="K141" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L141" s="0"/>
@@ -7600,7 +7609,7 @@
       <c r="J142" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K142" s="14" t="s">
+      <c r="K142" s="13" t="s">
         <v>105</v>
       </c>
       <c r="L142" s="0"/>
@@ -7645,7 +7654,7 @@
       <c r="J143" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K143" s="14" t="s">
+      <c r="K143" s="13" t="s">
         <v>108</v>
       </c>
       <c r="L143" s="0"/>
@@ -7690,7 +7699,7 @@
       <c r="J144" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K144" s="14" t="s">
+      <c r="K144" s="13" t="s">
         <v>110</v>
       </c>
       <c r="L144" s="0"/>
@@ -7743,10 +7752,10 @@
         <f aca="false">M72</f>
         <v>1007</v>
       </c>
-      <c r="N145" s="9" t="n">
+      <c r="N145" s="8" t="n">
         <v>2200</v>
       </c>
-      <c r="O145" s="9" t="n">
+      <c r="O145" s="8" t="n">
         <v>3300</v>
       </c>
       <c r="P145" s="0"/>
@@ -7796,7 +7805,7 @@
         <f aca="false">N145</f>
         <v>2200</v>
       </c>
-      <c r="O146" s="9" t="n">
+      <c r="O146" s="8" t="n">
         <v>3301</v>
       </c>
       <c r="P146" s="0"/>
@@ -7944,10 +7953,10 @@
         <f aca="false">M99</f>
         <v>1003</v>
       </c>
-      <c r="N149" s="9" t="n">
+      <c r="N149" s="8" t="n">
         <v>2201</v>
       </c>
-      <c r="O149" s="9" t="n">
+      <c r="O149" s="8" t="n">
         <v>3302</v>
       </c>
       <c r="P149" s="0"/>
@@ -7985,7 +7994,7 @@
       <c r="J150" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K150" s="15" t="s">
+      <c r="K150" s="14" t="s">
         <v>91</v>
       </c>
       <c r="L150" s="0"/>
@@ -8049,7 +8058,7 @@
         <f aca="false">N6</f>
         <v>2002</v>
       </c>
-      <c r="O151" s="9" t="n">
+      <c r="O151" s="8" t="n">
         <v>3304</v>
       </c>
       <c r="P151" s="0"/>
@@ -8100,14 +8109,14 @@
         <f aca="false">N6</f>
         <v>2002</v>
       </c>
-      <c r="O152" s="9" t="n">
+      <c r="O152" s="8" t="n">
         <v>3305</v>
       </c>
       <c r="P152" s="0"/>
-      <c r="Q152" s="0" t="n">
+      <c r="Q152" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="R152" s="0" t="n">
+      <c r="R152" s="16" t="n">
         <v>68</v>
       </c>
     </row>
@@ -8146,13 +8155,19 @@
         <f aca="false">M110</f>
         <v>1001</v>
       </c>
-      <c r="N153" s="9" t="n">
+      <c r="N153" s="8" t="n">
         <v>2203</v>
       </c>
-      <c r="O153" s="9" t="n">
+      <c r="O153" s="8" t="n">
         <v>3306</v>
       </c>
       <c r="P153" s="0"/>
+      <c r="Q153" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R153" s="16" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
@@ -8194,14 +8209,14 @@
         <f aca="false">N6</f>
         <v>2002</v>
       </c>
-      <c r="O154" s="9" t="n">
+      <c r="O154" s="8" t="n">
         <v>3307</v>
       </c>
       <c r="P154" s="0"/>
-      <c r="Q154" s="0" t="n">
+      <c r="Q154" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="R154" s="0" t="n">
+      <c r="R154" s="16" t="n">
         <v>19</v>
       </c>
     </row>
@@ -8250,10 +8265,10 @@
         <v>3030</v>
       </c>
       <c r="P155" s="0"/>
-      <c r="Q155" s="0" t="n">
+      <c r="Q155" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="R155" s="0" t="n">
+      <c r="R155" s="16" t="n">
         <v>18</v>
       </c>
     </row>
@@ -8304,10 +8319,10 @@
         <v>3032</v>
       </c>
       <c r="P156" s="0"/>
-      <c r="Q156" s="0" t="n">
+      <c r="Q156" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="R156" s="0" t="n">
+      <c r="R156" s="16" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8361,10 +8376,10 @@
         <f aca="false">P6</f>
         <v>4010</v>
       </c>
-      <c r="Q157" s="0" t="n">
+      <c r="Q157" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="R157" s="0" t="n">
+      <c r="R157" s="16" t="n">
         <v>16</v>
       </c>
     </row>
@@ -8412,13 +8427,13 @@
         <f aca="false">O151</f>
         <v>3304</v>
       </c>
-      <c r="P158" s="9" t="n">
+      <c r="P158" s="8" t="n">
         <v>4011</v>
       </c>
-      <c r="Q158" s="0" t="n">
+      <c r="Q158" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="R158" s="0" t="n">
+      <c r="R158" s="16" t="n">
         <v>78</v>
       </c>
     </row>
@@ -8467,10 +8482,10 @@
         <v>3305</v>
       </c>
       <c r="P159" s="0"/>
-      <c r="Q159" s="0" t="n">
+      <c r="Q159" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="R159" s="0" t="n">
+      <c r="R159" s="16" t="n">
         <v>68</v>
       </c>
     </row>
@@ -8518,6 +8533,12 @@
         <v>3306</v>
       </c>
       <c r="P160" s="0"/>
+      <c r="Q160" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="R160" s="16" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
@@ -8564,10 +8585,10 @@
         <v>3307</v>
       </c>
       <c r="P161" s="0"/>
-      <c r="Q161" s="0" t="n">
+      <c r="Q161" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="R161" s="0" t="n">
+      <c r="R161" s="16" t="n">
         <v>19</v>
       </c>
     </row>
@@ -8616,10 +8637,10 @@
         <v>3030</v>
       </c>
       <c r="P162" s="0"/>
-      <c r="Q162" s="0" t="n">
+      <c r="Q162" s="16" t="n">
         <v>7</v>
       </c>
-      <c r="R162" s="0" t="n">
+      <c r="R162" s="16" t="n">
         <v>18</v>
       </c>
     </row>
@@ -8772,10 +8793,10 @@
         <f aca="false">M72</f>
         <v>1007</v>
       </c>
-      <c r="N165" s="9" t="n">
+      <c r="N165" s="8" t="n">
         <v>2204</v>
       </c>
-      <c r="O165" s="9" t="n">
+      <c r="O165" s="8" t="n">
         <v>3310</v>
       </c>
       <c r="P165" s="0"/>
@@ -8825,7 +8846,7 @@
         <f aca="false">$N$165</f>
         <v>2204</v>
       </c>
-      <c r="O166" s="9" t="n">
+      <c r="O166" s="8" t="n">
         <v>3311</v>
       </c>
       <c r="P166" s="0"/>
@@ -8875,7 +8896,7 @@
         <f aca="false">$N$165</f>
         <v>2204</v>
       </c>
-      <c r="O167" s="9" t="n">
+      <c r="O167" s="8" t="n">
         <v>3312</v>
       </c>
       <c r="P167" s="0"/>
@@ -8925,7 +8946,7 @@
         <f aca="false">$N$165</f>
         <v>2204</v>
       </c>
-      <c r="O168" s="9" t="n">
+      <c r="O168" s="8" t="n">
         <v>3313</v>
       </c>
       <c r="P168" s="0"/>
@@ -9191,7 +9212,7 @@
         <f aca="false">$O$3</f>
         <v>3029</v>
       </c>
-      <c r="P173" s="9" t="n">
+      <c r="P173" s="8" t="n">
         <f aca="false">H173+4000</f>
         <v>4001</v>
       </c>
@@ -9258,7 +9279,7 @@
         <f aca="false">$O$3</f>
         <v>3029</v>
       </c>
-      <c r="P174" s="9" t="n">
+      <c r="P174" s="8" t="n">
         <f aca="false">H174+4000</f>
         <v>4002</v>
       </c>
@@ -9325,7 +9346,7 @@
         <f aca="false">$O$3</f>
         <v>3029</v>
       </c>
-      <c r="P175" s="9" t="n">
+      <c r="P175" s="8" t="n">
         <f aca="false">H175+4000</f>
         <v>4003</v>
       </c>
@@ -9392,7 +9413,7 @@
         <f aca="false">$O$3</f>
         <v>3029</v>
       </c>
-      <c r="P176" s="9" t="n">
+      <c r="P176" s="8" t="n">
         <f aca="false">H176+4000</f>
         <v>4004</v>
       </c>
@@ -9459,7 +9480,7 @@
         <f aca="false">$O$3</f>
         <v>3029</v>
       </c>
-      <c r="P177" s="9" t="n">
+      <c r="P177" s="8" t="n">
         <f aca="false">H177+4000</f>
         <v>4005</v>
       </c>
@@ -9526,7 +9547,7 @@
         <f aca="false">$O$3</f>
         <v>3029</v>
       </c>
-      <c r="P178" s="9" t="n">
+      <c r="P178" s="8" t="n">
         <f aca="false">H178+4000</f>
         <v>4006</v>
       </c>
@@ -9987,7 +10008,7 @@
         <f aca="false">$N$3</f>
         <v>2000</v>
       </c>
-      <c r="O185" s="9" t="n">
+      <c r="O185" s="8" t="n">
         <v>3314</v>
       </c>
       <c r="P185" s="2" t="n">
@@ -11561,25 +11582,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S15" activeCellId="0" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.753036437247"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.4251012145749"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6477732793522"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.1457489878543"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.6113360323887"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.1376518218623"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.19028340080972"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="13" min="10" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.24696356275304"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.7449392712551"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.4736842105263"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11631,6 +11656,19 @@
       <c r="P1" s="17" t="s">
         <v>177</v>
       </c>
+      <c r="Q1" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="U1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -11640,27 +11678,27 @@
         <v>96</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="M2" s="18" t="n">
+        <v>186</v>
+      </c>
+      <c r="M2" s="0" t="n">
         <f aca="false">mapping!M110</f>
         <v>1001</v>
       </c>
@@ -11670,7 +11708,10 @@
       <c r="O2" s="19" t="n">
         <v>3400</v>
       </c>
-      <c r="P2" s="18"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -11680,25 +11721,25 @@
         <v>27</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M3" s="0" t="n">
         <f aca="false">mapping!M125</f>
@@ -11710,6 +11751,10 @@
       <c r="O3" s="19" t="n">
         <v>3401</v>
       </c>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -11719,25 +11764,25 @@
         <v>27</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">M3</f>
@@ -11749,6 +11794,10 @@
       <c r="O4" s="19" t="n">
         <v>3402</v>
       </c>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -11758,25 +11807,25 @@
         <v>81</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M5" s="0" t="n">
         <f aca="false">mapping!M87</f>
@@ -11788,6 +11837,7 @@
       <c r="O5" s="19" t="n">
         <v>3403</v>
       </c>
+      <c r="T5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -11797,25 +11847,25 @@
         <v>81</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M6" s="0" t="n">
         <f aca="false">M5</f>
@@ -11827,6 +11877,16 @@
       <c r="O6" s="19" t="n">
         <v>3404</v>
       </c>
+      <c r="Q6" s="16" t="n">
+        <v>23</v>
+      </c>
+      <c r="R6" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="S6" s="16" t="n">
+        <v>78</v>
+      </c>
+      <c r="T6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -11836,25 +11896,25 @@
         <v>94</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M7" s="0" t="n">
         <f aca="false">mapping!M101</f>
@@ -11866,6 +11926,10 @@
       <c r="O7" s="19" t="n">
         <v>3405</v>
       </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -11875,25 +11939,25 @@
         <v>73</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M8" s="0" t="n">
         <f aca="false">mapping!M72</f>
@@ -11905,6 +11969,10 @@
       <c r="O8" s="19" t="n">
         <v>3406</v>
       </c>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -11914,25 +11982,25 @@
         <v>73</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">M8</f>
@@ -11944,6 +12012,9 @@
       <c r="O9" s="19" t="n">
         <v>3407</v>
       </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -11953,25 +12024,25 @@
         <v>44</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M10" s="0" t="n">
         <f aca="false">mapping!M23</f>
@@ -11984,6 +12055,12 @@
       <c r="O10" s="19" t="n">
         <v>3408</v>
       </c>
+      <c r="Q10" s="16" t="n">
+        <v>143</v>
+      </c>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -11993,25 +12070,25 @@
         <v>66</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M11" s="0" t="n">
         <f aca="false">mapping!M63</f>
@@ -12023,6 +12100,10 @@
       <c r="O11" s="19" t="n">
         <v>3409</v>
       </c>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -12032,25 +12113,25 @@
         <v>66</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M12" s="0" t="n">
         <f aca="false">M11</f>
@@ -12062,83 +12143,95 @@
       <c r="O12" s="19" t="n">
         <v>3410</v>
       </c>
-    </row>
-    <row r="13" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>2311</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>3411</v>
+      </c>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="F14" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="G14" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14" s="20" t="s">
         <v>212</v>
       </c>
-      <c r="F13" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="M13" s="18" t="n">
-        <v>1100</v>
-      </c>
-      <c r="N13" s="18" t="n">
-        <v>2311</v>
-      </c>
-      <c r="O13" s="18" t="n">
-        <v>3411</v>
-      </c>
-    </row>
-    <row r="14" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E14" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="M14" s="18" t="n">
+      <c r="M14" s="0" t="n">
         <f aca="false">M13</f>
         <v>1100</v>
       </c>
-      <c r="N14" s="18" t="n">
+      <c r="N14" s="0" t="n">
         <v>2312</v>
       </c>
-      <c r="O14" s="18" t="n">
+      <c r="O14" s="0" t="n">
         <v>3412</v>
       </c>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/apps/resources/categories_mapping_new.xlsx
+++ b/apps/resources/categories_mapping_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" state="visible" r:id="rId2"/>
@@ -46,6 +46,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">mapping!$1:$2</definedName>
@@ -53,6 +54,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
@@ -60,6 +62,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -902,7 +905,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -967,12 +970,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1071,30 +1070,30 @@
   </sheetPr>
   <dimension ref="1:208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S26" activeCellId="0" sqref="S26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I185" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P164" activeCellId="0" sqref="P164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="32.9919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.2064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
   </cols>
@@ -8113,10 +8112,10 @@
         <v>3305</v>
       </c>
       <c r="P152" s="0"/>
-      <c r="Q152" s="16" t="n">
+      <c r="Q152" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R152" s="16" t="n">
+      <c r="R152" s="0" t="n">
         <v>68</v>
       </c>
     </row>
@@ -8162,10 +8161,10 @@
         <v>3306</v>
       </c>
       <c r="P153" s="0"/>
-      <c r="Q153" s="16" t="n">
+      <c r="Q153" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R153" s="16" t="n">
+      <c r="R153" s="0" t="n">
         <v>21</v>
       </c>
     </row>
@@ -8213,10 +8212,10 @@
         <v>3307</v>
       </c>
       <c r="P154" s="0"/>
-      <c r="Q154" s="16" t="n">
+      <c r="Q154" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R154" s="16" t="n">
+      <c r="R154" s="0" t="n">
         <v>19</v>
       </c>
     </row>
@@ -8265,10 +8264,10 @@
         <v>3030</v>
       </c>
       <c r="P155" s="0"/>
-      <c r="Q155" s="16" t="n">
+      <c r="Q155" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R155" s="16" t="n">
+      <c r="R155" s="0" t="n">
         <v>18</v>
       </c>
     </row>
@@ -8318,11 +8317,13 @@
         <f aca="false">O6</f>
         <v>3032</v>
       </c>
-      <c r="P156" s="0"/>
-      <c r="Q156" s="16" t="n">
+      <c r="P156" s="8" t="n">
+        <v>4011</v>
+      </c>
+      <c r="Q156" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R156" s="16" t="n">
+      <c r="R156" s="0" t="n">
         <v>17</v>
       </c>
     </row>
@@ -8372,14 +8373,14 @@
         <f aca="false">O6</f>
         <v>3032</v>
       </c>
-      <c r="P157" s="2" t="n">
+      <c r="P157" s="16" t="n">
         <f aca="false">P6</f>
         <v>4010</v>
       </c>
-      <c r="Q157" s="16" t="n">
+      <c r="Q157" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R157" s="16" t="n">
+      <c r="R157" s="0" t="n">
         <v>16</v>
       </c>
     </row>
@@ -8427,13 +8428,11 @@
         <f aca="false">O151</f>
         <v>3304</v>
       </c>
-      <c r="P158" s="8" t="n">
-        <v>4011</v>
-      </c>
-      <c r="Q158" s="16" t="n">
+      <c r="P158" s="0"/>
+      <c r="Q158" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R158" s="16" t="n">
+      <c r="R158" s="0" t="n">
         <v>78</v>
       </c>
     </row>
@@ -8482,10 +8481,10 @@
         <v>3305</v>
       </c>
       <c r="P159" s="0"/>
-      <c r="Q159" s="16" t="n">
+      <c r="Q159" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R159" s="16" t="n">
+      <c r="R159" s="0" t="n">
         <v>68</v>
       </c>
     </row>
@@ -8533,10 +8532,10 @@
         <v>3306</v>
       </c>
       <c r="P160" s="0"/>
-      <c r="Q160" s="16" t="n">
+      <c r="Q160" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R160" s="16" t="n">
+      <c r="R160" s="0" t="n">
         <v>21</v>
       </c>
     </row>
@@ -8585,10 +8584,10 @@
         <v>3307</v>
       </c>
       <c r="P161" s="0"/>
-      <c r="Q161" s="16" t="n">
+      <c r="Q161" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R161" s="16" t="n">
+      <c r="R161" s="0" t="n">
         <v>19</v>
       </c>
     </row>
@@ -8637,10 +8636,10 @@
         <v>3030</v>
       </c>
       <c r="P162" s="0"/>
-      <c r="Q162" s="16" t="n">
+      <c r="Q162" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R162" s="16" t="n">
+      <c r="R162" s="0" t="n">
         <v>18</v>
       </c>
     </row>
@@ -8691,7 +8690,7 @@
         <v>3032</v>
       </c>
       <c r="P163" s="2" t="n">
-        <f aca="false">P158</f>
+        <f aca="false">P156</f>
         <v>4011</v>
       </c>
       <c r="Q163" s="0" t="n">
@@ -11584,26 +11583,26 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S15" activeCellId="0" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0323886639676"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8178137651822"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="13" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.7449392712551"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.4736842105263"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.7975708502024"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.10526315789474"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11656,7 +11655,7 @@
       <c r="P1" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>178</v>
       </c>
       <c r="R1" s="17" t="s">
@@ -11702,16 +11701,12 @@
         <f aca="false">mapping!M110</f>
         <v>1001</v>
       </c>
-      <c r="N2" s="19" t="n">
+      <c r="N2" s="18" t="n">
         <v>2300</v>
       </c>
-      <c r="O2" s="19" t="n">
+      <c r="O2" s="18" t="n">
         <v>3400</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -11745,16 +11740,12 @@
         <f aca="false">mapping!M125</f>
         <v>1005</v>
       </c>
-      <c r="N3" s="19" t="n">
+      <c r="N3" s="18" t="n">
         <v>2301</v>
       </c>
-      <c r="O3" s="19" t="n">
+      <c r="O3" s="18" t="n">
         <v>3401</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
@@ -11788,16 +11779,12 @@
         <f aca="false">M3</f>
         <v>1005</v>
       </c>
-      <c r="N4" s="19" t="n">
+      <c r="N4" s="18" t="n">
         <v>2302</v>
       </c>
-      <c r="O4" s="19" t="n">
+      <c r="O4" s="18" t="n">
         <v>3402</v>
       </c>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -11831,13 +11818,12 @@
         <f aca="false">mapping!M87</f>
         <v>1004</v>
       </c>
-      <c r="N5" s="19" t="n">
+      <c r="N5" s="18" t="n">
         <v>2303</v>
       </c>
-      <c r="O5" s="19" t="n">
+      <c r="O5" s="18" t="n">
         <v>3403</v>
       </c>
-      <c r="T5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
@@ -11871,22 +11857,21 @@
         <f aca="false">M5</f>
         <v>1004</v>
       </c>
-      <c r="N6" s="19" t="n">
+      <c r="N6" s="18" t="n">
         <v>2304</v>
       </c>
-      <c r="O6" s="19" t="n">
+      <c r="O6" s="18" t="n">
         <v>3404</v>
       </c>
-      <c r="Q6" s="16" t="n">
+      <c r="Q6" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="R6" s="16" t="n">
+      <c r="R6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="S6" s="16" t="n">
+      <c r="S6" s="0" t="n">
         <v>78</v>
       </c>
-      <c r="T6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -11920,16 +11905,12 @@
         <f aca="false">mapping!M101</f>
         <v>1010</v>
       </c>
-      <c r="N7" s="19" t="n">
+      <c r="N7" s="18" t="n">
         <v>2305</v>
       </c>
-      <c r="O7" s="19" t="n">
+      <c r="O7" s="18" t="n">
         <v>3405</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -11963,16 +11944,12 @@
         <f aca="false">mapping!M72</f>
         <v>1007</v>
       </c>
-      <c r="N8" s="19" t="n">
+      <c r="N8" s="18" t="n">
         <v>2306</v>
       </c>
-      <c r="O8" s="19" t="n">
+      <c r="O8" s="18" t="n">
         <v>3406</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
@@ -12006,15 +11983,12 @@
         <f aca="false">M8</f>
         <v>1007</v>
       </c>
-      <c r="N9" s="19" t="n">
+      <c r="N9" s="18" t="n">
         <v>2307</v>
       </c>
-      <c r="O9" s="19" t="n">
+      <c r="O9" s="18" t="n">
         <v>3407</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -12052,15 +12026,12 @@
         <f aca="false">mapping!N25</f>
         <v>2012</v>
       </c>
-      <c r="O10" s="19" t="n">
+      <c r="O10" s="18" t="n">
         <v>3408</v>
       </c>
-      <c r="Q10" s="16" t="n">
+      <c r="Q10" s="0" t="n">
         <v>143</v>
       </c>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -12094,16 +12065,12 @@
         <f aca="false">mapping!M63</f>
         <v>1008</v>
       </c>
-      <c r="N11" s="19" t="n">
+      <c r="N11" s="18" t="n">
         <v>2308</v>
       </c>
-      <c r="O11" s="19" t="n">
+      <c r="O11" s="18" t="n">
         <v>3409</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -12137,43 +12104,39 @@
         <f aca="false">M11</f>
         <v>1008</v>
       </c>
-      <c r="N12" s="19" t="n">
+      <c r="N12" s="18" t="n">
         <v>2309</v>
       </c>
-      <c r="O12" s="19" t="n">
+      <c r="O12" s="18" t="n">
         <v>3410</v>
       </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="19" t="s">
         <v>217</v>
       </c>
       <c r="M13" s="0" t="n">
@@ -12185,37 +12148,33 @@
       <c r="O13" s="0" t="n">
         <v>3411</v>
       </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>215</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="19" t="s">
         <v>212</v>
       </c>
       <c r="M14" s="0" t="n">
@@ -12228,10 +12187,6 @@
       <c r="O14" s="0" t="n">
         <v>3412</v>
       </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/apps/resources/categories_mapping_new.xlsx
+++ b/apps/resources/categories_mapping_new.xlsx
@@ -47,6 +47,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">mapping!$1:$2</definedName>
@@ -55,6 +56,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
@@ -63,6 +65,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -74,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="220">
   <si>
     <t xml:space="preserve">Anicennes catégories</t>
   </si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t xml:space="preserve">ABP BAGTYPE ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABP NATURE ID ALT</t>
   </si>
   <si>
     <t xml:space="preserve">Débris/Objets abandonnés</t>
@@ -905,7 +911,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -968,10 +974,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1070,30 +1072,30 @@
   </sheetPr>
   <dimension ref="1:208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I185" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P164" activeCellId="0" sqref="P164"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K147" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S163" activeCellId="1" sqref="S164 S163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
   </cols>
@@ -1174,16 +1176,19 @@
       <c r="S2" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="T2" s="0" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="3" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="n">
@@ -1197,16 +1202,16 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M3" s="8" t="n">
         <f aca="false">E3+1000</f>
@@ -1240,13 +1245,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="n">
@@ -1264,10 +1269,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L4" s="0"/>
       <c r="M4" s="10" t="n">
@@ -1291,13 +1296,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="n">
@@ -1315,10 +1320,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L5" s="0"/>
       <c r="M5" s="10" t="n">
@@ -1340,13 +1345,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="n">
@@ -1364,13 +1369,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1389,19 +1394,19 @@
       <c r="Q6" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="n">
@@ -1419,10 +1424,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="0"/>
       <c r="M7" s="10" t="n">
@@ -1444,13 +1449,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="n">
@@ -1468,13 +1473,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M8" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1495,19 +1500,20 @@
       <c r="Q8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R8" s="0" t="n">
+      <c r="T8" s="0" t="n">
+        <f aca="false">T6</f>
         <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="n">
@@ -1525,13 +1531,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M9" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1561,13 +1567,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="n">
@@ -1585,10 +1591,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="10" t="n">
@@ -1613,13 +1619,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="n">
@@ -1637,13 +1643,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M11" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1673,13 +1679,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="n">
@@ -1697,10 +1703,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="10" t="n">
@@ -1725,13 +1731,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="n">
@@ -1749,10 +1755,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="10" t="n">
@@ -1774,13 +1780,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="n">
@@ -1798,13 +1804,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M14" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1825,19 +1831,20 @@
       <c r="Q14" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="T14" s="0" t="n">
+        <f aca="false">T6</f>
         <v>16</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="n">
@@ -1855,13 +1862,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M15" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1891,13 +1898,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="n">
@@ -1915,10 +1922,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="10" t="n">
@@ -1943,13 +1950,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="n">
@@ -1967,10 +1974,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="10" t="n">
@@ -1992,13 +1999,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="n">
@@ -2016,13 +2023,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M18" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -2043,19 +2050,20 @@
       <c r="Q18" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="T18" s="0" t="n">
+        <f aca="false">T6</f>
         <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="n">
@@ -2073,13 +2081,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M19" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -2109,13 +2117,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="n">
@@ -2133,10 +2141,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L20" s="0"/>
       <c r="M20" s="10" t="n">
@@ -2161,13 +2169,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="n">
@@ -2185,10 +2193,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L21" s="0"/>
       <c r="M21" s="10" t="n">
@@ -2210,13 +2218,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="n">
@@ -2234,13 +2242,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M22" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -2261,19 +2269,20 @@
       <c r="Q22" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="T22" s="0" t="n">
+        <f aca="false">T6</f>
         <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="7" t="n">
@@ -2287,13 +2296,13 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L23" s="0"/>
       <c r="M23" s="8" t="n">
@@ -2311,13 +2320,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="7" t="n">
@@ -2331,13 +2340,13 @@
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L24" s="0"/>
       <c r="M24" s="2" t="n">
@@ -2355,13 +2364,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="7" t="n">
@@ -2375,13 +2384,13 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L25" s="0"/>
       <c r="M25" s="2" t="n">
@@ -2399,13 +2408,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="7" t="n">
@@ -2419,13 +2428,13 @@
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L26" s="0"/>
       <c r="M26" s="2" t="n">
@@ -2444,13 +2453,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="7" t="n">
@@ -2464,13 +2473,13 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L27" s="0"/>
       <c r="M27" s="2" t="n">
@@ -2489,13 +2498,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="7" t="n">
@@ -2509,13 +2518,13 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L28" s="0"/>
       <c r="M28" s="2" t="n">
@@ -2534,13 +2543,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="7" t="n">
@@ -2554,13 +2563,13 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="2" t="n">
@@ -2579,13 +2588,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="7" t="n">
@@ -2599,13 +2608,13 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L30" s="0"/>
       <c r="M30" s="2" t="n">
@@ -2624,13 +2633,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="7" t="n">
@@ -2644,13 +2653,13 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L31" s="0"/>
       <c r="M31" s="2" t="n">
@@ -2669,13 +2678,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="7" t="n">
@@ -2689,13 +2698,13 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L32" s="0"/>
       <c r="M32" s="2" t="n">
@@ -2714,13 +2723,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="7" t="n">
@@ -2734,13 +2743,13 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L33" s="0"/>
       <c r="M33" s="2" t="n">
@@ -2759,13 +2768,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="7" t="n">
@@ -2779,13 +2788,13 @@
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L34" s="0"/>
       <c r="M34" s="2" t="n">
@@ -2804,13 +2813,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="7" t="n">
@@ -2824,13 +2833,13 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L35" s="0"/>
       <c r="M35" s="2" t="n">
@@ -2849,13 +2858,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="7" t="n">
@@ -2869,13 +2878,13 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L36" s="0"/>
       <c r="M36" s="2" t="n">
@@ -2894,13 +2903,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="7" t="n">
@@ -2914,13 +2923,13 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L37" s="0"/>
       <c r="M37" s="2" t="n">
@@ -2939,13 +2948,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="7" t="n">
@@ -2959,13 +2968,13 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L38" s="0"/>
       <c r="M38" s="2" t="n">
@@ -2984,13 +2993,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="7" t="n">
@@ -3004,13 +3013,13 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L39" s="0"/>
       <c r="M39" s="2" t="n">
@@ -3029,13 +3038,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="7" t="n">
@@ -3049,13 +3058,13 @@
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L40" s="0"/>
       <c r="M40" s="2" t="n">
@@ -3074,13 +3083,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="7" t="n">
@@ -3094,13 +3103,13 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L41" s="0"/>
       <c r="M41" s="2" t="n">
@@ -3119,13 +3128,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="7" t="n">
@@ -3139,13 +3148,13 @@
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L42" s="0"/>
       <c r="M42" s="2" t="n">
@@ -3163,13 +3172,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D43" s="0"/>
       <c r="E43" s="7" t="n">
@@ -3183,13 +3192,13 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L43" s="0"/>
       <c r="M43" s="2" t="n">
@@ -3208,13 +3217,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="7" t="n">
@@ -3228,13 +3237,13 @@
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L44" s="0"/>
       <c r="M44" s="2" t="n">
@@ -3253,13 +3262,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="7" t="n">
@@ -3273,13 +3282,13 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L45" s="0"/>
       <c r="M45" s="2" t="n">
@@ -3298,13 +3307,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="7" t="n">
@@ -3318,13 +3327,13 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L46" s="0"/>
       <c r="M46" s="2" t="n">
@@ -3342,13 +3351,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D47" s="0"/>
       <c r="E47" s="7" t="n">
@@ -3362,13 +3371,13 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L47" s="0"/>
       <c r="M47" s="2" t="n">
@@ -3386,13 +3395,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="7" t="n">
@@ -3406,13 +3415,13 @@
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L48" s="0"/>
       <c r="M48" s="2" t="n">
@@ -3430,13 +3439,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D49" s="0"/>
       <c r="E49" s="7" t="n">
@@ -3450,13 +3459,13 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L49" s="0"/>
       <c r="M49" s="2" t="n">
@@ -3474,13 +3483,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="7" t="n">
@@ -3494,13 +3503,13 @@
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L50" s="0"/>
       <c r="M50" s="2" t="n">
@@ -3518,13 +3527,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="7" t="n">
@@ -3538,13 +3547,13 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L51" s="0"/>
       <c r="M51" s="2" t="n">
@@ -3562,13 +3571,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="7" t="n">
@@ -3582,13 +3591,13 @@
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L52" s="0"/>
       <c r="M52" s="2" t="n">
@@ -3606,13 +3615,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="7" t="n">
@@ -3626,13 +3635,13 @@
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L53" s="0"/>
       <c r="M53" s="2" t="n">
@@ -3650,13 +3659,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="7" t="n">
@@ -3670,13 +3679,13 @@
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L54" s="0"/>
       <c r="M54" s="2" t="n">
@@ -3694,13 +3703,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D55" s="0"/>
       <c r="E55" s="7" t="n">
@@ -3714,13 +3723,13 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L55" s="0"/>
       <c r="M55" s="2" t="n">
@@ -3738,13 +3747,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D56" s="0"/>
       <c r="E56" s="7" t="n">
@@ -3758,13 +3767,13 @@
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L56" s="0"/>
       <c r="M56" s="2" t="n">
@@ -3782,13 +3791,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D57" s="0"/>
       <c r="E57" s="7" t="n">
@@ -3802,13 +3811,13 @@
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L57" s="0"/>
       <c r="M57" s="2" t="n">
@@ -3826,13 +3835,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="7" t="n">
@@ -3846,13 +3855,13 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L58" s="0"/>
       <c r="M58" s="2" t="n">
@@ -3869,13 +3878,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D59" s="0"/>
       <c r="E59" s="7" t="n">
@@ -3889,13 +3898,13 @@
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L59" s="0"/>
       <c r="M59" s="2" t="n">
@@ -3913,13 +3922,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D60" s="0"/>
       <c r="E60" s="7" t="n">
@@ -3933,13 +3942,13 @@
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L60" s="0"/>
       <c r="M60" s="2" t="n">
@@ -3957,13 +3966,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D61" s="0"/>
       <c r="E61" s="7" t="n">
@@ -3977,13 +3986,13 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L61" s="0"/>
       <c r="M61" s="2" t="n">
@@ -4001,13 +4010,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="D62" s="0"/>
       <c r="E62" s="7" t="n">
@@ -4021,13 +4030,13 @@
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L62" s="0"/>
       <c r="M62" s="2" t="n">
@@ -4045,13 +4054,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" s="0"/>
       <c r="E63" s="7" t="n">
@@ -4065,13 +4074,13 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L63" s="0"/>
       <c r="M63" s="8" t="n">
@@ -4089,13 +4098,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" s="0"/>
       <c r="E64" s="7" t="n">
@@ -4109,13 +4118,13 @@
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L64" s="0"/>
       <c r="M64" s="2" t="n">
@@ -4134,13 +4143,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" s="0"/>
       <c r="E65" s="7" t="n">
@@ -4154,13 +4163,13 @@
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L65" s="0"/>
       <c r="M65" s="2" t="n">
@@ -4178,13 +4187,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D66" s="0"/>
       <c r="E66" s="7" t="n">
@@ -4198,13 +4207,13 @@
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L66" s="0"/>
       <c r="M66" s="2" t="n">
@@ -4222,13 +4231,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D67" s="0"/>
       <c r="E67" s="7" t="n">
@@ -4242,13 +4251,13 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L67" s="0"/>
       <c r="M67" s="2" t="n">
@@ -4267,13 +4276,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D68" s="0"/>
       <c r="E68" s="7" t="n">
@@ -4287,13 +4296,13 @@
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L68" s="0"/>
       <c r="M68" s="2" t="n">
@@ -4312,13 +4321,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D69" s="0"/>
       <c r="E69" s="7" t="n">
@@ -4332,13 +4341,13 @@
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L69" s="0"/>
       <c r="M69" s="2" t="n">
@@ -4357,13 +4366,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="7" t="n">
@@ -4377,13 +4386,13 @@
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L70" s="0"/>
       <c r="M70" s="2" t="n">
@@ -4401,13 +4410,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D71" s="0"/>
       <c r="E71" s="7" t="n">
@@ -4421,13 +4430,13 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L71" s="0"/>
       <c r="M71" s="2" t="n">
@@ -4446,13 +4455,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D72" s="0"/>
       <c r="E72" s="7" t="n">
@@ -4466,13 +4475,13 @@
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L72" s="0"/>
       <c r="M72" s="8" t="n">
@@ -4490,13 +4499,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D73" s="0"/>
       <c r="E73" s="7" t="n">
@@ -4510,13 +4519,13 @@
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L73" s="0"/>
       <c r="M73" s="2" t="n">
@@ -4535,13 +4544,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D74" s="0"/>
       <c r="E74" s="7" t="n">
@@ -4555,13 +4564,13 @@
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L74" s="0"/>
       <c r="M74" s="2" t="n">
@@ -4580,13 +4589,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D75" s="0"/>
       <c r="E75" s="7" t="n">
@@ -4600,13 +4609,13 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L75" s="0"/>
       <c r="M75" s="2" t="n">
@@ -4625,13 +4634,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D76" s="0"/>
       <c r="E76" s="7" t="n">
@@ -4645,13 +4654,13 @@
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L76" s="0"/>
       <c r="M76" s="2" t="n">
@@ -4670,13 +4679,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D77" s="0"/>
       <c r="E77" s="7" t="n">
@@ -4690,13 +4699,13 @@
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L77" s="0"/>
       <c r="M77" s="2" t="n">
@@ -4715,13 +4724,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D78" s="0"/>
       <c r="E78" s="7" t="n">
@@ -4735,13 +4744,13 @@
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L78" s="0"/>
       <c r="M78" s="2" t="n">
@@ -4760,13 +4769,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D79" s="0"/>
       <c r="E79" s="7" t="n">
@@ -4780,13 +4789,13 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L79" s="0"/>
       <c r="M79" s="2" t="n">
@@ -4805,13 +4814,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D80" s="0"/>
       <c r="E80" s="7" t="n">
@@ -4825,13 +4834,13 @@
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L80" s="0"/>
       <c r="M80" s="2" t="n">
@@ -4850,13 +4859,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D81" s="0"/>
       <c r="E81" s="7" t="n">
@@ -4870,13 +4879,13 @@
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L81" s="0"/>
       <c r="M81" s="2" t="n">
@@ -4895,13 +4904,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="7" t="n">
@@ -4915,13 +4924,13 @@
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L82" s="0"/>
       <c r="M82" s="2" t="n">
@@ -4940,13 +4949,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D83" s="0"/>
       <c r="E83" s="7" t="n">
@@ -4960,13 +4969,13 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L83" s="0"/>
       <c r="M83" s="2" t="n">
@@ -4985,13 +4994,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D84" s="0"/>
       <c r="E84" s="7" t="n">
@@ -5005,13 +5014,13 @@
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L84" s="0"/>
       <c r="M84" s="2" t="n">
@@ -5030,13 +5039,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D85" s="0"/>
       <c r="E85" s="7" t="n">
@@ -5050,13 +5059,13 @@
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L85" s="0"/>
       <c r="M85" s="2" t="n">
@@ -5075,13 +5084,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D86" s="0"/>
       <c r="E86" s="7" t="n">
@@ -5095,13 +5104,13 @@
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L86" s="0"/>
       <c r="M86" s="2" t="n">
@@ -5120,13 +5129,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D87" s="0"/>
       <c r="E87" s="7" t="n">
@@ -5140,13 +5149,13 @@
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L87" s="0"/>
       <c r="M87" s="8" t="n">
@@ -5164,13 +5173,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" s="0"/>
       <c r="E88" s="7" t="n">
@@ -5184,13 +5193,13 @@
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L88" s="0"/>
       <c r="M88" s="2" t="n">
@@ -5208,13 +5217,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" s="0"/>
       <c r="E89" s="7" t="n">
@@ -5228,13 +5237,13 @@
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K89" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L89" s="0"/>
       <c r="M89" s="2" t="n">
@@ -5252,13 +5261,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D90" s="0"/>
       <c r="E90" s="7" t="n">
@@ -5272,13 +5281,13 @@
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L90" s="0"/>
       <c r="M90" s="2" t="n">
@@ -5297,13 +5306,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D91" s="0"/>
       <c r="E91" s="7" t="n">
@@ -5317,13 +5326,13 @@
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L91" s="0"/>
       <c r="M91" s="2" t="n">
@@ -5342,13 +5351,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D92" s="0"/>
       <c r="E92" s="7" t="n">
@@ -5362,13 +5371,13 @@
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L92" s="0"/>
       <c r="M92" s="2" t="n">
@@ -5387,13 +5396,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D93" s="0"/>
       <c r="E93" s="7" t="n">
@@ -5407,13 +5416,13 @@
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L93" s="0"/>
       <c r="M93" s="2" t="n">
@@ -5432,13 +5441,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="7" t="n">
@@ -5452,13 +5461,13 @@
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L94" s="0"/>
       <c r="M94" s="2" t="n">
@@ -5477,13 +5486,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D95" s="0"/>
       <c r="E95" s="7" t="n">
@@ -5497,13 +5506,13 @@
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L95" s="0"/>
       <c r="M95" s="2" t="n">
@@ -5522,13 +5531,13 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D96" s="0"/>
       <c r="E96" s="7" t="n">
@@ -5542,13 +5551,13 @@
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L96" s="0"/>
       <c r="M96" s="2" t="n">
@@ -5567,13 +5576,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D97" s="0"/>
       <c r="E97" s="7" t="n">
@@ -5587,13 +5596,13 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L97" s="0"/>
       <c r="M97" s="2" t="n">
@@ -5612,13 +5621,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D98" s="0"/>
       <c r="E98" s="7" t="n">
@@ -5632,13 +5641,13 @@
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L98" s="0"/>
       <c r="M98" s="2" t="n">
@@ -5657,13 +5666,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D99" s="0"/>
       <c r="E99" s="7" t="n">
@@ -5677,13 +5686,13 @@
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L99" s="0"/>
       <c r="M99" s="8" t="n">
@@ -5701,13 +5710,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D100" s="0"/>
       <c r="E100" s="7" t="n">
@@ -5721,13 +5730,13 @@
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L100" s="0"/>
       <c r="M100" s="2" t="n">
@@ -5745,13 +5754,13 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D101" s="0"/>
       <c r="E101" s="7" t="n">
@@ -5765,13 +5774,13 @@
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L101" s="0"/>
       <c r="M101" s="8" t="n">
@@ -5788,13 +5797,13 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D102" s="0"/>
       <c r="E102" s="7" t="n">
@@ -5808,13 +5817,13 @@
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L102" s="0"/>
       <c r="M102" s="2" t="n">
@@ -5833,13 +5842,13 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D103" s="0"/>
       <c r="E103" s="7" t="n">
@@ -5853,13 +5862,13 @@
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K103" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L103" s="0"/>
       <c r="M103" s="2" t="n">
@@ -5878,13 +5887,13 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D104" s="0"/>
       <c r="E104" s="7" t="n">
@@ -5898,13 +5907,13 @@
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L104" s="0"/>
       <c r="M104" s="2" t="n">
@@ -5923,13 +5932,13 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D105" s="0"/>
       <c r="E105" s="7" t="n">
@@ -5943,13 +5952,13 @@
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L105" s="0"/>
       <c r="M105" s="2" t="n">
@@ -5968,13 +5977,13 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="7" t="n">
@@ -5988,13 +5997,13 @@
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L106" s="0"/>
       <c r="M106" s="2" t="n">
@@ -6013,13 +6022,13 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D107" s="0"/>
       <c r="E107" s="7" t="n">
@@ -6033,13 +6042,13 @@
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L107" s="0"/>
       <c r="M107" s="2" t="n">
@@ -6058,13 +6067,13 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D108" s="0"/>
       <c r="E108" s="7" t="n">
@@ -6078,13 +6087,13 @@
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K108" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L108" s="0"/>
       <c r="M108" s="2" t="n">
@@ -6103,13 +6112,13 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D109" s="0"/>
       <c r="E109" s="7" t="n">
@@ -6123,13 +6132,13 @@
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L109" s="0"/>
       <c r="M109" s="2" t="n">
@@ -6148,13 +6157,13 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110" s="0"/>
       <c r="E110" s="7" t="n">
@@ -6168,13 +6177,13 @@
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L110" s="0"/>
       <c r="M110" s="8" t="n">
@@ -6192,13 +6201,13 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D111" s="0"/>
       <c r="E111" s="7" t="n">
@@ -6212,13 +6221,13 @@
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K111" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L111" s="0"/>
       <c r="M111" s="2" t="n">
@@ -6236,13 +6245,13 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112" s="0"/>
       <c r="E112" s="7" t="n">
@@ -6256,13 +6265,13 @@
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K112" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L112" s="0"/>
       <c r="M112" s="2" t="n">
@@ -6281,13 +6290,13 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D113" s="0"/>
       <c r="E113" s="7" t="n">
@@ -6301,13 +6310,13 @@
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K113" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L113" s="0"/>
       <c r="M113" s="2" t="n">
@@ -6326,13 +6335,13 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D114" s="0"/>
       <c r="E114" s="7" t="n">
@@ -6346,13 +6355,13 @@
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K114" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L114" s="0"/>
       <c r="M114" s="2" t="n">
@@ -6371,13 +6380,13 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D115" s="0"/>
       <c r="E115" s="7" t="n">
@@ -6391,13 +6400,13 @@
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K115" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L115" s="0"/>
       <c r="M115" s="2" t="n">
@@ -6416,13 +6425,13 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D116" s="0"/>
       <c r="E116" s="7" t="n">
@@ -6436,13 +6445,13 @@
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K116" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L116" s="0"/>
       <c r="M116" s="2" t="n">
@@ -6461,13 +6470,13 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D117" s="0"/>
       <c r="E117" s="7" t="n">
@@ -6481,13 +6490,13 @@
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L117" s="0"/>
       <c r="M117" s="2" t="n">
@@ -6506,13 +6515,13 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="7" t="n">
@@ -6526,13 +6535,13 @@
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L118" s="0"/>
       <c r="M118" s="2" t="n">
@@ -6551,13 +6560,13 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D119" s="0"/>
       <c r="E119" s="7" t="n">
@@ -6571,13 +6580,13 @@
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K119" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L119" s="0"/>
       <c r="M119" s="2" t="n">
@@ -6596,13 +6605,13 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D120" s="0"/>
       <c r="E120" s="7" t="n">
@@ -6616,13 +6625,13 @@
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K120" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L120" s="0"/>
       <c r="M120" s="2" t="n">
@@ -6641,13 +6650,13 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D121" s="0"/>
       <c r="E121" s="7" t="n">
@@ -6661,13 +6670,13 @@
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K121" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L121" s="0"/>
       <c r="M121" s="2" t="n">
@@ -6686,13 +6695,13 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D122" s="0"/>
       <c r="E122" s="7" t="n">
@@ -6706,13 +6715,13 @@
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K122" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L122" s="0"/>
       <c r="M122" s="2" t="n">
@@ -6731,13 +6740,13 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D123" s="0"/>
       <c r="E123" s="7" t="n">
@@ -6751,13 +6760,13 @@
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K123" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L123" s="0"/>
       <c r="M123" s="2" t="n">
@@ -6776,13 +6785,13 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D124" s="0"/>
       <c r="E124" s="7" t="n">
@@ -6796,13 +6805,13 @@
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K124" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L124" s="0"/>
       <c r="M124" s="2" t="n">
@@ -6821,13 +6830,13 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D125" s="0"/>
       <c r="E125" s="7" t="n">
@@ -6841,13 +6850,13 @@
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K125" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L125" s="0"/>
       <c r="M125" s="8" t="n">
@@ -6865,13 +6874,13 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D126" s="0"/>
       <c r="E126" s="7" t="n">
@@ -6885,13 +6894,13 @@
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K126" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L126" s="0"/>
       <c r="M126" s="2" t="n">
@@ -6910,13 +6919,13 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D127" s="0"/>
       <c r="E127" s="7" t="n">
@@ -6930,13 +6939,13 @@
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K127" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L127" s="0"/>
       <c r="M127" s="2" t="n">
@@ -6954,13 +6963,13 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="7" t="n">
@@ -6974,13 +6983,13 @@
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K128" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L128" s="0"/>
       <c r="M128" s="2" t="n">
@@ -6998,13 +7007,13 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="7" t="n">
@@ -7018,13 +7027,13 @@
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K129" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L129" s="0"/>
       <c r="M129" s="2" t="n">
@@ -7043,13 +7052,13 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="7" t="n">
@@ -7063,13 +7072,13 @@
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K130" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L130" s="0"/>
       <c r="M130" s="2" t="n">
@@ -7088,13 +7097,13 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D131" s="0"/>
       <c r="E131" s="7" t="n">
@@ -7108,13 +7117,13 @@
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L131" s="0"/>
       <c r="M131" s="2" t="n">
@@ -7133,13 +7142,13 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D132" s="0"/>
       <c r="E132" s="7" t="n">
@@ -7153,13 +7162,13 @@
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K132" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L132" s="0"/>
       <c r="M132" s="2" t="n">
@@ -7178,13 +7187,13 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D133" s="0"/>
       <c r="E133" s="7" t="n">
@@ -7198,13 +7207,13 @@
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K133" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L133" s="0"/>
       <c r="M133" s="2" t="n">
@@ -7223,13 +7232,13 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D134" s="0"/>
       <c r="E134" s="7" t="n">
@@ -7243,13 +7252,13 @@
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K134" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L134" s="0"/>
       <c r="M134" s="2" t="n">
@@ -7268,13 +7277,13 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D135" s="0"/>
       <c r="E135" s="7" t="n">
@@ -7288,13 +7297,13 @@
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K135" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L135" s="0"/>
       <c r="M135" s="2" t="n">
@@ -7313,13 +7322,13 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D136" s="0"/>
       <c r="E136" s="7" t="n">
@@ -7333,13 +7342,13 @@
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K136" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L136" s="0"/>
       <c r="M136" s="2" t="n">
@@ -7358,13 +7367,13 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D137" s="0"/>
       <c r="E137" s="7" t="n">
@@ -7378,13 +7387,13 @@
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K137" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L137" s="0"/>
       <c r="M137" s="2" t="n">
@@ -7403,13 +7412,13 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D138" s="0"/>
       <c r="E138" s="7" t="n">
@@ -7423,13 +7432,13 @@
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K138" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L138" s="0"/>
       <c r="M138" s="2" t="n">
@@ -7448,13 +7457,13 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D139" s="0"/>
       <c r="E139" s="7" t="n">
@@ -7468,13 +7477,13 @@
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K139" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L139" s="0"/>
       <c r="M139" s="2" t="n">
@@ -7493,13 +7502,13 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D140" s="0"/>
       <c r="E140" s="7" t="n">
@@ -7513,13 +7522,13 @@
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K140" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L140" s="0"/>
       <c r="M140" s="2" t="n">
@@ -7538,13 +7547,13 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D141" s="0"/>
       <c r="E141" s="7" t="n">
@@ -7558,13 +7567,13 @@
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K141" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L141" s="0"/>
       <c r="M141" s="2" t="n">
@@ -7583,13 +7592,13 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D142" s="0"/>
       <c r="E142" s="7" t="n">
@@ -7603,13 +7612,13 @@
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K142" s="13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L142" s="0"/>
       <c r="M142" s="2" t="n">
@@ -7628,13 +7637,13 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D143" s="0"/>
       <c r="E143" s="7" t="n">
@@ -7648,13 +7657,13 @@
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K143" s="13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L143" s="0"/>
       <c r="M143" s="2" t="n">
@@ -7673,13 +7682,13 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D144" s="0"/>
       <c r="E144" s="7" t="n">
@@ -7693,13 +7702,13 @@
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K144" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L144" s="0"/>
       <c r="M144" s="2" t="n">
@@ -7718,13 +7727,13 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D145" s="0"/>
       <c r="E145" s="1" t="n">
@@ -7738,13 +7747,13 @@
       </c>
       <c r="H145" s="0"/>
       <c r="I145" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L145" s="0"/>
       <c r="M145" s="2" t="n">
@@ -7767,13 +7776,13 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D146" s="0"/>
       <c r="E146" s="1" t="n">
@@ -7787,13 +7796,13 @@
       </c>
       <c r="H146" s="0"/>
       <c r="I146" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L146" s="0"/>
       <c r="M146" s="2" t="n">
@@ -7817,13 +7826,13 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D147" s="0"/>
       <c r="E147" s="1" t="n">
@@ -7837,13 +7846,13 @@
       </c>
       <c r="H147" s="0"/>
       <c r="I147" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L147" s="0"/>
       <c r="M147" s="2" t="n">
@@ -7868,13 +7877,13 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D148" s="0"/>
       <c r="E148" s="1" t="n">
@@ -7888,13 +7897,13 @@
       </c>
       <c r="H148" s="0"/>
       <c r="I148" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L148" s="0"/>
       <c r="M148" s="2" t="n">
@@ -7919,13 +7928,13 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D149" s="0"/>
       <c r="E149" s="1" t="n">
@@ -7939,13 +7948,13 @@
       </c>
       <c r="H149" s="0"/>
       <c r="I149" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L149" s="0"/>
       <c r="M149" s="2" t="n">
@@ -7968,13 +7977,13 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D150" s="0"/>
       <c r="E150" s="1" t="n">
@@ -7988,13 +7997,13 @@
       </c>
       <c r="H150" s="0"/>
       <c r="I150" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K150" s="14" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L150" s="0"/>
       <c r="M150" s="2" t="n">
@@ -8019,13 +8028,13 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D151" s="0"/>
       <c r="E151" s="1" t="n">
@@ -8043,10 +8052,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L151" s="0"/>
       <c r="M151" s="2" t="n">
@@ -8070,13 +8079,13 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D152" s="0"/>
       <c r="E152" s="1" t="n">
@@ -8094,10 +8103,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L152" s="0"/>
       <c r="M152" s="2" t="n">
@@ -8121,13 +8130,13 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D153" s="0"/>
       <c r="E153" s="1" t="n">
@@ -8141,13 +8150,13 @@
       </c>
       <c r="H153" s="0"/>
       <c r="I153" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L153" s="0"/>
       <c r="M153" s="2" t="n">
@@ -8170,13 +8179,13 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D154" s="0"/>
       <c r="E154" s="1" t="n">
@@ -8194,10 +8203,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L154" s="0"/>
       <c r="M154" s="2" t="n">
@@ -8221,13 +8230,13 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D155" s="0"/>
       <c r="E155" s="1" t="n">
@@ -8245,10 +8254,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L155" s="0"/>
       <c r="M155" s="2" t="n">
@@ -8273,13 +8282,13 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D156" s="0"/>
       <c r="E156" s="1" t="n">
@@ -8297,13 +8306,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M156" s="2" t="n">
         <f aca="false">M3</f>
@@ -8323,19 +8332,19 @@
       <c r="Q156" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R156" s="0" t="n">
+      <c r="T156" s="0" t="n">
         <v>17</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D157" s="0"/>
       <c r="E157" s="1" t="n">
@@ -8353,13 +8362,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M157" s="2" t="n">
         <f aca="false">M3</f>
@@ -8373,26 +8382,27 @@
         <f aca="false">O6</f>
         <v>3032</v>
       </c>
-      <c r="P157" s="16" t="n">
+      <c r="P157" s="2" t="n">
         <f aca="false">P6</f>
         <v>4010</v>
       </c>
       <c r="Q157" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R157" s="0" t="n">
+      <c r="T157" s="0" t="n">
+        <f aca="false">T6</f>
         <v>16</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D158" s="0"/>
       <c r="E158" s="1" t="n">
@@ -8410,10 +8420,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L158" s="0"/>
       <c r="M158" s="2" t="n">
@@ -8438,13 +8448,13 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D159" s="0"/>
       <c r="E159" s="1" t="n">
@@ -8462,10 +8472,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L159" s="0"/>
       <c r="M159" s="2" t="n">
@@ -8490,13 +8500,13 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D160" s="0"/>
       <c r="E160" s="1" t="n">
@@ -8510,13 +8520,13 @@
       </c>
       <c r="H160" s="0"/>
       <c r="I160" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L160" s="0"/>
       <c r="M160" s="2" t="n">
@@ -8541,13 +8551,13 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D161" s="0"/>
       <c r="E161" s="1" t="n">
@@ -8565,10 +8575,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L161" s="0"/>
       <c r="M161" s="2" t="n">
@@ -8593,13 +8603,13 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D162" s="0"/>
       <c r="E162" s="1" t="n">
@@ -8617,10 +8627,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L162" s="0"/>
       <c r="M162" s="2" t="n">
@@ -8645,13 +8655,13 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D163" s="0"/>
       <c r="E163" s="1" t="n">
@@ -8669,13 +8679,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M163" s="2" t="n">
         <f aca="false">M3</f>
@@ -8696,19 +8706,20 @@
       <c r="Q163" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R163" s="0" t="n">
+      <c r="T163" s="0" t="n">
+        <f aca="false">T156</f>
         <v>17</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D164" s="0"/>
       <c r="E164" s="1" t="n">
@@ -8726,13 +8737,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M164" s="2" t="n">
         <f aca="false">M3</f>
@@ -8753,19 +8764,20 @@
       <c r="Q164" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R164" s="0" t="n">
+      <c r="T164" s="0" t="n">
+        <f aca="false">T157</f>
         <v>16</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D165" s="0"/>
       <c r="E165" s="1" t="n">
@@ -8779,13 +8791,13 @@
       </c>
       <c r="H165" s="0"/>
       <c r="I165" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L165" s="0"/>
       <c r="M165" s="2" t="n">
@@ -8808,13 +8820,13 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D166" s="0"/>
       <c r="E166" s="1" t="n">
@@ -8828,13 +8840,13 @@
       </c>
       <c r="H166" s="0"/>
       <c r="I166" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L166" s="0"/>
       <c r="M166" s="2" t="n">
@@ -8858,13 +8870,13 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D167" s="0"/>
       <c r="E167" s="1" t="n">
@@ -8878,13 +8890,13 @@
       </c>
       <c r="H167" s="0"/>
       <c r="I167" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L167" s="0"/>
       <c r="M167" s="2" t="n">
@@ -8908,13 +8920,13 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D168" s="0"/>
       <c r="E168" s="1" t="n">
@@ -8928,13 +8940,13 @@
       </c>
       <c r="H168" s="0"/>
       <c r="I168" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L168" s="0"/>
       <c r="M168" s="2" t="n">
@@ -8958,13 +8970,13 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D169" s="0"/>
       <c r="E169" s="1" t="n">
@@ -8978,13 +8990,13 @@
       </c>
       <c r="H169" s="0"/>
       <c r="I169" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L169" s="0"/>
       <c r="M169" s="2" t="n">
@@ -9009,13 +9021,13 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D170" s="0"/>
       <c r="E170" s="1" t="n">
@@ -9029,13 +9041,13 @@
       </c>
       <c r="H170" s="0"/>
       <c r="I170" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L170" s="0"/>
       <c r="M170" s="2" t="n">
@@ -9060,13 +9072,13 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D171" s="0"/>
       <c r="E171" s="1" t="n">
@@ -9080,13 +9092,13 @@
       </c>
       <c r="H171" s="0"/>
       <c r="I171" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L171" s="0"/>
       <c r="M171" s="2" t="n">
@@ -9111,13 +9123,13 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D172" s="0"/>
       <c r="E172" s="1" t="n">
@@ -9131,13 +9143,13 @@
       </c>
       <c r="H172" s="0"/>
       <c r="I172" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L172" s="0"/>
       <c r="M172" s="2" t="n">
@@ -9162,16 +9174,16 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E173" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9191,13 +9203,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J173" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="M173" s="2" t="n">
         <f aca="false">M3</f>
@@ -9227,16 +9239,16 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E174" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9258,13 +9270,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M174" s="2" t="n">
         <f aca="false">M3</f>
@@ -9294,16 +9306,16 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E175" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9325,13 +9337,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M175" s="2" t="n">
         <f aca="false">M3</f>
@@ -9361,16 +9373,16 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E176" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9392,13 +9404,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M176" s="2" t="n">
         <f aca="false">M3</f>
@@ -9428,16 +9440,16 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E177" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9459,13 +9471,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M177" s="2" t="n">
         <f aca="false">M3</f>
@@ -9495,16 +9507,16 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E178" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9526,13 +9538,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M178" s="2" t="n">
         <f aca="false">M3</f>
@@ -9562,16 +9574,16 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E179" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9591,13 +9603,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J179" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="K179" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L179" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="M179" s="2" t="n">
         <f aca="false">M3</f>
@@ -9627,16 +9639,16 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E180" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9658,13 +9670,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M180" s="2" t="n">
         <f aca="false">M3</f>
@@ -9694,16 +9706,16 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E181" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9725,13 +9737,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M181" s="2" t="n">
         <f aca="false">M3</f>
@@ -9761,16 +9773,16 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E182" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9792,13 +9804,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M182" s="2" t="n">
         <f aca="false">M3</f>
@@ -9828,16 +9840,16 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E183" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9859,13 +9871,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M183" s="2" t="n">
         <f aca="false">M3</f>
@@ -9895,16 +9907,16 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E184" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9926,13 +9938,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M184" s="2" t="n">
         <f aca="false">M3</f>
@@ -9962,16 +9974,16 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E185" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9991,13 +10003,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J185" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="K185" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="M185" s="2" t="n">
         <f aca="false">M3</f>
@@ -10026,16 +10038,16 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E186" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10057,13 +10069,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M186" s="2" t="n">
         <f aca="false">M3</f>
@@ -10093,16 +10105,16 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E187" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10124,13 +10136,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M187" s="2" t="n">
         <f aca="false">M3</f>
@@ -10160,16 +10172,16 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E188" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10191,13 +10203,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M188" s="2" t="n">
         <f aca="false">M3</f>
@@ -10227,16 +10239,16 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E189" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10258,13 +10270,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M189" s="2" t="n">
         <f aca="false">M3</f>
@@ -10294,16 +10306,16 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E190" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10325,13 +10337,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K190" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M190" s="2" t="n">
         <f aca="false">M3</f>
@@ -10361,16 +10373,16 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E191" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10390,13 +10402,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J191" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="K191" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L191" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="M191" s="2" t="n">
         <f aca="false">M3</f>
@@ -10426,16 +10438,16 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E192" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10457,13 +10469,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M192" s="2" t="n">
         <f aca="false">M3</f>
@@ -10493,16 +10505,16 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E193" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10524,13 +10536,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M193" s="2" t="n">
         <f aca="false">M3</f>
@@ -10560,16 +10572,16 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E194" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10591,13 +10603,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M194" s="2" t="n">
         <f aca="false">M3</f>
@@ -10627,16 +10639,16 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E195" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10658,13 +10670,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M195" s="2" t="n">
         <f aca="false">M3</f>
@@ -10694,16 +10706,16 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E196" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10725,13 +10737,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K196" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M196" s="2" t="n">
         <f aca="false">M3</f>
@@ -10761,16 +10773,16 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E197" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10790,13 +10802,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J197" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="K197" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="M197" s="2" t="n">
         <f aca="false">M3</f>
@@ -10826,16 +10838,16 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E198" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10857,13 +10869,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M198" s="2" t="n">
         <f aca="false">M3</f>
@@ -10893,16 +10905,16 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E199" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10924,13 +10936,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M199" s="2" t="n">
         <f aca="false">M3</f>
@@ -10960,16 +10972,16 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E200" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10991,13 +11003,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M200" s="2" t="n">
         <f aca="false">M3</f>
@@ -11027,16 +11039,16 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E201" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11058,13 +11070,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M201" s="2" t="n">
         <f aca="false">M3</f>
@@ -11094,16 +11106,16 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E202" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11125,13 +11137,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K202" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M202" s="2" t="n">
         <f aca="false">M3</f>
@@ -11161,16 +11173,16 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E203" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11190,13 +11202,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J203" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="K203" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="M203" s="2" t="n">
         <f aca="false">M3</f>
@@ -11226,16 +11238,16 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E204" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11257,13 +11269,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M204" s="2" t="n">
         <f aca="false">M3</f>
@@ -11293,16 +11305,16 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E205" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11324,13 +11336,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M205" s="2" t="n">
         <f aca="false">M3</f>
@@ -11360,16 +11372,16 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E206" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11391,13 +11403,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M206" s="2" t="n">
         <f aca="false">M3</f>
@@ -11427,16 +11439,16 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E207" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11458,13 +11470,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M207" s="2" t="n">
         <f aca="false">M3</f>
@@ -11494,16 +11506,16 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E208" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11525,13 +11537,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M208" s="2" t="n">
         <f aca="false">M3</f>
@@ -11583,284 +11595,284 @@
   </sheetPr>
   <dimension ref="A1:U14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S15" activeCellId="0" sqref="S15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N44" activeCellId="2" sqref="S164 S163 N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.9595141700405"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.6356275303644"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="13" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="17" t="s">
+    <row r="1" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="R1" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>181</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>182</v>
       </c>
       <c r="U1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M2" s="0" t="n">
         <f aca="false">mapping!M110</f>
         <v>1001</v>
       </c>
-      <c r="N2" s="18" t="n">
+      <c r="N2" s="17" t="n">
         <v>2300</v>
       </c>
-      <c r="O2" s="18" t="n">
+      <c r="O2" s="17" t="n">
         <v>3400</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>188</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M3" s="0" t="n">
         <f aca="false">mapping!M125</f>
         <v>1005</v>
       </c>
-      <c r="N3" s="18" t="n">
+      <c r="N3" s="17" t="n">
         <v>2301</v>
       </c>
-      <c r="O3" s="18" t="n">
+      <c r="O3" s="17" t="n">
         <v>3401</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>190</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">M3</f>
         <v>1005</v>
       </c>
-      <c r="N4" s="18" t="n">
+      <c r="N4" s="17" t="n">
         <v>2302</v>
       </c>
-      <c r="O4" s="18" t="n">
+      <c r="O4" s="17" t="n">
         <v>3402</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>193</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M5" s="0" t="n">
         <f aca="false">mapping!M87</f>
         <v>1004</v>
       </c>
-      <c r="N5" s="18" t="n">
+      <c r="N5" s="17" t="n">
         <v>2303</v>
       </c>
-      <c r="O5" s="18" t="n">
+      <c r="O5" s="17" t="n">
         <v>3403</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>195</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M6" s="0" t="n">
         <f aca="false">M5</f>
         <v>1004</v>
       </c>
-      <c r="N6" s="18" t="n">
+      <c r="N6" s="17" t="n">
         <v>2304</v>
       </c>
-      <c r="O6" s="18" t="n">
+      <c r="O6" s="17" t="n">
         <v>3404</v>
       </c>
       <c r="Q6" s="0" t="n">
@@ -11875,148 +11887,148 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>198</v>
-      </c>
       <c r="H7" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M7" s="0" t="n">
         <f aca="false">mapping!M101</f>
         <v>1010</v>
       </c>
-      <c r="N7" s="18" t="n">
+      <c r="N7" s="17" t="n">
         <v>2305</v>
       </c>
-      <c r="O7" s="18" t="n">
+      <c r="O7" s="17" t="n">
         <v>3405</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>201</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M8" s="0" t="n">
         <f aca="false">mapping!M72</f>
         <v>1007</v>
       </c>
-      <c r="N8" s="18" t="n">
+      <c r="N8" s="17" t="n">
         <v>2306</v>
       </c>
-      <c r="O8" s="18" t="n">
+      <c r="O8" s="17" t="n">
         <v>3406</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>203</v>
-      </c>
       <c r="H9" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">M8</f>
         <v>1007</v>
       </c>
-      <c r="N9" s="18" t="n">
+      <c r="N9" s="17" t="n">
         <v>2307</v>
       </c>
-      <c r="O9" s="18" t="n">
+      <c r="O9" s="17" t="n">
         <v>3407</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M10" s="0" t="n">
         <f aca="false">mapping!M23</f>
@@ -12026,7 +12038,7 @@
         <f aca="false">mapping!N25</f>
         <v>2012</v>
       </c>
-      <c r="O10" s="18" t="n">
+      <c r="O10" s="17" t="n">
         <v>3408</v>
       </c>
       <c r="Q10" s="0" t="n">
@@ -12035,109 +12047,109 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F11" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>211</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M11" s="0" t="n">
         <f aca="false">mapping!M63</f>
         <v>1008</v>
       </c>
-      <c r="N11" s="18" t="n">
+      <c r="N11" s="17" t="n">
         <v>2308</v>
       </c>
-      <c r="O11" s="18" t="n">
+      <c r="O11" s="17" t="n">
         <v>3409</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>213</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M12" s="0" t="n">
         <f aca="false">M11</f>
         <v>1008</v>
       </c>
-      <c r="N12" s="18" t="n">
+      <c r="N12" s="17" t="n">
         <v>2309</v>
       </c>
-      <c r="O12" s="18" t="n">
+      <c r="O12" s="17" t="n">
         <v>3410</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="C13" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="18" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="I13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>217</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>218</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>1100</v>
@@ -12150,32 +12162,32 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>212</v>
+      <c r="A14" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>213</v>
       </c>
       <c r="M14" s="0" t="n">
         <f aca="false">M13</f>

--- a/apps/resources/categories_mapping_new.xlsx
+++ b/apps/resources/categories_mapping_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" state="visible" r:id="rId2"/>
@@ -48,6 +48,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">mapping!$1:$2</definedName>
@@ -57,6 +58,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
@@ -66,6 +68,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -77,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="224">
   <si>
     <t xml:space="preserve">Anicennes catégories</t>
   </si>
@@ -133,6 +136,9 @@
     <t xml:space="preserve">ABP NATURE ID ALT</t>
   </si>
   <si>
+    <t xml:space="preserve">ABP SUBNATURE ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Débris/Objets abandonnés</t>
   </si>
   <si>
@@ -511,6 +517,9 @@
     <t xml:space="preserve">bulle débordante</t>
   </si>
   <si>
+    <t xml:space="preserve">Blanche</t>
+  </si>
+  <si>
     <t xml:space="preserve">bulle sale</t>
   </si>
   <si>
@@ -628,6 +637,9 @@
     <t xml:space="preserve">ABP Bagtype ID</t>
   </si>
   <si>
+    <t xml:space="preserve">ABP SubNature ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coating</t>
   </si>
   <si>
@@ -695,6 +707,9 @@
   </si>
   <si>
     <t xml:space="preserve">Bike rack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Couleur</t>
   </si>
   <si>
     <t xml:space="preserve">Public lightning</t>
@@ -746,7 +761,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -791,6 +806,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -911,7 +932,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -981,6 +1002,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1072,32 +1097,34 @@
   </sheetPr>
   <dimension ref="1:208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K147" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S163" activeCellId="1" sqref="S164 S163"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H150" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="U172" activeCellId="0" sqref="U172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.5263157894737"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.8825910931174"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="1025" min="20" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4372469635628"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1125,6 +1152,7 @@
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -1176,19 +1204,22 @@
       <c r="S2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="0" t="s">
+      <c r="T2" s="5" t="s">
         <v>17</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="n">
@@ -1202,16 +1233,16 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M3" s="8" t="n">
         <f aca="false">E3+1000</f>
@@ -1245,13 +1276,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="n">
@@ -1269,10 +1300,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" s="0"/>
       <c r="M4" s="10" t="n">
@@ -1296,13 +1327,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="n">
@@ -1320,10 +1351,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L5" s="0"/>
       <c r="M5" s="10" t="n">
@@ -1345,13 +1376,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="n">
@@ -1369,13 +1400,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1400,13 +1431,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="n">
@@ -1424,10 +1455,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L7" s="0"/>
       <c r="M7" s="10" t="n">
@@ -1449,13 +1480,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="n">
@@ -1473,13 +1504,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1507,13 +1538,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="n">
@@ -1531,13 +1562,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1567,13 +1598,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="n">
@@ -1591,10 +1622,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="10" t="n">
@@ -1619,13 +1650,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="n">
@@ -1643,13 +1674,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1679,13 +1710,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="n">
@@ -1703,10 +1734,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="10" t="n">
@@ -1731,13 +1762,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="n">
@@ -1755,10 +1786,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="10" t="n">
@@ -1780,13 +1811,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="n">
@@ -1804,13 +1835,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M14" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1838,13 +1869,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="n">
@@ -1862,13 +1893,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M15" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1898,13 +1929,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="n">
@@ -1922,10 +1953,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="10" t="n">
@@ -1950,13 +1981,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="n">
@@ -1974,10 +2005,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="10" t="n">
@@ -1999,13 +2030,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="n">
@@ -2023,13 +2054,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M18" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -2057,13 +2088,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="n">
@@ -2081,13 +2112,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M19" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -2117,13 +2148,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="n">
@@ -2141,10 +2172,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L20" s="0"/>
       <c r="M20" s="10" t="n">
@@ -2169,13 +2200,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="n">
@@ -2193,10 +2224,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L21" s="0"/>
       <c r="M21" s="10" t="n">
@@ -2218,13 +2249,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="n">
@@ -2242,13 +2273,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M22" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -2276,13 +2307,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="7" t="n">
@@ -2296,13 +2327,13 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L23" s="0"/>
       <c r="M23" s="8" t="n">
@@ -2320,13 +2351,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="7" t="n">
@@ -2340,13 +2371,13 @@
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L24" s="0"/>
       <c r="M24" s="2" t="n">
@@ -2364,13 +2395,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="7" t="n">
@@ -2384,13 +2415,13 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L25" s="0"/>
       <c r="M25" s="2" t="n">
@@ -2408,13 +2439,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="7" t="n">
@@ -2428,13 +2459,13 @@
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L26" s="0"/>
       <c r="M26" s="2" t="n">
@@ -2453,13 +2484,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="7" t="n">
@@ -2473,13 +2504,13 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="0"/>
       <c r="M27" s="2" t="n">
@@ -2498,13 +2529,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="7" t="n">
@@ -2518,13 +2549,13 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L28" s="0"/>
       <c r="M28" s="2" t="n">
@@ -2543,13 +2574,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="7" t="n">
@@ -2563,13 +2594,13 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="2" t="n">
@@ -2588,13 +2619,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="7" t="n">
@@ -2608,13 +2639,13 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L30" s="0"/>
       <c r="M30" s="2" t="n">
@@ -2633,13 +2664,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="7" t="n">
@@ -2653,13 +2684,13 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L31" s="0"/>
       <c r="M31" s="2" t="n">
@@ -2678,13 +2709,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="7" t="n">
@@ -2698,13 +2729,13 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L32" s="0"/>
       <c r="M32" s="2" t="n">
@@ -2723,13 +2754,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="7" t="n">
@@ -2743,13 +2774,13 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L33" s="0"/>
       <c r="M33" s="2" t="n">
@@ -2768,13 +2799,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="7" t="n">
@@ -2788,13 +2819,13 @@
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L34" s="0"/>
       <c r="M34" s="2" t="n">
@@ -2813,13 +2844,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="7" t="n">
@@ -2833,13 +2864,13 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L35" s="0"/>
       <c r="M35" s="2" t="n">
@@ -2858,13 +2889,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="7" t="n">
@@ -2878,13 +2909,13 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L36" s="0"/>
       <c r="M36" s="2" t="n">
@@ -2903,13 +2934,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="7" t="n">
@@ -2923,13 +2954,13 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L37" s="0"/>
       <c r="M37" s="2" t="n">
@@ -2948,13 +2979,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="7" t="n">
@@ -2968,13 +2999,13 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L38" s="0"/>
       <c r="M38" s="2" t="n">
@@ -2993,13 +3024,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="7" t="n">
@@ -3013,13 +3044,13 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L39" s="0"/>
       <c r="M39" s="2" t="n">
@@ -3038,13 +3069,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="7" t="n">
@@ -3058,13 +3089,13 @@
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L40" s="0"/>
       <c r="M40" s="2" t="n">
@@ -3083,13 +3114,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="7" t="n">
@@ -3103,13 +3134,13 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L41" s="0"/>
       <c r="M41" s="2" t="n">
@@ -3128,13 +3159,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="7" t="n">
@@ -3148,13 +3179,13 @@
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L42" s="0"/>
       <c r="M42" s="2" t="n">
@@ -3172,13 +3203,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D43" s="0"/>
       <c r="E43" s="7" t="n">
@@ -3192,13 +3223,13 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L43" s="0"/>
       <c r="M43" s="2" t="n">
@@ -3217,13 +3248,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="7" t="n">
@@ -3237,13 +3268,13 @@
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L44" s="0"/>
       <c r="M44" s="2" t="n">
@@ -3262,13 +3293,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="7" t="n">
@@ -3282,13 +3313,13 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L45" s="0"/>
       <c r="M45" s="2" t="n">
@@ -3307,13 +3338,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="7" t="n">
@@ -3327,13 +3358,13 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L46" s="0"/>
       <c r="M46" s="2" t="n">
@@ -3351,13 +3382,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D47" s="0"/>
       <c r="E47" s="7" t="n">
@@ -3371,13 +3402,13 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L47" s="0"/>
       <c r="M47" s="2" t="n">
@@ -3395,13 +3426,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="7" t="n">
@@ -3415,13 +3446,13 @@
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L48" s="0"/>
       <c r="M48" s="2" t="n">
@@ -3439,13 +3470,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D49" s="0"/>
       <c r="E49" s="7" t="n">
@@ -3459,13 +3490,13 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L49" s="0"/>
       <c r="M49" s="2" t="n">
@@ -3483,13 +3514,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="7" t="n">
@@ -3503,13 +3534,13 @@
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L50" s="0"/>
       <c r="M50" s="2" t="n">
@@ -3527,13 +3558,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="7" t="n">
@@ -3547,13 +3578,13 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L51" s="0"/>
       <c r="M51" s="2" t="n">
@@ -3571,13 +3602,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="7" t="n">
@@ -3591,13 +3622,13 @@
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L52" s="0"/>
       <c r="M52" s="2" t="n">
@@ -3615,13 +3646,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="7" t="n">
@@ -3635,13 +3666,13 @@
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L53" s="0"/>
       <c r="M53" s="2" t="n">
@@ -3659,13 +3690,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="7" t="n">
@@ -3679,13 +3710,13 @@
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L54" s="0"/>
       <c r="M54" s="2" t="n">
@@ -3703,13 +3734,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D55" s="0"/>
       <c r="E55" s="7" t="n">
@@ -3723,13 +3754,13 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L55" s="0"/>
       <c r="M55" s="2" t="n">
@@ -3747,13 +3778,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D56" s="0"/>
       <c r="E56" s="7" t="n">
@@ -3767,13 +3798,13 @@
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L56" s="0"/>
       <c r="M56" s="2" t="n">
@@ -3791,13 +3822,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D57" s="0"/>
       <c r="E57" s="7" t="n">
@@ -3811,13 +3842,13 @@
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L57" s="0"/>
       <c r="M57" s="2" t="n">
@@ -3835,13 +3866,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="7" t="n">
@@ -3855,13 +3886,13 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L58" s="0"/>
       <c r="M58" s="2" t="n">
@@ -3878,13 +3909,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D59" s="0"/>
       <c r="E59" s="7" t="n">
@@ -3898,13 +3929,13 @@
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L59" s="0"/>
       <c r="M59" s="2" t="n">
@@ -3922,13 +3953,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D60" s="0"/>
       <c r="E60" s="7" t="n">
@@ -3942,13 +3973,13 @@
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L60" s="0"/>
       <c r="M60" s="2" t="n">
@@ -3966,13 +3997,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D61" s="0"/>
       <c r="E61" s="7" t="n">
@@ -3986,13 +4017,13 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L61" s="0"/>
       <c r="M61" s="2" t="n">
@@ -4010,13 +4041,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D62" s="0"/>
       <c r="E62" s="7" t="n">
@@ -4030,13 +4061,13 @@
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L62" s="0"/>
       <c r="M62" s="2" t="n">
@@ -4054,13 +4085,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D63" s="0"/>
       <c r="E63" s="7" t="n">
@@ -4074,13 +4105,13 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L63" s="0"/>
       <c r="M63" s="8" t="n">
@@ -4098,13 +4129,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D64" s="0"/>
       <c r="E64" s="7" t="n">
@@ -4118,13 +4149,13 @@
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L64" s="0"/>
       <c r="M64" s="2" t="n">
@@ -4143,13 +4174,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D65" s="0"/>
       <c r="E65" s="7" t="n">
@@ -4163,13 +4194,13 @@
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L65" s="0"/>
       <c r="M65" s="2" t="n">
@@ -4187,13 +4218,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D66" s="0"/>
       <c r="E66" s="7" t="n">
@@ -4207,13 +4238,13 @@
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L66" s="0"/>
       <c r="M66" s="2" t="n">
@@ -4231,13 +4262,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D67" s="0"/>
       <c r="E67" s="7" t="n">
@@ -4251,13 +4282,13 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L67" s="0"/>
       <c r="M67" s="2" t="n">
@@ -4276,13 +4307,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D68" s="0"/>
       <c r="E68" s="7" t="n">
@@ -4296,13 +4327,13 @@
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L68" s="0"/>
       <c r="M68" s="2" t="n">
@@ -4321,13 +4352,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D69" s="0"/>
       <c r="E69" s="7" t="n">
@@ -4341,13 +4372,13 @@
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L69" s="0"/>
       <c r="M69" s="2" t="n">
@@ -4366,13 +4397,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="7" t="n">
@@ -4386,13 +4417,13 @@
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L70" s="0"/>
       <c r="M70" s="2" t="n">
@@ -4410,13 +4441,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D71" s="0"/>
       <c r="E71" s="7" t="n">
@@ -4430,13 +4461,13 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L71" s="0"/>
       <c r="M71" s="2" t="n">
@@ -4455,13 +4486,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72" s="0"/>
       <c r="E72" s="7" t="n">
@@ -4475,13 +4506,13 @@
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L72" s="0"/>
       <c r="M72" s="8" t="n">
@@ -4499,13 +4530,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73" s="0"/>
       <c r="E73" s="7" t="n">
@@ -4519,13 +4550,13 @@
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L73" s="0"/>
       <c r="M73" s="2" t="n">
@@ -4544,13 +4575,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D74" s="0"/>
       <c r="E74" s="7" t="n">
@@ -4564,13 +4595,13 @@
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L74" s="0"/>
       <c r="M74" s="2" t="n">
@@ -4589,13 +4620,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D75" s="0"/>
       <c r="E75" s="7" t="n">
@@ -4609,13 +4640,13 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L75" s="0"/>
       <c r="M75" s="2" t="n">
@@ -4634,13 +4665,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76" s="0"/>
       <c r="E76" s="7" t="n">
@@ -4654,13 +4685,13 @@
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L76" s="0"/>
       <c r="M76" s="2" t="n">
@@ -4679,13 +4710,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D77" s="0"/>
       <c r="E77" s="7" t="n">
@@ -4699,13 +4730,13 @@
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L77" s="0"/>
       <c r="M77" s="2" t="n">
@@ -4724,13 +4755,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D78" s="0"/>
       <c r="E78" s="7" t="n">
@@ -4744,13 +4775,13 @@
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L78" s="0"/>
       <c r="M78" s="2" t="n">
@@ -4769,13 +4800,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D79" s="0"/>
       <c r="E79" s="7" t="n">
@@ -4789,13 +4820,13 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L79" s="0"/>
       <c r="M79" s="2" t="n">
@@ -4814,13 +4845,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D80" s="0"/>
       <c r="E80" s="7" t="n">
@@ -4834,13 +4865,13 @@
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L80" s="0"/>
       <c r="M80" s="2" t="n">
@@ -4859,13 +4890,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D81" s="0"/>
       <c r="E81" s="7" t="n">
@@ -4879,13 +4910,13 @@
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L81" s="0"/>
       <c r="M81" s="2" t="n">
@@ -4904,13 +4935,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="7" t="n">
@@ -4924,13 +4955,13 @@
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L82" s="0"/>
       <c r="M82" s="2" t="n">
@@ -4949,13 +4980,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D83" s="0"/>
       <c r="E83" s="7" t="n">
@@ -4969,13 +5000,13 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L83" s="0"/>
       <c r="M83" s="2" t="n">
@@ -4994,13 +5025,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D84" s="0"/>
       <c r="E84" s="7" t="n">
@@ -5014,13 +5045,13 @@
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L84" s="0"/>
       <c r="M84" s="2" t="n">
@@ -5039,13 +5070,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D85" s="0"/>
       <c r="E85" s="7" t="n">
@@ -5059,13 +5090,13 @@
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L85" s="0"/>
       <c r="M85" s="2" t="n">
@@ -5084,13 +5115,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D86" s="0"/>
       <c r="E86" s="7" t="n">
@@ -5104,13 +5135,13 @@
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L86" s="0"/>
       <c r="M86" s="2" t="n">
@@ -5129,13 +5160,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D87" s="0"/>
       <c r="E87" s="7" t="n">
@@ -5149,13 +5180,13 @@
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L87" s="0"/>
       <c r="M87" s="8" t="n">
@@ -5173,13 +5204,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D88" s="0"/>
       <c r="E88" s="7" t="n">
@@ -5193,13 +5224,13 @@
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L88" s="0"/>
       <c r="M88" s="2" t="n">
@@ -5217,13 +5248,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D89" s="0"/>
       <c r="E89" s="7" t="n">
@@ -5237,13 +5268,13 @@
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K89" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L89" s="0"/>
       <c r="M89" s="2" t="n">
@@ -5261,13 +5292,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D90" s="0"/>
       <c r="E90" s="7" t="n">
@@ -5281,13 +5312,13 @@
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L90" s="0"/>
       <c r="M90" s="2" t="n">
@@ -5306,13 +5337,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D91" s="0"/>
       <c r="E91" s="7" t="n">
@@ -5326,13 +5357,13 @@
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L91" s="0"/>
       <c r="M91" s="2" t="n">
@@ -5351,13 +5382,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D92" s="0"/>
       <c r="E92" s="7" t="n">
@@ -5371,13 +5402,13 @@
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L92" s="0"/>
       <c r="M92" s="2" t="n">
@@ -5396,13 +5427,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D93" s="0"/>
       <c r="E93" s="7" t="n">
@@ -5416,13 +5447,13 @@
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L93" s="0"/>
       <c r="M93" s="2" t="n">
@@ -5441,13 +5472,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="7" t="n">
@@ -5461,13 +5492,13 @@
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L94" s="0"/>
       <c r="M94" s="2" t="n">
@@ -5486,13 +5517,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D95" s="0"/>
       <c r="E95" s="7" t="n">
@@ -5506,13 +5537,13 @@
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L95" s="0"/>
       <c r="M95" s="2" t="n">
@@ -5531,13 +5562,13 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D96" s="0"/>
       <c r="E96" s="7" t="n">
@@ -5551,13 +5582,13 @@
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L96" s="0"/>
       <c r="M96" s="2" t="n">
@@ -5576,13 +5607,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D97" s="0"/>
       <c r="E97" s="7" t="n">
@@ -5596,13 +5627,13 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L97" s="0"/>
       <c r="M97" s="2" t="n">
@@ -5621,13 +5652,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D98" s="0"/>
       <c r="E98" s="7" t="n">
@@ -5641,13 +5672,13 @@
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L98" s="0"/>
       <c r="M98" s="2" t="n">
@@ -5666,13 +5697,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D99" s="0"/>
       <c r="E99" s="7" t="n">
@@ -5686,13 +5717,13 @@
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L99" s="0"/>
       <c r="M99" s="8" t="n">
@@ -5710,13 +5741,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D100" s="0"/>
       <c r="E100" s="7" t="n">
@@ -5730,13 +5761,13 @@
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L100" s="0"/>
       <c r="M100" s="2" t="n">
@@ -5754,13 +5785,13 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D101" s="0"/>
       <c r="E101" s="7" t="n">
@@ -5774,13 +5805,13 @@
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L101" s="0"/>
       <c r="M101" s="8" t="n">
@@ -5797,13 +5828,13 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D102" s="0"/>
       <c r="E102" s="7" t="n">
@@ -5817,13 +5848,13 @@
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L102" s="0"/>
       <c r="M102" s="2" t="n">
@@ -5842,13 +5873,13 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D103" s="0"/>
       <c r="E103" s="7" t="n">
@@ -5862,13 +5893,13 @@
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K103" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L103" s="0"/>
       <c r="M103" s="2" t="n">
@@ -5887,13 +5918,13 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D104" s="0"/>
       <c r="E104" s="7" t="n">
@@ -5907,13 +5938,13 @@
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L104" s="0"/>
       <c r="M104" s="2" t="n">
@@ -5932,13 +5963,13 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D105" s="0"/>
       <c r="E105" s="7" t="n">
@@ -5952,13 +5983,13 @@
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L105" s="0"/>
       <c r="M105" s="2" t="n">
@@ -5977,13 +6008,13 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="7" t="n">
@@ -5997,13 +6028,13 @@
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L106" s="0"/>
       <c r="M106" s="2" t="n">
@@ -6022,13 +6053,13 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D107" s="0"/>
       <c r="E107" s="7" t="n">
@@ -6042,13 +6073,13 @@
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L107" s="0"/>
       <c r="M107" s="2" t="n">
@@ -6067,13 +6098,13 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D108" s="0"/>
       <c r="E108" s="7" t="n">
@@ -6087,13 +6118,13 @@
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K108" s="15" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L108" s="0"/>
       <c r="M108" s="2" t="n">
@@ -6112,13 +6143,13 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D109" s="0"/>
       <c r="E109" s="7" t="n">
@@ -6132,13 +6163,13 @@
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L109" s="0"/>
       <c r="M109" s="2" t="n">
@@ -6157,13 +6188,13 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D110" s="0"/>
       <c r="E110" s="7" t="n">
@@ -6177,13 +6208,13 @@
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L110" s="0"/>
       <c r="M110" s="8" t="n">
@@ -6201,13 +6232,13 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D111" s="0"/>
       <c r="E111" s="7" t="n">
@@ -6221,13 +6252,13 @@
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K111" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L111" s="0"/>
       <c r="M111" s="2" t="n">
@@ -6245,13 +6276,13 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D112" s="0"/>
       <c r="E112" s="7" t="n">
@@ -6265,13 +6296,13 @@
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K112" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L112" s="0"/>
       <c r="M112" s="2" t="n">
@@ -6290,13 +6321,13 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D113" s="0"/>
       <c r="E113" s="7" t="n">
@@ -6310,13 +6341,13 @@
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K113" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L113" s="0"/>
       <c r="M113" s="2" t="n">
@@ -6335,13 +6366,13 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D114" s="0"/>
       <c r="E114" s="7" t="n">
@@ -6355,13 +6386,13 @@
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K114" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L114" s="0"/>
       <c r="M114" s="2" t="n">
@@ -6380,13 +6411,13 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D115" s="0"/>
       <c r="E115" s="7" t="n">
@@ -6400,13 +6431,13 @@
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K115" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L115" s="0"/>
       <c r="M115" s="2" t="n">
@@ -6425,13 +6456,13 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D116" s="0"/>
       <c r="E116" s="7" t="n">
@@ -6445,13 +6476,13 @@
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K116" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L116" s="0"/>
       <c r="M116" s="2" t="n">
@@ -6470,13 +6501,13 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D117" s="0"/>
       <c r="E117" s="7" t="n">
@@ -6490,13 +6521,13 @@
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L117" s="0"/>
       <c r="M117" s="2" t="n">
@@ -6515,13 +6546,13 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="7" t="n">
@@ -6535,13 +6566,13 @@
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L118" s="0"/>
       <c r="M118" s="2" t="n">
@@ -6560,13 +6591,13 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D119" s="0"/>
       <c r="E119" s="7" t="n">
@@ -6580,13 +6611,13 @@
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K119" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L119" s="0"/>
       <c r="M119" s="2" t="n">
@@ -6605,13 +6636,13 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D120" s="0"/>
       <c r="E120" s="7" t="n">
@@ -6625,13 +6656,13 @@
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K120" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L120" s="0"/>
       <c r="M120" s="2" t="n">
@@ -6650,13 +6681,13 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D121" s="0"/>
       <c r="E121" s="7" t="n">
@@ -6670,13 +6701,13 @@
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K121" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L121" s="0"/>
       <c r="M121" s="2" t="n">
@@ -6695,13 +6726,13 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D122" s="0"/>
       <c r="E122" s="7" t="n">
@@ -6715,13 +6746,13 @@
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K122" s="13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L122" s="0"/>
       <c r="M122" s="2" t="n">
@@ -6740,13 +6771,13 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D123" s="0"/>
       <c r="E123" s="7" t="n">
@@ -6760,13 +6791,13 @@
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K123" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L123" s="0"/>
       <c r="M123" s="2" t="n">
@@ -6785,13 +6816,13 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D124" s="0"/>
       <c r="E124" s="7" t="n">
@@ -6805,13 +6836,13 @@
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K124" s="13" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L124" s="0"/>
       <c r="M124" s="2" t="n">
@@ -6830,13 +6861,13 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D125" s="0"/>
       <c r="E125" s="7" t="n">
@@ -6850,13 +6881,13 @@
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K125" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L125" s="0"/>
       <c r="M125" s="8" t="n">
@@ -6874,13 +6905,13 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D126" s="0"/>
       <c r="E126" s="7" t="n">
@@ -6894,13 +6925,13 @@
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K126" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L126" s="0"/>
       <c r="M126" s="2" t="n">
@@ -6919,13 +6950,13 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D127" s="0"/>
       <c r="E127" s="7" t="n">
@@ -6939,13 +6970,13 @@
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K127" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L127" s="0"/>
       <c r="M127" s="2" t="n">
@@ -6963,13 +6994,13 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="7" t="n">
@@ -6983,13 +7014,13 @@
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K128" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L128" s="0"/>
       <c r="M128" s="2" t="n">
@@ -7007,13 +7038,13 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="7" t="n">
@@ -7027,13 +7058,13 @@
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K129" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L129" s="0"/>
       <c r="M129" s="2" t="n">
@@ -7052,13 +7083,13 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="7" t="n">
@@ -7072,13 +7103,13 @@
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K130" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L130" s="0"/>
       <c r="M130" s="2" t="n">
@@ -7097,13 +7128,13 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D131" s="0"/>
       <c r="E131" s="7" t="n">
@@ -7117,13 +7148,13 @@
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L131" s="0"/>
       <c r="M131" s="2" t="n">
@@ -7142,13 +7173,13 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D132" s="0"/>
       <c r="E132" s="7" t="n">
@@ -7162,13 +7193,13 @@
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K132" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L132" s="0"/>
       <c r="M132" s="2" t="n">
@@ -7187,13 +7218,13 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D133" s="0"/>
       <c r="E133" s="7" t="n">
@@ -7207,13 +7238,13 @@
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K133" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L133" s="0"/>
       <c r="M133" s="2" t="n">
@@ -7232,13 +7263,13 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D134" s="0"/>
       <c r="E134" s="7" t="n">
@@ -7252,13 +7283,13 @@
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K134" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L134" s="0"/>
       <c r="M134" s="2" t="n">
@@ -7277,13 +7308,13 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D135" s="0"/>
       <c r="E135" s="7" t="n">
@@ -7297,13 +7328,13 @@
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K135" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L135" s="0"/>
       <c r="M135" s="2" t="n">
@@ -7322,13 +7353,13 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D136" s="0"/>
       <c r="E136" s="7" t="n">
@@ -7342,13 +7373,13 @@
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K136" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L136" s="0"/>
       <c r="M136" s="2" t="n">
@@ -7367,13 +7398,13 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D137" s="0"/>
       <c r="E137" s="7" t="n">
@@ -7387,13 +7418,13 @@
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K137" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L137" s="0"/>
       <c r="M137" s="2" t="n">
@@ -7412,13 +7443,13 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D138" s="0"/>
       <c r="E138" s="7" t="n">
@@ -7432,13 +7463,13 @@
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K138" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L138" s="0"/>
       <c r="M138" s="2" t="n">
@@ -7457,13 +7488,13 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D139" s="0"/>
       <c r="E139" s="7" t="n">
@@ -7477,13 +7508,13 @@
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K139" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L139" s="0"/>
       <c r="M139" s="2" t="n">
@@ -7502,13 +7533,13 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D140" s="0"/>
       <c r="E140" s="7" t="n">
@@ -7522,13 +7553,13 @@
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K140" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L140" s="0"/>
       <c r="M140" s="2" t="n">
@@ -7547,13 +7578,13 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D141" s="0"/>
       <c r="E141" s="7" t="n">
@@ -7567,13 +7598,13 @@
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K141" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L141" s="0"/>
       <c r="M141" s="2" t="n">
@@ -7592,13 +7623,13 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D142" s="0"/>
       <c r="E142" s="7" t="n">
@@ -7612,13 +7643,13 @@
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K142" s="13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L142" s="0"/>
       <c r="M142" s="2" t="n">
@@ -7637,13 +7668,13 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D143" s="0"/>
       <c r="E143" s="7" t="n">
@@ -7657,13 +7688,13 @@
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K143" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L143" s="0"/>
       <c r="M143" s="2" t="n">
@@ -7682,13 +7713,13 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D144" s="0"/>
       <c r="E144" s="7" t="n">
@@ -7702,13 +7733,13 @@
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K144" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L144" s="0"/>
       <c r="M144" s="2" t="n">
@@ -7727,13 +7758,13 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D145" s="0"/>
       <c r="E145" s="1" t="n">
@@ -7747,13 +7778,13 @@
       </c>
       <c r="H145" s="0"/>
       <c r="I145" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L145" s="0"/>
       <c r="M145" s="2" t="n">
@@ -7776,13 +7807,13 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D146" s="0"/>
       <c r="E146" s="1" t="n">
@@ -7796,13 +7827,13 @@
       </c>
       <c r="H146" s="0"/>
       <c r="I146" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L146" s="0"/>
       <c r="M146" s="2" t="n">
@@ -7826,13 +7857,13 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D147" s="0"/>
       <c r="E147" s="1" t="n">
@@ -7846,13 +7877,13 @@
       </c>
       <c r="H147" s="0"/>
       <c r="I147" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L147" s="0"/>
       <c r="M147" s="2" t="n">
@@ -7877,13 +7908,13 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D148" s="0"/>
       <c r="E148" s="1" t="n">
@@ -7897,13 +7928,13 @@
       </c>
       <c r="H148" s="0"/>
       <c r="I148" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L148" s="0"/>
       <c r="M148" s="2" t="n">
@@ -7928,13 +7959,13 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D149" s="0"/>
       <c r="E149" s="1" t="n">
@@ -7948,13 +7979,13 @@
       </c>
       <c r="H149" s="0"/>
       <c r="I149" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L149" s="0"/>
       <c r="M149" s="2" t="n">
@@ -7977,13 +8008,13 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D150" s="0"/>
       <c r="E150" s="1" t="n">
@@ -7997,13 +8028,13 @@
       </c>
       <c r="H150" s="0"/>
       <c r="I150" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K150" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L150" s="0"/>
       <c r="M150" s="2" t="n">
@@ -8028,13 +8059,13 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D151" s="0"/>
       <c r="E151" s="1" t="n">
@@ -8052,10 +8083,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L151" s="0"/>
       <c r="M151" s="2" t="n">
@@ -8079,13 +8110,13 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D152" s="0"/>
       <c r="E152" s="1" t="n">
@@ -8103,10 +8134,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L152" s="0"/>
       <c r="M152" s="2" t="n">
@@ -8130,13 +8161,13 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D153" s="0"/>
       <c r="E153" s="1" t="n">
@@ -8150,13 +8181,13 @@
       </c>
       <c r="H153" s="0"/>
       <c r="I153" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L153" s="0"/>
       <c r="M153" s="2" t="n">
@@ -8179,13 +8210,13 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D154" s="0"/>
       <c r="E154" s="1" t="n">
@@ -8203,10 +8234,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L154" s="0"/>
       <c r="M154" s="2" t="n">
@@ -8230,13 +8261,13 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D155" s="0"/>
       <c r="E155" s="1" t="n">
@@ -8254,10 +8285,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L155" s="0"/>
       <c r="M155" s="2" t="n">
@@ -8282,13 +8313,13 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D156" s="0"/>
       <c r="E156" s="1" t="n">
@@ -8306,13 +8337,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M156" s="2" t="n">
         <f aca="false">M3</f>
@@ -8338,13 +8369,13 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D157" s="0"/>
       <c r="E157" s="1" t="n">
@@ -8362,13 +8393,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M157" s="2" t="n">
         <f aca="false">M3</f>
@@ -8396,13 +8427,13 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D158" s="0"/>
       <c r="E158" s="1" t="n">
@@ -8420,10 +8451,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L158" s="0"/>
       <c r="M158" s="2" t="n">
@@ -8448,13 +8479,13 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D159" s="0"/>
       <c r="E159" s="1" t="n">
@@ -8472,10 +8503,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L159" s="0"/>
       <c r="M159" s="2" t="n">
@@ -8500,13 +8531,13 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D160" s="0"/>
       <c r="E160" s="1" t="n">
@@ -8520,13 +8551,13 @@
       </c>
       <c r="H160" s="0"/>
       <c r="I160" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L160" s="0"/>
       <c r="M160" s="2" t="n">
@@ -8551,13 +8582,13 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D161" s="0"/>
       <c r="E161" s="1" t="n">
@@ -8575,10 +8606,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L161" s="0"/>
       <c r="M161" s="2" t="n">
@@ -8603,13 +8634,13 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D162" s="0"/>
       <c r="E162" s="1" t="n">
@@ -8627,10 +8658,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L162" s="0"/>
       <c r="M162" s="2" t="n">
@@ -8655,13 +8686,13 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D163" s="0"/>
       <c r="E163" s="1" t="n">
@@ -8679,13 +8710,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M163" s="2" t="n">
         <f aca="false">M3</f>
@@ -8713,13 +8744,13 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D164" s="0"/>
       <c r="E164" s="1" t="n">
@@ -8737,13 +8768,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M164" s="2" t="n">
         <f aca="false">M3</f>
@@ -8771,13 +8802,13 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D165" s="0"/>
       <c r="E165" s="1" t="n">
@@ -8791,13 +8822,13 @@
       </c>
       <c r="H165" s="0"/>
       <c r="I165" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L165" s="0"/>
       <c r="M165" s="2" t="n">
@@ -8820,13 +8851,13 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D166" s="0"/>
       <c r="E166" s="1" t="n">
@@ -8840,13 +8871,13 @@
       </c>
       <c r="H166" s="0"/>
       <c r="I166" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L166" s="0"/>
       <c r="M166" s="2" t="n">
@@ -8870,13 +8901,13 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D167" s="0"/>
       <c r="E167" s="1" t="n">
@@ -8890,15 +8921,17 @@
       </c>
       <c r="H167" s="0"/>
       <c r="I167" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L167" s="0"/>
+        <v>118</v>
+      </c>
+      <c r="L167" s="16" t="s">
+        <v>145</v>
+      </c>
       <c r="M167" s="2" t="n">
         <f aca="false">M72</f>
         <v>1007</v>
@@ -8910,23 +8943,28 @@
       <c r="O167" s="8" t="n">
         <v>3312</v>
       </c>
-      <c r="P167" s="0"/>
+      <c r="P167" s="17" t="n">
+        <v>4012</v>
+      </c>
       <c r="Q167" s="0" t="n">
         <v>5</v>
       </c>
       <c r="R167" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="U167" s="0" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D168" s="0"/>
       <c r="E168" s="1" t="n">
@@ -8940,13 +8978,13 @@
       </c>
       <c r="H168" s="0"/>
       <c r="I168" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L168" s="0"/>
       <c r="M168" s="2" t="n">
@@ -8970,13 +9008,13 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D169" s="0"/>
       <c r="E169" s="1" t="n">
@@ -8990,13 +9028,13 @@
       </c>
       <c r="H169" s="0"/>
       <c r="I169" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L169" s="0"/>
       <c r="M169" s="2" t="n">
@@ -9021,13 +9059,13 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D170" s="0"/>
       <c r="E170" s="1" t="n">
@@ -9041,13 +9079,13 @@
       </c>
       <c r="H170" s="0"/>
       <c r="I170" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L170" s="0"/>
       <c r="M170" s="2" t="n">
@@ -9072,13 +9110,13 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D171" s="0"/>
       <c r="E171" s="1" t="n">
@@ -9092,15 +9130,17 @@
       </c>
       <c r="H171" s="0"/>
       <c r="I171" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="L171" s="0"/>
+        <v>118</v>
+      </c>
+      <c r="L171" s="0" t="s">
+        <v>145</v>
+      </c>
       <c r="M171" s="2" t="n">
         <f aca="false">M72</f>
         <v>1007</v>
@@ -9113,23 +9153,30 @@
         <f aca="false">O167</f>
         <v>3312</v>
       </c>
-      <c r="P171" s="0"/>
+      <c r="P171" s="0" t="n">
+        <f aca="false">P167</f>
+        <v>4012</v>
+      </c>
       <c r="Q171" s="0" t="n">
         <v>5</v>
       </c>
       <c r="R171" s="0" t="n">
         <v>11</v>
       </c>
+      <c r="U171" s="0" t="n">
+        <f aca="false">U167</f>
+        <v>8</v>
+      </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D172" s="0"/>
       <c r="E172" s="1" t="n">
@@ -9143,13 +9190,13 @@
       </c>
       <c r="H172" s="0"/>
       <c r="I172" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L172" s="0"/>
       <c r="M172" s="2" t="n">
@@ -9174,16 +9221,16 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E173" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9203,13 +9250,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K173" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M173" s="2" t="n">
         <f aca="false">M3</f>
@@ -9239,16 +9286,16 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E174" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9270,13 +9317,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M174" s="2" t="n">
         <f aca="false">M3</f>
@@ -9306,16 +9353,16 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E175" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9337,13 +9384,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M175" s="2" t="n">
         <f aca="false">M3</f>
@@ -9373,16 +9420,16 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E176" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9404,13 +9451,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M176" s="2" t="n">
         <f aca="false">M3</f>
@@ -9440,16 +9487,16 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E177" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9471,13 +9518,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M177" s="2" t="n">
         <f aca="false">M3</f>
@@ -9507,16 +9554,16 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E178" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9538,13 +9585,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M178" s="2" t="n">
         <f aca="false">M3</f>
@@ -9574,16 +9621,16 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E179" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9603,13 +9650,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J179" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K179" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M179" s="2" t="n">
         <f aca="false">M3</f>
@@ -9639,16 +9686,16 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E180" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9670,13 +9717,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M180" s="2" t="n">
         <f aca="false">M3</f>
@@ -9706,16 +9753,16 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E181" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9737,13 +9784,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M181" s="2" t="n">
         <f aca="false">M3</f>
@@ -9773,16 +9820,16 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E182" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9804,13 +9851,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M182" s="2" t="n">
         <f aca="false">M3</f>
@@ -9840,16 +9887,16 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E183" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9871,13 +9918,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M183" s="2" t="n">
         <f aca="false">M3</f>
@@ -9907,16 +9954,16 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E184" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9938,13 +9985,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M184" s="2" t="n">
         <f aca="false">M3</f>
@@ -9974,16 +10021,16 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E185" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10003,13 +10050,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J185" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K185" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M185" s="2" t="n">
         <f aca="false">M3</f>
@@ -10038,16 +10085,16 @@
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E186" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10069,13 +10116,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K186" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M186" s="2" t="n">
         <f aca="false">M3</f>
@@ -10105,16 +10152,16 @@
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E187" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10136,13 +10183,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K187" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M187" s="2" t="n">
         <f aca="false">M3</f>
@@ -10172,16 +10219,16 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E188" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10203,13 +10250,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K188" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M188" s="2" t="n">
         <f aca="false">M3</f>
@@ -10239,16 +10286,16 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E189" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10270,13 +10317,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K189" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M189" s="2" t="n">
         <f aca="false">M3</f>
@@ -10306,16 +10353,16 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C190" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D190" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E190" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10337,13 +10384,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="L190" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="M190" s="2" t="n">
         <f aca="false">M3</f>
@@ -10373,16 +10420,16 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E191" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10402,13 +10449,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K191" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M191" s="2" t="n">
         <f aca="false">M3</f>
@@ -10438,16 +10485,16 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E192" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10469,13 +10516,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K192" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M192" s="2" t="n">
         <f aca="false">M3</f>
@@ -10505,16 +10552,16 @@
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E193" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10536,13 +10583,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K193" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M193" s="2" t="n">
         <f aca="false">M3</f>
@@ -10572,16 +10619,16 @@
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E194" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10603,13 +10650,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K194" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M194" s="2" t="n">
         <f aca="false">M3</f>
@@ -10639,16 +10686,16 @@
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E195" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10670,13 +10717,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K195" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M195" s="2" t="n">
         <f aca="false">M3</f>
@@ -10706,16 +10753,16 @@
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C196" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D196" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="E196" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10737,13 +10784,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="L196" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="M196" s="2" t="n">
         <f aca="false">M3</f>
@@ -10773,16 +10820,16 @@
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E197" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10802,13 +10849,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J197" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K197" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M197" s="2" t="n">
         <f aca="false">M3</f>
@@ -10838,16 +10885,16 @@
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E198" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10869,13 +10916,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K198" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M198" s="2" t="n">
         <f aca="false">M3</f>
@@ -10905,16 +10952,16 @@
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E199" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10936,13 +10983,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K199" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M199" s="2" t="n">
         <f aca="false">M3</f>
@@ -10972,16 +11019,16 @@
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E200" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11003,13 +11050,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K200" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M200" s="2" t="n">
         <f aca="false">M3</f>
@@ -11039,16 +11086,16 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E201" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11070,13 +11117,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K201" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M201" s="2" t="n">
         <f aca="false">M3</f>
@@ -11106,16 +11153,16 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E202" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11137,13 +11184,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="L202" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="M202" s="2" t="n">
         <f aca="false">M3</f>
@@ -11173,16 +11220,16 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E203" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11202,13 +11249,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J203" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K203" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M203" s="2" t="n">
         <f aca="false">M3</f>
@@ -11238,16 +11285,16 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E204" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11269,13 +11316,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K204" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M204" s="2" t="n">
         <f aca="false">M3</f>
@@ -11305,16 +11352,16 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E205" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11336,13 +11383,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K205" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M205" s="2" t="n">
         <f aca="false">M3</f>
@@ -11372,16 +11419,16 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E206" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11403,13 +11450,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K206" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M206" s="2" t="n">
         <f aca="false">M3</f>
@@ -11439,16 +11486,16 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E207" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11470,13 +11517,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K207" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M207" s="2" t="n">
         <f aca="false">M3</f>
@@ -11506,16 +11553,16 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E208" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11537,13 +11584,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="L208" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="M208" s="2" t="n">
         <f aca="false">M3</f>
@@ -11593,121 +11640,124 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N44" activeCellId="2" sqref="S164 S163 N44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.246963562753"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0323886639676"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="13" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.1012145748988"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.5384615384615"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="C1" s="16" t="s">
+    <row r="1" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="G1" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="H1" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="I1" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="J1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="K1" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="L1" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="M1" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="N1" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="O1" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="P1" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="Q1" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="R1" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="U1" s="0"/>
+      <c r="S1" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M2" s="0" t="n">
         <f aca="false">mapping!M110</f>
@@ -11722,31 +11772,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M3" s="0" t="n">
         <f aca="false">mapping!M125</f>
@@ -11761,31 +11811,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">M3</f>
@@ -11800,31 +11850,31 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="M5" s="0" t="n">
         <f aca="false">mapping!M87</f>
@@ -11839,31 +11889,31 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M6" s="0" t="n">
         <f aca="false">M5</f>
@@ -11887,31 +11937,31 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M7" s="0" t="n">
         <f aca="false">mapping!M101</f>
@@ -11926,31 +11976,31 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="M8" s="0" t="n">
         <f aca="false">mapping!M72</f>
@@ -11965,31 +12015,31 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">M8</f>
@@ -12003,200 +12053,248 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>206</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>207</v>
+      <c r="A10" s="0" t="str">
+        <f aca="false">A8</f>
+        <v>Mobilier urbain</v>
+      </c>
+      <c r="B10" s="0" t="str">
+        <f aca="false">B8</f>
+        <v>Mobilier urbain</v>
+      </c>
+      <c r="C10" s="0" t="str">
+        <f aca="false">C8</f>
+        <v>Public furnitures</v>
+      </c>
+      <c r="D10" s="0" t="str">
+        <f aca="false">mapping!J167</f>
+        <v>Bulle à verre</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>207</v>
+        <v>140</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>208</v>
-      </c>
-      <c r="G10" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" s="0" t="str">
+        <f aca="false">mapping!K167</f>
+        <v>Débordante</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="K10" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="L10" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="U10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="D11" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="M11" s="0" t="n">
         <f aca="false">mapping!M23</f>
         <v>1006</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <f aca="false">mapping!N25</f>
         <v>2012</v>
       </c>
-      <c r="O10" s="17" t="n">
+      <c r="O11" s="17" t="n">
         <v>3408</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>212</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>213</v>
-      </c>
-      <c r="M11" s="0" t="n">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="M12" s="0" t="n">
         <f aca="false">mapping!M63</f>
         <v>1008</v>
       </c>
-      <c r="N11" s="17" t="n">
+      <c r="N12" s="17" t="n">
         <v>2308</v>
       </c>
-      <c r="O11" s="17" t="n">
+      <c r="O12" s="17" t="n">
         <v>3409</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12" s="0" t="s">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="M12" s="0" t="n">
-        <f aca="false">M11</f>
+      <c r="D13" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="false">M12</f>
         <v>1008</v>
       </c>
-      <c r="N12" s="17" t="n">
+      <c r="N13" s="17" t="n">
         <v>2309</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O13" s="17" t="n">
         <v>3410</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D13" s="18" t="s">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>1100</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>2311</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="F15" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="G15" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="I15" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="F13" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>217</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>218</v>
-      </c>
-      <c r="M13" s="0" t="n">
+      <c r="M15" s="0" t="n">
+        <f aca="false">M14</f>
         <v>1100</v>
       </c>
-      <c r="N13" s="0" t="n">
-        <v>2311</v>
-      </c>
-      <c r="O13" s="0" t="n">
-        <v>3411</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="M14" s="0" t="n">
-        <f aca="false">M13</f>
-        <v>1100</v>
-      </c>
-      <c r="N14" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>2312</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>3412</v>
       </c>
     </row>

--- a/apps/resources/categories_mapping_new.xlsx
+++ b/apps/resources/categories_mapping_new.xlsx
@@ -49,6 +49,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">mapping!$1:$2</definedName>
@@ -59,6 +61,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
@@ -69,6 +73,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -761,7 +767,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -806,12 +812,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -932,7 +932,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -997,7 +997,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1005,11 +1005,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1097,33 +1093,33 @@
   </sheetPr>
   <dimension ref="1:208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H150" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U172" activeCellId="0" sqref="U172"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L154" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q167" activeCellId="0" sqref="Q167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="33.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.8825910931174"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.4372469635628"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="19.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -11642,27 +11638,27 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4615384615385"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="13" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.3157894736842"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.5384615384615"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12094,8 +12090,30 @@
       <c r="L10" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="M10" s="0" t="n">
+        <f aca="false">M9</f>
+        <v>1007</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <f aca="false">mapping!N165</f>
+        <v>2204</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <f aca="false">mapping!O167</f>
+        <v>3312</v>
+      </c>
+      <c r="P10" s="17" t="n">
+        <v>4050</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>11</v>
+      </c>
       <c r="U10" s="0" t="n">
         <v>9</v>
       </c>
@@ -12222,31 +12240,31 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="E14" s="19" t="s">
+      <c r="E14" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="16" t="s">
         <v>222</v>
       </c>
       <c r="M14" s="0" t="n">
@@ -12260,31 +12278,31 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E15" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="G15" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="16" t="s">
         <v>217</v>
       </c>
       <c r="M15" s="0" t="n">

--- a/apps/resources/categories_mapping_new.xlsx
+++ b/apps/resources/categories_mapping_new.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="mapping" sheetId="1" state="visible" r:id="rId2"/>
@@ -51,6 +51,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">mapping!$1:$2</definedName>
@@ -63,6 +64,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
@@ -75,6 +77,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -86,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="225">
   <si>
     <t xml:space="preserve">Anicennes catégories</t>
   </si>
@@ -145,6 +148,9 @@
     <t xml:space="preserve">ABP SUBNATURE ID</t>
   </si>
   <si>
+    <t xml:space="preserve">SEVERAL OCCURENCES ABP NATURE SUBSTITUTION</t>
+  </si>
+  <si>
     <t xml:space="preserve">Débris/Objets abandonnés</t>
   </si>
   <si>
@@ -577,7 +583,7 @@
     <t xml:space="preserve">une adresse non collectée</t>
   </si>
   <si>
-    <t xml:space="preserve">Adresse non collectées</t>
+    <t xml:space="preserve">Adresses non collectées</t>
   </si>
   <si>
     <t xml:space="preserve">plusieurs adresses non collectées</t>
@@ -1093,34 +1099,34 @@
   </sheetPr>
   <dimension ref="1:208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L154" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q167" activeCellId="0" sqref="Q167"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q178" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V207" activeCellId="0" sqref="V207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.7085020242915"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.8502024291498"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="15" min="15" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="19" min="18" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="47.9109311740891"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,6 +1155,7 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -1206,16 +1213,19 @@
       <c r="U2" s="5" t="s">
         <v>18</v>
       </c>
+      <c r="V2" s="5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="3" s="9" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="n">
@@ -1229,16 +1239,16 @@
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M3" s="8" t="n">
         <f aca="false">E3+1000</f>
@@ -1272,13 +1282,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="n">
@@ -1296,10 +1306,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" s="0"/>
       <c r="M4" s="10" t="n">
@@ -1323,13 +1333,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="7" t="n">
@@ -1347,10 +1357,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" s="0"/>
       <c r="M5" s="10" t="n">
@@ -1372,13 +1382,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="7" t="n">
@@ -1396,13 +1406,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1427,13 +1437,13 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7" t="n">
@@ -1451,10 +1461,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="0"/>
       <c r="M7" s="10" t="n">
@@ -1476,13 +1486,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="7" t="n">
@@ -1500,13 +1510,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M8" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1534,13 +1544,13 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="7" t="n">
@@ -1558,13 +1568,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M9" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1594,13 +1604,13 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="7" t="n">
@@ -1618,10 +1628,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L10" s="0"/>
       <c r="M10" s="10" t="n">
@@ -1646,13 +1656,13 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="n">
@@ -1670,13 +1680,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M11" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1706,13 +1716,13 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="7" t="n">
@@ -1730,10 +1740,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L12" s="0"/>
       <c r="M12" s="10" t="n">
@@ -1758,13 +1768,13 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="7" t="n">
@@ -1782,10 +1792,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="0"/>
       <c r="M13" s="10" t="n">
@@ -1807,13 +1817,13 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7" t="n">
@@ -1831,13 +1841,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M14" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1865,13 +1875,13 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="7" t="n">
@@ -1889,13 +1899,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M15" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -1925,13 +1935,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="7" t="n">
@@ -1949,10 +1959,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L16" s="0"/>
       <c r="M16" s="10" t="n">
@@ -1977,13 +1987,13 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="7" t="n">
@@ -2001,10 +2011,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="0"/>
       <c r="M17" s="10" t="n">
@@ -2026,13 +2036,13 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="7" t="n">
@@ -2050,13 +2060,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M18" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -2084,13 +2094,13 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="n">
@@ -2108,13 +2118,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M19" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -2144,13 +2154,13 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="n">
@@ -2168,10 +2178,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L20" s="0"/>
       <c r="M20" s="10" t="n">
@@ -2196,13 +2206,13 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="n">
@@ -2220,10 +2230,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L21" s="0"/>
       <c r="M21" s="10" t="n">
@@ -2245,13 +2255,13 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="7" t="n">
@@ -2269,13 +2279,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M22" s="10" t="n">
         <f aca="false">$M$3</f>
@@ -2303,13 +2313,13 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="7" t="n">
@@ -2323,13 +2333,13 @@
       </c>
       <c r="H23" s="7"/>
       <c r="I23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L23" s="0"/>
       <c r="M23" s="8" t="n">
@@ -2347,13 +2357,13 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="7" t="n">
@@ -2367,13 +2377,13 @@
       </c>
       <c r="H24" s="7"/>
       <c r="I24" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L24" s="0"/>
       <c r="M24" s="2" t="n">
@@ -2391,13 +2401,13 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="7" t="n">
@@ -2411,13 +2421,13 @@
       </c>
       <c r="H25" s="7"/>
       <c r="I25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L25" s="0"/>
       <c r="M25" s="2" t="n">
@@ -2435,13 +2445,13 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="7" t="n">
@@ -2455,13 +2465,13 @@
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L26" s="0"/>
       <c r="M26" s="2" t="n">
@@ -2480,13 +2490,13 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="7" t="n">
@@ -2500,13 +2510,13 @@
       </c>
       <c r="H27" s="7"/>
       <c r="I27" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="0"/>
       <c r="M27" s="2" t="n">
@@ -2525,13 +2535,13 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="7" t="n">
@@ -2545,13 +2555,13 @@
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L28" s="0"/>
       <c r="M28" s="2" t="n">
@@ -2570,13 +2580,13 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="7" t="n">
@@ -2590,13 +2600,13 @@
       </c>
       <c r="H29" s="7"/>
       <c r="I29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L29" s="0"/>
       <c r="M29" s="2" t="n">
@@ -2615,13 +2625,13 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="7" t="n">
@@ -2635,13 +2645,13 @@
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L30" s="0"/>
       <c r="M30" s="2" t="n">
@@ -2660,13 +2670,13 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="7" t="n">
@@ -2680,13 +2690,13 @@
       </c>
       <c r="H31" s="7"/>
       <c r="I31" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L31" s="0"/>
       <c r="M31" s="2" t="n">
@@ -2705,13 +2715,13 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="7" t="n">
@@ -2725,13 +2735,13 @@
       </c>
       <c r="H32" s="7"/>
       <c r="I32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L32" s="0"/>
       <c r="M32" s="2" t="n">
@@ -2750,13 +2760,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="7" t="n">
@@ -2770,13 +2780,13 @@
       </c>
       <c r="H33" s="7"/>
       <c r="I33" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L33" s="0"/>
       <c r="M33" s="2" t="n">
@@ -2795,13 +2805,13 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="7" t="n">
@@ -2815,13 +2825,13 @@
       </c>
       <c r="H34" s="7"/>
       <c r="I34" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L34" s="0"/>
       <c r="M34" s="2" t="n">
@@ -2840,13 +2850,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="7" t="n">
@@ -2860,13 +2870,13 @@
       </c>
       <c r="H35" s="7"/>
       <c r="I35" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L35" s="0"/>
       <c r="M35" s="2" t="n">
@@ -2885,13 +2895,13 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="7" t="n">
@@ -2905,13 +2915,13 @@
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L36" s="0"/>
       <c r="M36" s="2" t="n">
@@ -2930,13 +2940,13 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="7" t="n">
@@ -2950,13 +2960,13 @@
       </c>
       <c r="H37" s="7"/>
       <c r="I37" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L37" s="0"/>
       <c r="M37" s="2" t="n">
@@ -2975,13 +2985,13 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="7" t="n">
@@ -2995,13 +3005,13 @@
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L38" s="0"/>
       <c r="M38" s="2" t="n">
@@ -3020,13 +3030,13 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39" s="0"/>
       <c r="E39" s="7" t="n">
@@ -3040,13 +3050,13 @@
       </c>
       <c r="H39" s="7"/>
       <c r="I39" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L39" s="0"/>
       <c r="M39" s="2" t="n">
@@ -3065,13 +3075,13 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D40" s="0"/>
       <c r="E40" s="7" t="n">
@@ -3085,13 +3095,13 @@
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L40" s="0"/>
       <c r="M40" s="2" t="n">
@@ -3110,13 +3120,13 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D41" s="0"/>
       <c r="E41" s="7" t="n">
@@ -3130,13 +3140,13 @@
       </c>
       <c r="H41" s="7"/>
       <c r="I41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L41" s="0"/>
       <c r="M41" s="2" t="n">
@@ -3155,13 +3165,13 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D42" s="0"/>
       <c r="E42" s="7" t="n">
@@ -3175,13 +3185,13 @@
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L42" s="0"/>
       <c r="M42" s="2" t="n">
@@ -3199,13 +3209,13 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D43" s="0"/>
       <c r="E43" s="7" t="n">
@@ -3219,13 +3229,13 @@
       </c>
       <c r="H43" s="7"/>
       <c r="I43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L43" s="0"/>
       <c r="M43" s="2" t="n">
@@ -3244,13 +3254,13 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D44" s="0"/>
       <c r="E44" s="7" t="n">
@@ -3264,13 +3274,13 @@
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L44" s="0"/>
       <c r="M44" s="2" t="n">
@@ -3289,13 +3299,13 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" s="0"/>
       <c r="E45" s="7" t="n">
@@ -3309,13 +3319,13 @@
       </c>
       <c r="H45" s="7"/>
       <c r="I45" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L45" s="0"/>
       <c r="M45" s="2" t="n">
@@ -3334,13 +3344,13 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D46" s="0"/>
       <c r="E46" s="7" t="n">
@@ -3354,13 +3364,13 @@
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L46" s="0"/>
       <c r="M46" s="2" t="n">
@@ -3378,13 +3388,13 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D47" s="0"/>
       <c r="E47" s="7" t="n">
@@ -3398,13 +3408,13 @@
       </c>
       <c r="H47" s="7"/>
       <c r="I47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L47" s="0"/>
       <c r="M47" s="2" t="n">
@@ -3422,13 +3432,13 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D48" s="0"/>
       <c r="E48" s="7" t="n">
@@ -3442,13 +3452,13 @@
       </c>
       <c r="H48" s="7"/>
       <c r="I48" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L48" s="0"/>
       <c r="M48" s="2" t="n">
@@ -3466,13 +3476,13 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D49" s="0"/>
       <c r="E49" s="7" t="n">
@@ -3486,13 +3496,13 @@
       </c>
       <c r="H49" s="7"/>
       <c r="I49" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L49" s="0"/>
       <c r="M49" s="2" t="n">
@@ -3510,13 +3520,13 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D50" s="0"/>
       <c r="E50" s="7" t="n">
@@ -3530,13 +3540,13 @@
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L50" s="0"/>
       <c r="M50" s="2" t="n">
@@ -3554,13 +3564,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D51" s="0"/>
       <c r="E51" s="7" t="n">
@@ -3574,13 +3584,13 @@
       </c>
       <c r="H51" s="7"/>
       <c r="I51" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L51" s="0"/>
       <c r="M51" s="2" t="n">
@@ -3598,13 +3608,13 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D52" s="0"/>
       <c r="E52" s="7" t="n">
@@ -3618,13 +3628,13 @@
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L52" s="0"/>
       <c r="M52" s="2" t="n">
@@ -3642,13 +3652,13 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D53" s="0"/>
       <c r="E53" s="7" t="n">
@@ -3662,13 +3672,13 @@
       </c>
       <c r="H53" s="7"/>
       <c r="I53" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L53" s="0"/>
       <c r="M53" s="2" t="n">
@@ -3686,13 +3696,13 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D54" s="0"/>
       <c r="E54" s="7" t="n">
@@ -3706,13 +3716,13 @@
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L54" s="0"/>
       <c r="M54" s="2" t="n">
@@ -3730,13 +3740,13 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D55" s="0"/>
       <c r="E55" s="7" t="n">
@@ -3750,13 +3760,13 @@
       </c>
       <c r="H55" s="7"/>
       <c r="I55" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L55" s="0"/>
       <c r="M55" s="2" t="n">
@@ -3774,13 +3784,13 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D56" s="0"/>
       <c r="E56" s="7" t="n">
@@ -3794,13 +3804,13 @@
       </c>
       <c r="H56" s="7"/>
       <c r="I56" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L56" s="0"/>
       <c r="M56" s="2" t="n">
@@ -3818,13 +3828,13 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D57" s="0"/>
       <c r="E57" s="7" t="n">
@@ -3838,13 +3848,13 @@
       </c>
       <c r="H57" s="7"/>
       <c r="I57" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L57" s="0"/>
       <c r="M57" s="2" t="n">
@@ -3862,13 +3872,13 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="7" t="n">
@@ -3882,13 +3892,13 @@
       </c>
       <c r="H58" s="7"/>
       <c r="I58" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L58" s="0"/>
       <c r="M58" s="2" t="n">
@@ -3905,13 +3915,13 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D59" s="0"/>
       <c r="E59" s="7" t="n">
@@ -3925,13 +3935,13 @@
       </c>
       <c r="H59" s="7"/>
       <c r="I59" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L59" s="0"/>
       <c r="M59" s="2" t="n">
@@ -3949,13 +3959,13 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D60" s="0"/>
       <c r="E60" s="7" t="n">
@@ -3969,13 +3979,13 @@
       </c>
       <c r="H60" s="7"/>
       <c r="I60" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L60" s="0"/>
       <c r="M60" s="2" t="n">
@@ -3993,13 +4003,13 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D61" s="0"/>
       <c r="E61" s="7" t="n">
@@ -4013,13 +4023,13 @@
       </c>
       <c r="H61" s="7"/>
       <c r="I61" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L61" s="0"/>
       <c r="M61" s="2" t="n">
@@ -4037,13 +4047,13 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D62" s="0"/>
       <c r="E62" s="7" t="n">
@@ -4057,13 +4067,13 @@
       </c>
       <c r="H62" s="7"/>
       <c r="I62" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L62" s="0"/>
       <c r="M62" s="2" t="n">
@@ -4081,13 +4091,13 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D63" s="0"/>
       <c r="E63" s="7" t="n">
@@ -4101,13 +4111,13 @@
       </c>
       <c r="H63" s="7"/>
       <c r="I63" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L63" s="0"/>
       <c r="M63" s="8" t="n">
@@ -4125,13 +4135,13 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D64" s="0"/>
       <c r="E64" s="7" t="n">
@@ -4145,13 +4155,13 @@
       </c>
       <c r="H64" s="7"/>
       <c r="I64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L64" s="0"/>
       <c r="M64" s="2" t="n">
@@ -4170,13 +4180,13 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" s="0"/>
       <c r="E65" s="7" t="n">
@@ -4190,13 +4200,13 @@
       </c>
       <c r="H65" s="7"/>
       <c r="I65" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L65" s="0"/>
       <c r="M65" s="2" t="n">
@@ -4214,13 +4224,13 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" s="0"/>
       <c r="E66" s="7" t="n">
@@ -4234,13 +4244,13 @@
       </c>
       <c r="H66" s="7"/>
       <c r="I66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L66" s="0"/>
       <c r="M66" s="2" t="n">
@@ -4258,13 +4268,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" s="0"/>
       <c r="E67" s="7" t="n">
@@ -4278,13 +4288,13 @@
       </c>
       <c r="H67" s="7"/>
       <c r="I67" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L67" s="0"/>
       <c r="M67" s="2" t="n">
@@ -4303,13 +4313,13 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D68" s="0"/>
       <c r="E68" s="7" t="n">
@@ -4323,13 +4333,13 @@
       </c>
       <c r="H68" s="7"/>
       <c r="I68" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L68" s="0"/>
       <c r="M68" s="2" t="n">
@@ -4348,13 +4358,13 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D69" s="0"/>
       <c r="E69" s="7" t="n">
@@ -4368,13 +4378,13 @@
       </c>
       <c r="H69" s="7"/>
       <c r="I69" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L69" s="0"/>
       <c r="M69" s="2" t="n">
@@ -4393,13 +4403,13 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D70" s="0"/>
       <c r="E70" s="7" t="n">
@@ -4413,13 +4423,13 @@
       </c>
       <c r="H70" s="7"/>
       <c r="I70" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L70" s="0"/>
       <c r="M70" s="2" t="n">
@@ -4437,13 +4447,13 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D71" s="0"/>
       <c r="E71" s="7" t="n">
@@ -4457,13 +4467,13 @@
       </c>
       <c r="H71" s="7"/>
       <c r="I71" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L71" s="0"/>
       <c r="M71" s="2" t="n">
@@ -4482,13 +4492,13 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D72" s="0"/>
       <c r="E72" s="7" t="n">
@@ -4502,13 +4512,13 @@
       </c>
       <c r="H72" s="7"/>
       <c r="I72" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L72" s="0"/>
       <c r="M72" s="8" t="n">
@@ -4526,13 +4536,13 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D73" s="0"/>
       <c r="E73" s="7" t="n">
@@ -4546,13 +4556,13 @@
       </c>
       <c r="H73" s="7"/>
       <c r="I73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L73" s="0"/>
       <c r="M73" s="2" t="n">
@@ -4571,13 +4581,13 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D74" s="0"/>
       <c r="E74" s="7" t="n">
@@ -4591,13 +4601,13 @@
       </c>
       <c r="H74" s="7"/>
       <c r="I74" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L74" s="0"/>
       <c r="M74" s="2" t="n">
@@ -4616,13 +4626,13 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" s="0"/>
       <c r="E75" s="7" t="n">
@@ -4636,13 +4646,13 @@
       </c>
       <c r="H75" s="7"/>
       <c r="I75" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L75" s="0"/>
       <c r="M75" s="2" t="n">
@@ -4661,13 +4671,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76" s="0"/>
       <c r="E76" s="7" t="n">
@@ -4681,13 +4691,13 @@
       </c>
       <c r="H76" s="7"/>
       <c r="I76" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L76" s="0"/>
       <c r="M76" s="2" t="n">
@@ -4706,13 +4716,13 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D77" s="0"/>
       <c r="E77" s="7" t="n">
@@ -4726,13 +4736,13 @@
       </c>
       <c r="H77" s="7"/>
       <c r="I77" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L77" s="0"/>
       <c r="M77" s="2" t="n">
@@ -4751,13 +4761,13 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D78" s="0"/>
       <c r="E78" s="7" t="n">
@@ -4771,13 +4781,13 @@
       </c>
       <c r="H78" s="7"/>
       <c r="I78" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L78" s="0"/>
       <c r="M78" s="2" t="n">
@@ -4796,13 +4806,13 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D79" s="0"/>
       <c r="E79" s="7" t="n">
@@ -4816,13 +4826,13 @@
       </c>
       <c r="H79" s="7"/>
       <c r="I79" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L79" s="0"/>
       <c r="M79" s="2" t="n">
@@ -4841,13 +4851,13 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D80" s="0"/>
       <c r="E80" s="7" t="n">
@@ -4861,13 +4871,13 @@
       </c>
       <c r="H80" s="7"/>
       <c r="I80" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L80" s="0"/>
       <c r="M80" s="2" t="n">
@@ -4886,13 +4896,13 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D81" s="0"/>
       <c r="E81" s="7" t="n">
@@ -4906,13 +4916,13 @@
       </c>
       <c r="H81" s="7"/>
       <c r="I81" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L81" s="0"/>
       <c r="M81" s="2" t="n">
@@ -4931,13 +4941,13 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D82" s="0"/>
       <c r="E82" s="7" t="n">
@@ -4951,13 +4961,13 @@
       </c>
       <c r="H82" s="7"/>
       <c r="I82" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L82" s="0"/>
       <c r="M82" s="2" t="n">
@@ -4976,13 +4986,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D83" s="0"/>
       <c r="E83" s="7" t="n">
@@ -4996,13 +5006,13 @@
       </c>
       <c r="H83" s="7"/>
       <c r="I83" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L83" s="0"/>
       <c r="M83" s="2" t="n">
@@ -5021,13 +5031,13 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D84" s="0"/>
       <c r="E84" s="7" t="n">
@@ -5041,13 +5051,13 @@
       </c>
       <c r="H84" s="7"/>
       <c r="I84" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L84" s="0"/>
       <c r="M84" s="2" t="n">
@@ -5066,13 +5076,13 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D85" s="0"/>
       <c r="E85" s="7" t="n">
@@ -5086,13 +5096,13 @@
       </c>
       <c r="H85" s="7"/>
       <c r="I85" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K85" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L85" s="0"/>
       <c r="M85" s="2" t="n">
@@ -5111,13 +5121,13 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D86" s="0"/>
       <c r="E86" s="7" t="n">
@@ -5131,13 +5141,13 @@
       </c>
       <c r="H86" s="7"/>
       <c r="I86" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L86" s="0"/>
       <c r="M86" s="2" t="n">
@@ -5156,13 +5166,13 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D87" s="0"/>
       <c r="E87" s="7" t="n">
@@ -5176,13 +5186,13 @@
       </c>
       <c r="H87" s="7"/>
       <c r="I87" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L87" s="0"/>
       <c r="M87" s="8" t="n">
@@ -5200,13 +5210,13 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D88" s="0"/>
       <c r="E88" s="7" t="n">
@@ -5220,13 +5230,13 @@
       </c>
       <c r="H88" s="7"/>
       <c r="I88" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L88" s="0"/>
       <c r="M88" s="2" t="n">
@@ -5244,13 +5254,13 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D89" s="0"/>
       <c r="E89" s="7" t="n">
@@ -5264,13 +5274,13 @@
       </c>
       <c r="H89" s="7"/>
       <c r="I89" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K89" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L89" s="0"/>
       <c r="M89" s="2" t="n">
@@ -5288,13 +5298,13 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D90" s="0"/>
       <c r="E90" s="7" t="n">
@@ -5308,13 +5318,13 @@
       </c>
       <c r="H90" s="7"/>
       <c r="I90" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L90" s="0"/>
       <c r="M90" s="2" t="n">
@@ -5333,13 +5343,13 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D91" s="0"/>
       <c r="E91" s="7" t="n">
@@ -5353,13 +5363,13 @@
       </c>
       <c r="H91" s="7"/>
       <c r="I91" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L91" s="0"/>
       <c r="M91" s="2" t="n">
@@ -5378,13 +5388,13 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D92" s="0"/>
       <c r="E92" s="7" t="n">
@@ -5398,13 +5408,13 @@
       </c>
       <c r="H92" s="7"/>
       <c r="I92" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L92" s="0"/>
       <c r="M92" s="2" t="n">
@@ -5423,13 +5433,13 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D93" s="0"/>
       <c r="E93" s="7" t="n">
@@ -5443,13 +5453,13 @@
       </c>
       <c r="H93" s="7"/>
       <c r="I93" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L93" s="0"/>
       <c r="M93" s="2" t="n">
@@ -5468,13 +5478,13 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D94" s="0"/>
       <c r="E94" s="7" t="n">
@@ -5488,13 +5498,13 @@
       </c>
       <c r="H94" s="7"/>
       <c r="I94" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L94" s="0"/>
       <c r="M94" s="2" t="n">
@@ -5513,13 +5523,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D95" s="0"/>
       <c r="E95" s="7" t="n">
@@ -5533,13 +5543,13 @@
       </c>
       <c r="H95" s="7"/>
       <c r="I95" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K95" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L95" s="0"/>
       <c r="M95" s="2" t="n">
@@ -5558,13 +5568,13 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D96" s="0"/>
       <c r="E96" s="7" t="n">
@@ -5578,13 +5588,13 @@
       </c>
       <c r="H96" s="7"/>
       <c r="I96" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K96" s="13" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L96" s="0"/>
       <c r="M96" s="2" t="n">
@@ -5603,13 +5613,13 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D97" s="0"/>
       <c r="E97" s="7" t="n">
@@ -5623,13 +5633,13 @@
       </c>
       <c r="H97" s="7"/>
       <c r="I97" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K97" s="13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L97" s="0"/>
       <c r="M97" s="2" t="n">
@@ -5648,13 +5658,13 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D98" s="0"/>
       <c r="E98" s="7" t="n">
@@ -5668,13 +5678,13 @@
       </c>
       <c r="H98" s="7"/>
       <c r="I98" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K98" s="13" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L98" s="0"/>
       <c r="M98" s="2" t="n">
@@ -5693,13 +5703,13 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D99" s="0"/>
       <c r="E99" s="7" t="n">
@@ -5713,13 +5723,13 @@
       </c>
       <c r="H99" s="7"/>
       <c r="I99" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K99" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L99" s="0"/>
       <c r="M99" s="8" t="n">
@@ -5737,13 +5747,13 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D100" s="0"/>
       <c r="E100" s="7" t="n">
@@ -5757,13 +5767,13 @@
       </c>
       <c r="H100" s="7"/>
       <c r="I100" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K100" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L100" s="0"/>
       <c r="M100" s="2" t="n">
@@ -5781,13 +5791,13 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D101" s="0"/>
       <c r="E101" s="7" t="n">
@@ -5801,13 +5811,13 @@
       </c>
       <c r="H101" s="7"/>
       <c r="I101" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K101" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L101" s="0"/>
       <c r="M101" s="8" t="n">
@@ -5824,13 +5834,13 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D102" s="0"/>
       <c r="E102" s="7" t="n">
@@ -5844,13 +5854,13 @@
       </c>
       <c r="H102" s="7"/>
       <c r="I102" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K102" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L102" s="0"/>
       <c r="M102" s="2" t="n">
@@ -5869,13 +5879,13 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D103" s="0"/>
       <c r="E103" s="7" t="n">
@@ -5889,13 +5899,13 @@
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K103" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L103" s="0"/>
       <c r="M103" s="2" t="n">
@@ -5914,13 +5924,13 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D104" s="0"/>
       <c r="E104" s="7" t="n">
@@ -5934,13 +5944,13 @@
       </c>
       <c r="H104" s="7"/>
       <c r="I104" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K104" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L104" s="0"/>
       <c r="M104" s="2" t="n">
@@ -5959,13 +5969,13 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D105" s="0"/>
       <c r="E105" s="7" t="n">
@@ -5979,13 +5989,13 @@
       </c>
       <c r="H105" s="7"/>
       <c r="I105" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K105" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L105" s="0"/>
       <c r="M105" s="2" t="n">
@@ -6004,13 +6014,13 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D106" s="0"/>
       <c r="E106" s="7" t="n">
@@ -6024,13 +6034,13 @@
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K106" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L106" s="0"/>
       <c r="M106" s="2" t="n">
@@ -6049,13 +6059,13 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D107" s="0"/>
       <c r="E107" s="7" t="n">
@@ -6069,13 +6079,13 @@
       </c>
       <c r="H107" s="7"/>
       <c r="I107" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K107" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L107" s="0"/>
       <c r="M107" s="2" t="n">
@@ -6094,13 +6104,13 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D108" s="0"/>
       <c r="E108" s="7" t="n">
@@ -6114,13 +6124,13 @@
       </c>
       <c r="H108" s="7"/>
       <c r="I108" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K108" s="15" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L108" s="0"/>
       <c r="M108" s="2" t="n">
@@ -6139,13 +6149,13 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D109" s="0"/>
       <c r="E109" s="7" t="n">
@@ -6159,13 +6169,13 @@
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K109" s="13" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L109" s="0"/>
       <c r="M109" s="2" t="n">
@@ -6184,13 +6194,13 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D110" s="0"/>
       <c r="E110" s="7" t="n">
@@ -6204,13 +6214,13 @@
       </c>
       <c r="H110" s="7"/>
       <c r="I110" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K110" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L110" s="0"/>
       <c r="M110" s="8" t="n">
@@ -6228,13 +6238,13 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D111" s="0"/>
       <c r="E111" s="7" t="n">
@@ -6248,13 +6258,13 @@
       </c>
       <c r="H111" s="7"/>
       <c r="I111" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K111" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L111" s="0"/>
       <c r="M111" s="2" t="n">
@@ -6272,13 +6282,13 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D112" s="0"/>
       <c r="E112" s="7" t="n">
@@ -6292,13 +6302,13 @@
       </c>
       <c r="H112" s="7"/>
       <c r="I112" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K112" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L112" s="0"/>
       <c r="M112" s="2" t="n">
@@ -6317,13 +6327,13 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D113" s="0"/>
       <c r="E113" s="7" t="n">
@@ -6337,13 +6347,13 @@
       </c>
       <c r="H113" s="7"/>
       <c r="I113" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K113" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L113" s="0"/>
       <c r="M113" s="2" t="n">
@@ -6362,13 +6372,13 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D114" s="0"/>
       <c r="E114" s="7" t="n">
@@ -6382,13 +6392,13 @@
       </c>
       <c r="H114" s="7"/>
       <c r="I114" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K114" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L114" s="0"/>
       <c r="M114" s="2" t="n">
@@ -6407,13 +6417,13 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D115" s="0"/>
       <c r="E115" s="7" t="n">
@@ -6427,13 +6437,13 @@
       </c>
       <c r="H115" s="7"/>
       <c r="I115" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K115" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L115" s="0"/>
       <c r="M115" s="2" t="n">
@@ -6452,13 +6462,13 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D116" s="0"/>
       <c r="E116" s="7" t="n">
@@ -6472,13 +6482,13 @@
       </c>
       <c r="H116" s="7"/>
       <c r="I116" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K116" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L116" s="0"/>
       <c r="M116" s="2" t="n">
@@ -6497,13 +6507,13 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D117" s="0"/>
       <c r="E117" s="7" t="n">
@@ -6517,13 +6527,13 @@
       </c>
       <c r="H117" s="7"/>
       <c r="I117" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K117" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L117" s="0"/>
       <c r="M117" s="2" t="n">
@@ -6542,13 +6552,13 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D118" s="0"/>
       <c r="E118" s="7" t="n">
@@ -6562,13 +6572,13 @@
       </c>
       <c r="H118" s="7"/>
       <c r="I118" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K118" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L118" s="0"/>
       <c r="M118" s="2" t="n">
@@ -6587,13 +6597,13 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D119" s="0"/>
       <c r="E119" s="7" t="n">
@@ -6607,13 +6617,13 @@
       </c>
       <c r="H119" s="7"/>
       <c r="I119" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K119" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L119" s="0"/>
       <c r="M119" s="2" t="n">
@@ -6632,13 +6642,13 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D120" s="0"/>
       <c r="E120" s="7" t="n">
@@ -6652,13 +6662,13 @@
       </c>
       <c r="H120" s="7"/>
       <c r="I120" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K120" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L120" s="0"/>
       <c r="M120" s="2" t="n">
@@ -6677,13 +6687,13 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D121" s="0"/>
       <c r="E121" s="7" t="n">
@@ -6697,13 +6707,13 @@
       </c>
       <c r="H121" s="7"/>
       <c r="I121" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K121" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L121" s="0"/>
       <c r="M121" s="2" t="n">
@@ -6722,13 +6732,13 @@
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D122" s="0"/>
       <c r="E122" s="7" t="n">
@@ -6742,13 +6752,13 @@
       </c>
       <c r="H122" s="7"/>
       <c r="I122" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K122" s="13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L122" s="0"/>
       <c r="M122" s="2" t="n">
@@ -6767,13 +6777,13 @@
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D123" s="0"/>
       <c r="E123" s="7" t="n">
@@ -6787,13 +6797,13 @@
       </c>
       <c r="H123" s="7"/>
       <c r="I123" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K123" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L123" s="0"/>
       <c r="M123" s="2" t="n">
@@ -6812,13 +6822,13 @@
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D124" s="0"/>
       <c r="E124" s="7" t="n">
@@ -6832,13 +6842,13 @@
       </c>
       <c r="H124" s="7"/>
       <c r="I124" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K124" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L124" s="0"/>
       <c r="M124" s="2" t="n">
@@ -6857,13 +6867,13 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D125" s="0"/>
       <c r="E125" s="7" t="n">
@@ -6877,13 +6887,13 @@
       </c>
       <c r="H125" s="7"/>
       <c r="I125" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K125" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L125" s="0"/>
       <c r="M125" s="8" t="n">
@@ -6901,13 +6911,13 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D126" s="0"/>
       <c r="E126" s="7" t="n">
@@ -6921,13 +6931,13 @@
       </c>
       <c r="H126" s="7"/>
       <c r="I126" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K126" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L126" s="0"/>
       <c r="M126" s="2" t="n">
@@ -6946,13 +6956,13 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D127" s="0"/>
       <c r="E127" s="7" t="n">
@@ -6966,13 +6976,13 @@
       </c>
       <c r="H127" s="7"/>
       <c r="I127" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K127" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L127" s="0"/>
       <c r="M127" s="2" t="n">
@@ -6990,13 +7000,13 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D128" s="0"/>
       <c r="E128" s="7" t="n">
@@ -7010,13 +7020,13 @@
       </c>
       <c r="H128" s="7"/>
       <c r="I128" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K128" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L128" s="0"/>
       <c r="M128" s="2" t="n">
@@ -7034,13 +7044,13 @@
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D129" s="0"/>
       <c r="E129" s="7" t="n">
@@ -7054,13 +7064,13 @@
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K129" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L129" s="0"/>
       <c r="M129" s="2" t="n">
@@ -7079,13 +7089,13 @@
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D130" s="0"/>
       <c r="E130" s="7" t="n">
@@ -7099,13 +7109,13 @@
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K130" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L130" s="0"/>
       <c r="M130" s="2" t="n">
@@ -7124,13 +7134,13 @@
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D131" s="0"/>
       <c r="E131" s="7" t="n">
@@ -7144,13 +7154,13 @@
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K131" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L131" s="0"/>
       <c r="M131" s="2" t="n">
@@ -7169,13 +7179,13 @@
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D132" s="0"/>
       <c r="E132" s="7" t="n">
@@ -7189,13 +7199,13 @@
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K132" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L132" s="0"/>
       <c r="M132" s="2" t="n">
@@ -7214,13 +7224,13 @@
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D133" s="0"/>
       <c r="E133" s="7" t="n">
@@ -7234,13 +7244,13 @@
       </c>
       <c r="H133" s="7"/>
       <c r="I133" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K133" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L133" s="0"/>
       <c r="M133" s="2" t="n">
@@ -7259,13 +7269,13 @@
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D134" s="0"/>
       <c r="E134" s="7" t="n">
@@ -7279,13 +7289,13 @@
       </c>
       <c r="H134" s="7"/>
       <c r="I134" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K134" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L134" s="0"/>
       <c r="M134" s="2" t="n">
@@ -7304,13 +7314,13 @@
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D135" s="0"/>
       <c r="E135" s="7" t="n">
@@ -7324,13 +7334,13 @@
       </c>
       <c r="H135" s="7"/>
       <c r="I135" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K135" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L135" s="0"/>
       <c r="M135" s="2" t="n">
@@ -7349,13 +7359,13 @@
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D136" s="0"/>
       <c r="E136" s="7" t="n">
@@ -7369,13 +7379,13 @@
       </c>
       <c r="H136" s="7"/>
       <c r="I136" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K136" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L136" s="0"/>
       <c r="M136" s="2" t="n">
@@ -7394,13 +7404,13 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D137" s="0"/>
       <c r="E137" s="7" t="n">
@@ -7414,13 +7424,13 @@
       </c>
       <c r="H137" s="7"/>
       <c r="I137" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K137" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L137" s="0"/>
       <c r="M137" s="2" t="n">
@@ -7439,13 +7449,13 @@
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D138" s="0"/>
       <c r="E138" s="7" t="n">
@@ -7459,13 +7469,13 @@
       </c>
       <c r="H138" s="7"/>
       <c r="I138" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K138" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L138" s="0"/>
       <c r="M138" s="2" t="n">
@@ -7484,13 +7494,13 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D139" s="0"/>
       <c r="E139" s="7" t="n">
@@ -7504,13 +7514,13 @@
       </c>
       <c r="H139" s="7"/>
       <c r="I139" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K139" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L139" s="0"/>
       <c r="M139" s="2" t="n">
@@ -7529,13 +7539,13 @@
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D140" s="0"/>
       <c r="E140" s="7" t="n">
@@ -7549,13 +7559,13 @@
       </c>
       <c r="H140" s="7"/>
       <c r="I140" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K140" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L140" s="0"/>
       <c r="M140" s="2" t="n">
@@ -7574,13 +7584,13 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D141" s="0"/>
       <c r="E141" s="7" t="n">
@@ -7594,13 +7604,13 @@
       </c>
       <c r="H141" s="7"/>
       <c r="I141" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K141" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L141" s="0"/>
       <c r="M141" s="2" t="n">
@@ -7619,13 +7629,13 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D142" s="0"/>
       <c r="E142" s="7" t="n">
@@ -7639,13 +7649,13 @@
       </c>
       <c r="H142" s="7"/>
       <c r="I142" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K142" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L142" s="0"/>
       <c r="M142" s="2" t="n">
@@ -7664,13 +7674,13 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D143" s="0"/>
       <c r="E143" s="7" t="n">
@@ -7684,13 +7694,13 @@
       </c>
       <c r="H143" s="7"/>
       <c r="I143" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J143" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K143" s="13" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L143" s="0"/>
       <c r="M143" s="2" t="n">
@@ -7709,13 +7719,13 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D144" s="0"/>
       <c r="E144" s="7" t="n">
@@ -7729,13 +7739,13 @@
       </c>
       <c r="H144" s="7"/>
       <c r="I144" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K144" s="13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L144" s="0"/>
       <c r="M144" s="2" t="n">
@@ -7754,13 +7764,13 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D145" s="0"/>
       <c r="E145" s="1" t="n">
@@ -7774,13 +7784,13 @@
       </c>
       <c r="H145" s="0"/>
       <c r="I145" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K145" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L145" s="0"/>
       <c r="M145" s="2" t="n">
@@ -7803,13 +7813,13 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D146" s="0"/>
       <c r="E146" s="1" t="n">
@@ -7823,13 +7833,13 @@
       </c>
       <c r="H146" s="0"/>
       <c r="I146" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K146" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L146" s="0"/>
       <c r="M146" s="2" t="n">
@@ -7853,13 +7863,13 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D147" s="0"/>
       <c r="E147" s="1" t="n">
@@ -7873,13 +7883,13 @@
       </c>
       <c r="H147" s="0"/>
       <c r="I147" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K147" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L147" s="0"/>
       <c r="M147" s="2" t="n">
@@ -7904,13 +7914,13 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D148" s="0"/>
       <c r="E148" s="1" t="n">
@@ -7924,13 +7934,13 @@
       </c>
       <c r="H148" s="0"/>
       <c r="I148" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K148" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L148" s="0"/>
       <c r="M148" s="2" t="n">
@@ -7955,13 +7965,13 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D149" s="0"/>
       <c r="E149" s="1" t="n">
@@ -7975,13 +7985,13 @@
       </c>
       <c r="H149" s="0"/>
       <c r="I149" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K149" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L149" s="0"/>
       <c r="M149" s="2" t="n">
@@ -8004,13 +8014,13 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D150" s="0"/>
       <c r="E150" s="1" t="n">
@@ -8024,13 +8034,13 @@
       </c>
       <c r="H150" s="0"/>
       <c r="I150" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K150" s="14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L150" s="0"/>
       <c r="M150" s="2" t="n">
@@ -8055,13 +8065,13 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D151" s="0"/>
       <c r="E151" s="1" t="n">
@@ -8079,10 +8089,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K151" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L151" s="0"/>
       <c r="M151" s="2" t="n">
@@ -8106,13 +8116,13 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D152" s="0"/>
       <c r="E152" s="1" t="n">
@@ -8130,10 +8140,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J152" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K152" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L152" s="0"/>
       <c r="M152" s="2" t="n">
@@ -8157,13 +8167,13 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D153" s="0"/>
       <c r="E153" s="1" t="n">
@@ -8177,13 +8187,13 @@
       </c>
       <c r="H153" s="0"/>
       <c r="I153" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J153" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K153" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L153" s="0"/>
       <c r="M153" s="2" t="n">
@@ -8206,13 +8216,13 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D154" s="0"/>
       <c r="E154" s="1" t="n">
@@ -8230,10 +8240,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J154" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K154" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L154" s="0"/>
       <c r="M154" s="2" t="n">
@@ -8257,13 +8267,13 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D155" s="0"/>
       <c r="E155" s="1" t="n">
@@ -8281,10 +8291,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K155" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L155" s="0"/>
       <c r="M155" s="2" t="n">
@@ -8309,13 +8319,13 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D156" s="0"/>
       <c r="E156" s="1" t="n">
@@ -8333,13 +8343,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J156" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K156" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M156" s="2" t="n">
         <f aca="false">M3</f>
@@ -8365,13 +8375,13 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D157" s="0"/>
       <c r="E157" s="1" t="n">
@@ -8389,13 +8399,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J157" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K157" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M157" s="2" t="n">
         <f aca="false">M3</f>
@@ -8423,13 +8433,13 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D158" s="0"/>
       <c r="E158" s="1" t="n">
@@ -8447,10 +8457,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J158" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K158" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L158" s="0"/>
       <c r="M158" s="2" t="n">
@@ -8475,13 +8485,13 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D159" s="0"/>
       <c r="E159" s="1" t="n">
@@ -8499,10 +8509,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J159" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K159" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L159" s="0"/>
       <c r="M159" s="2" t="n">
@@ -8527,13 +8537,13 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D160" s="0"/>
       <c r="E160" s="1" t="n">
@@ -8547,13 +8557,13 @@
       </c>
       <c r="H160" s="0"/>
       <c r="I160" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="J160" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K160" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L160" s="0"/>
       <c r="M160" s="2" t="n">
@@ -8578,13 +8588,13 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D161" s="0"/>
       <c r="E161" s="1" t="n">
@@ -8602,10 +8612,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K161" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L161" s="0"/>
       <c r="M161" s="2" t="n">
@@ -8630,13 +8640,13 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D162" s="0"/>
       <c r="E162" s="1" t="n">
@@ -8654,10 +8664,10 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J162" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K162" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L162" s="0"/>
       <c r="M162" s="2" t="n">
@@ -8682,13 +8692,13 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D163" s="0"/>
       <c r="E163" s="1" t="n">
@@ -8706,13 +8716,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K163" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M163" s="2" t="n">
         <f aca="false">M3</f>
@@ -8740,13 +8750,13 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D164" s="0"/>
       <c r="E164" s="1" t="n">
@@ -8764,13 +8774,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J164" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K164" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M164" s="2" t="n">
         <f aca="false">M3</f>
@@ -8798,13 +8808,13 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D165" s="0"/>
       <c r="E165" s="1" t="n">
@@ -8818,13 +8828,13 @@
       </c>
       <c r="H165" s="0"/>
       <c r="I165" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J165" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K165" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L165" s="0"/>
       <c r="M165" s="2" t="n">
@@ -8847,13 +8857,13 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D166" s="0"/>
       <c r="E166" s="1" t="n">
@@ -8867,13 +8877,13 @@
       </c>
       <c r="H166" s="0"/>
       <c r="I166" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J166" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K166" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L166" s="0"/>
       <c r="M166" s="2" t="n">
@@ -8897,13 +8907,13 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D167" s="0"/>
       <c r="E167" s="1" t="n">
@@ -8917,16 +8927,16 @@
       </c>
       <c r="H167" s="0"/>
       <c r="I167" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J167" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K167" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L167" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M167" s="2" t="n">
         <f aca="false">M72</f>
@@ -8954,13 +8964,13 @@
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D168" s="0"/>
       <c r="E168" s="1" t="n">
@@ -8974,13 +8984,13 @@
       </c>
       <c r="H168" s="0"/>
       <c r="I168" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J168" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K168" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L168" s="0"/>
       <c r="M168" s="2" t="n">
@@ -9004,13 +9014,13 @@
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D169" s="0"/>
       <c r="E169" s="1" t="n">
@@ -9024,13 +9034,13 @@
       </c>
       <c r="H169" s="0"/>
       <c r="I169" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K169" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L169" s="0"/>
       <c r="M169" s="2" t="n">
@@ -9055,13 +9065,13 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D170" s="0"/>
       <c r="E170" s="1" t="n">
@@ -9075,13 +9085,13 @@
       </c>
       <c r="H170" s="0"/>
       <c r="I170" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K170" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L170" s="0"/>
       <c r="M170" s="2" t="n">
@@ -9106,13 +9116,13 @@
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D171" s="0"/>
       <c r="E171" s="1" t="n">
@@ -9126,16 +9136,16 @@
       </c>
       <c r="H171" s="0"/>
       <c r="I171" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K171" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L171" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M171" s="2" t="n">
         <f aca="false">M72</f>
@@ -9166,13 +9176,13 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D172" s="0"/>
       <c r="E172" s="1" t="n">
@@ -9186,13 +9196,13 @@
       </c>
       <c r="H172" s="0"/>
       <c r="I172" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L172" s="0"/>
       <c r="M172" s="2" t="n">
@@ -9217,16 +9227,16 @@
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E173" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9246,13 +9256,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J173" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="K173" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="M173" s="2" t="n">
         <f aca="false">M3</f>
@@ -9282,16 +9292,16 @@
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E174" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9313,13 +9323,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K174" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M174" s="2" t="n">
         <f aca="false">M3</f>
@@ -9349,16 +9359,16 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E175" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9380,13 +9390,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K175" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M175" s="2" t="n">
         <f aca="false">M3</f>
@@ -9416,16 +9426,16 @@
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E176" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9447,13 +9457,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J176" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K176" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M176" s="2" t="n">
         <f aca="false">M3</f>
@@ -9483,16 +9493,16 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E177" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9514,13 +9524,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J177" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K177" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M177" s="2" t="n">
         <f aca="false">M3</f>
@@ -9550,16 +9560,16 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E178" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9581,13 +9591,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J178" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K178" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M178" s="2" t="n">
         <f aca="false">M3</f>
@@ -9617,16 +9627,16 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E179" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9646,13 +9656,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J179" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="K179" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L179" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="M179" s="2" t="n">
         <f aca="false">M3</f>
@@ -9682,16 +9692,16 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E180" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9713,13 +9723,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J180" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K180" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M180" s="2" t="n">
         <f aca="false">M3</f>
@@ -9749,16 +9759,16 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E181" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9780,13 +9790,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J181" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K181" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M181" s="2" t="n">
         <f aca="false">M3</f>
@@ -9816,16 +9826,16 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E182" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9847,13 +9857,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J182" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K182" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M182" s="2" t="n">
         <f aca="false">M3</f>
@@ -9883,16 +9893,16 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E183" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9914,13 +9924,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J183" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K183" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M183" s="2" t="n">
         <f aca="false">M3</f>
@@ -9950,16 +9960,16 @@
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E184" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -9981,13 +9991,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J184" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M184" s="2" t="n">
         <f aca="false">M3</f>
@@ -10017,16 +10027,16 @@
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E185" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10046,13 +10056,13 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J185" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="K185" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L185" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="M185" s="2" t="n">
         <f aca="false">M3</f>
@@ -10078,19 +10088,22 @@
       <c r="S185" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V185" s="0" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E186" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10112,13 +10125,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J186" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K186" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K186" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M186" s="2" t="n">
         <f aca="false">M3</f>
@@ -10145,19 +10159,23 @@
       <c r="S186" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="V186" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E187" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10179,13 +10197,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K187" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K187" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M187" s="2" t="n">
         <f aca="false">M3</f>
@@ -10212,19 +10231,23 @@
       <c r="S187" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="V187" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E188" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10246,13 +10269,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K188" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K188" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M188" s="2" t="n">
         <f aca="false">M3</f>
@@ -10279,19 +10303,23 @@
       <c r="S188" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="V188" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E189" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10313,13 +10341,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K189" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K189" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M189" s="2" t="n">
         <f aca="false">M3</f>
@@ -10346,19 +10375,23 @@
       <c r="S189" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="V189" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E190" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10380,13 +10413,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K190" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K190" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M190" s="2" t="n">
         <f aca="false">M3</f>
@@ -10413,19 +10447,23 @@
       <c r="S190" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="V190" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E191" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10445,13 +10483,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J191" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K191" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="K191" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L191" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="M191" s="2" t="n">
         <f aca="false">M3</f>
@@ -10478,19 +10517,23 @@
       <c r="S191" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V191" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E192" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10512,13 +10555,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K192" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K192" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M192" s="2" t="n">
         <f aca="false">M3</f>
@@ -10545,19 +10589,23 @@
       <c r="S192" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="V192" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E193" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10579,13 +10627,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K193" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K193" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M193" s="2" t="n">
         <f aca="false">M3</f>
@@ -10612,19 +10661,23 @@
       <c r="S193" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="V193" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E194" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10646,13 +10699,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J194" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K194" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K194" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M194" s="2" t="n">
         <f aca="false">M3</f>
@@ -10679,19 +10733,23 @@
       <c r="S194" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="V194" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E195" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10713,13 +10771,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J195" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K195" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K195" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M195" s="2" t="n">
         <f aca="false">M3</f>
@@ -10746,19 +10805,23 @@
       <c r="S195" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="V195" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E196" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10780,13 +10843,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J196" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K196" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K196" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M196" s="2" t="n">
         <f aca="false">M3</f>
@@ -10813,19 +10877,23 @@
       <c r="S196" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="V196" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E197" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10845,13 +10913,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J197" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K197" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="K197" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="M197" s="2" t="n">
         <f aca="false">M3</f>
@@ -10878,19 +10947,23 @@
       <c r="S197" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V197" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E198" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10912,13 +10985,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J198" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K198" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K198" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M198" s="2" t="n">
         <f aca="false">M3</f>
@@ -10945,19 +11019,23 @@
       <c r="S198" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="V198" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E199" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -10979,13 +11057,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J199" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K199" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K199" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M199" s="2" t="n">
         <f aca="false">M3</f>
@@ -11012,19 +11091,23 @@
       <c r="S199" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="V199" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E200" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11046,13 +11129,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K200" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M200" s="2" t="n">
         <f aca="false">M3</f>
@@ -11079,19 +11163,23 @@
       <c r="S200" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="V200" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E201" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11113,13 +11201,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J201" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K201" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K201" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M201" s="2" t="n">
         <f aca="false">M3</f>
@@ -11146,19 +11235,23 @@
       <c r="S201" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="V201" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E202" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11180,13 +11273,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J202" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K202" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K202" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M202" s="2" t="n">
         <f aca="false">M3</f>
@@ -11213,19 +11307,23 @@
       <c r="S202" s="0" t="n">
         <v>14</v>
       </c>
+      <c r="V202" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E203" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11245,13 +11343,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J203" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="K203" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="K203" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="M203" s="2" t="n">
         <f aca="false">M3</f>
@@ -11278,19 +11377,23 @@
       <c r="S203" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="V203" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E204" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11312,13 +11415,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K204" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K204" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M204" s="2" t="n">
         <f aca="false">M3</f>
@@ -11345,19 +11449,23 @@
       <c r="S204" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="V204" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E205" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11379,13 +11487,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K205" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K205" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M205" s="2" t="n">
         <f aca="false">M3</f>
@@ -11412,19 +11521,23 @@
       <c r="S205" s="0" t="n">
         <v>9</v>
       </c>
+      <c r="V205" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E206" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11446,13 +11559,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J206" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K206" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K206" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M206" s="2" t="n">
         <f aca="false">M3</f>
@@ -11479,19 +11593,23 @@
       <c r="S206" s="0" t="n">
         <v>12</v>
       </c>
+      <c r="V206" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E207" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11513,13 +11631,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J207" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K207" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K207" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M207" s="2" t="n">
         <f aca="false">M3</f>
@@ -11546,19 +11665,23 @@
       <c r="S207" s="0" t="n">
         <v>13</v>
       </c>
+      <c r="V207" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E208" s="1" t="n">
         <f aca="false">$E$172</f>
@@ -11580,13 +11703,14 @@
         <v>Déchets - Propreté publique</v>
       </c>
       <c r="J208" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="K208" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
+      </c>
+      <c r="K208" s="1" t="str">
+        <f aca="false">$K$185</f>
+        <v>Adresses non collectées</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M208" s="2" t="n">
         <f aca="false">M3</f>
@@ -11612,6 +11736,10 @@
       </c>
       <c r="S208" s="0" t="n">
         <v>14</v>
+      </c>
+      <c r="V208" s="0" t="n">
+        <f aca="false">$V$185</f>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -11638,122 +11766,122 @@
   </sheetPr>
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="S11" activeCellId="0" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="13" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4251012145749"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T1" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="U1" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M2" s="0" t="n">
         <f aca="false">mapping!M110</f>
@@ -11768,31 +11896,31 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>192</v>
-      </c>
       <c r="H3" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M3" s="0" t="n">
         <f aca="false">mapping!M125</f>
@@ -11807,31 +11935,31 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="H4" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M4" s="0" t="n">
         <f aca="false">M3</f>
@@ -11846,31 +11974,31 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>197</v>
-      </c>
       <c r="H5" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M5" s="0" t="n">
         <f aca="false">mapping!M87</f>
@@ -11885,31 +12013,31 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>199</v>
-      </c>
       <c r="H6" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M6" s="0" t="n">
         <f aca="false">M5</f>
@@ -11933,31 +12061,31 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>202</v>
-      </c>
       <c r="H7" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M7" s="0" t="n">
         <f aca="false">mapping!M101</f>
@@ -11972,31 +12100,31 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F8" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>205</v>
-      </c>
       <c r="H8" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M8" s="0" t="n">
         <f aca="false">mapping!M72</f>
@@ -12011,31 +12139,31 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F9" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>207</v>
-      </c>
       <c r="H9" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M9" s="0" t="n">
         <f aca="false">M8</f>
@@ -12066,29 +12194,29 @@
         <v>Bulle à verre</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">mapping!K167</f>
         <v>Débordante</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M10" s="0" t="n">
         <f aca="false">M9</f>
@@ -12120,31 +12248,31 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M11" s="0" t="n">
         <f aca="false">mapping!M23</f>
@@ -12163,31 +12291,31 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F12" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>216</v>
-      </c>
       <c r="H12" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M12" s="0" t="n">
         <f aca="false">mapping!M63</f>
@@ -12202,31 +12330,31 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F13" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>218</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M13" s="0" t="n">
         <f aca="false">M12</f>
@@ -12241,31 +12369,31 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F14" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>221</v>
-      </c>
       <c r="H14" s="16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>1100</v>
@@ -12279,31 +12407,31 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M15" s="0" t="n">
         <f aca="false">M14</f>

--- a/apps/resources/categories_mapping_new.xlsx
+++ b/apps/resources/categories_mapping_new.xlsx
@@ -52,6 +52,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$1:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0" vbProcedure="false">mapping!$1:$2</definedName>
@@ -65,6 +66,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Titles_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$1:$2</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
@@ -78,6 +80,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">mapping!$A$2:$L$144</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -262,7 +265,7 @@
     <t xml:space="preserve"> Tronçon</t>
   </si>
   <si>
-    <t xml:space="preserve">éteinte</t>
+    <t xml:space="preserve">Éteinte</t>
   </si>
   <si>
     <t xml:space="preserve">Lampe allumée en continu</t>
@@ -773,7 +776,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -811,6 +814,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -934,11 +943,11 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -991,7 +1000,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1011,7 +1024,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1099,23 +1112,23 @@
   </sheetPr>
   <dimension ref="1:208"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q178" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="V207" activeCellId="0" sqref="V207"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.7085020242915"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="34.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.17004048583"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="1" width="8.89068825910931"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="2" width="13.3886639676113"/>
@@ -1123,9 +1136,9 @@
     <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="19" min="18" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.8178137651822"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="47.9109311740891"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="48.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="23" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -2515,7 +2528,7 @@
       <c r="J27" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L27" s="0"/>
@@ -2785,7 +2798,7 @@
       <c r="J33" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L33" s="0"/>
@@ -3010,7 +3023,7 @@
       <c r="J38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L38" s="0"/>
@@ -3055,7 +3068,7 @@
       <c r="J39" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L39" s="0"/>
@@ -3279,7 +3292,7 @@
       <c r="J44" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L44" s="0"/>
@@ -3457,7 +3470,7 @@
       <c r="J48" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L48" s="0"/>
@@ -3677,7 +3690,7 @@
       <c r="J53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K53" s="1" t="s">
+      <c r="K53" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L53" s="0"/>
@@ -3765,7 +3778,7 @@
       <c r="J55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="K55" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L55" s="0"/>
@@ -3984,7 +3997,7 @@
       <c r="J60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K60" s="1" t="s">
+      <c r="K60" s="13" t="s">
         <v>57</v>
       </c>
       <c r="L60" s="0"/>
@@ -5191,7 +5204,7 @@
       <c r="J87" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K87" s="13" t="s">
+      <c r="K87" s="14" t="s">
         <v>85</v>
       </c>
       <c r="L87" s="0"/>
@@ -5235,7 +5248,7 @@
       <c r="J88" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K88" s="13" t="s">
+      <c r="K88" s="14" t="s">
         <v>87</v>
       </c>
       <c r="L88" s="0"/>
@@ -5279,7 +5292,7 @@
       <c r="J89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K89" s="13" t="s">
+      <c r="K89" s="14" t="s">
         <v>89</v>
       </c>
       <c r="L89" s="0"/>
@@ -5323,7 +5336,7 @@
       <c r="J90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K90" s="13" t="s">
+      <c r="K90" s="14" t="s">
         <v>90</v>
       </c>
       <c r="L90" s="0"/>
@@ -5368,7 +5381,7 @@
       <c r="J91" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K91" s="13" t="s">
+      <c r="K91" s="14" t="s">
         <v>87</v>
       </c>
       <c r="L91" s="0"/>
@@ -5413,7 +5426,7 @@
       <c r="J92" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K92" s="13" t="s">
+      <c r="K92" s="14" t="s">
         <v>89</v>
       </c>
       <c r="L92" s="0"/>
@@ -5458,7 +5471,7 @@
       <c r="J93" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K93" s="13" t="s">
+      <c r="K93" s="14" t="s">
         <v>87</v>
       </c>
       <c r="L93" s="0"/>
@@ -5503,7 +5516,7 @@
       <c r="J94" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K94" s="13" t="s">
+      <c r="K94" s="14" t="s">
         <v>89</v>
       </c>
       <c r="L94" s="0"/>
@@ -5548,7 +5561,7 @@
       <c r="J95" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K95" s="13" t="s">
+      <c r="K95" s="14" t="s">
         <v>90</v>
       </c>
       <c r="L95" s="0"/>
@@ -5593,7 +5606,7 @@
       <c r="J96" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K96" s="13" t="s">
+      <c r="K96" s="14" t="s">
         <v>89</v>
       </c>
       <c r="L96" s="0"/>
@@ -5638,7 +5651,7 @@
       <c r="J97" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="K97" s="13" t="s">
+      <c r="K97" s="14" t="s">
         <v>90</v>
       </c>
       <c r="L97" s="0"/>
@@ -5683,7 +5696,7 @@
       <c r="J98" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K98" s="13" t="s">
+      <c r="K98" s="14" t="s">
         <v>87</v>
       </c>
       <c r="L98" s="0"/>
@@ -5725,10 +5738,10 @@
       <c r="I99" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J99" s="14" t="s">
+      <c r="J99" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K99" s="15" t="s">
+      <c r="K99" s="16" t="s">
         <v>94</v>
       </c>
       <c r="L99" s="0"/>
@@ -5772,7 +5785,7 @@
       <c r="J100" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K100" s="13" t="s">
+      <c r="K100" s="14" t="s">
         <v>95</v>
       </c>
       <c r="L100" s="0"/>
@@ -5816,7 +5829,7 @@
       <c r="J101" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="K101" s="13" t="s">
+      <c r="K101" s="14" t="s">
         <v>98</v>
       </c>
       <c r="L101" s="0"/>
@@ -5856,10 +5869,10 @@
       <c r="I102" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J102" s="14" t="s">
+      <c r="J102" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K102" s="15" t="s">
+      <c r="K102" s="16" t="s">
         <v>94</v>
       </c>
       <c r="L102" s="0"/>
@@ -5904,7 +5917,7 @@
       <c r="J103" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K103" s="13" t="s">
+      <c r="K103" s="14" t="s">
         <v>95</v>
       </c>
       <c r="L103" s="0"/>
@@ -5946,10 +5959,10 @@
       <c r="I104" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J104" s="14" t="s">
+      <c r="J104" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K104" s="15" t="s">
+      <c r="K104" s="16" t="s">
         <v>94</v>
       </c>
       <c r="L104" s="0"/>
@@ -5994,7 +6007,7 @@
       <c r="J105" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K105" s="13" t="s">
+      <c r="K105" s="14" t="s">
         <v>95</v>
       </c>
       <c r="L105" s="0"/>
@@ -6036,10 +6049,10 @@
       <c r="I106" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J106" s="14" t="s">
+      <c r="J106" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K106" s="15" t="s">
+      <c r="K106" s="16" t="s">
         <v>94</v>
       </c>
       <c r="L106" s="0"/>
@@ -6084,7 +6097,7 @@
       <c r="J107" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K107" s="13" t="s">
+      <c r="K107" s="14" t="s">
         <v>95</v>
       </c>
       <c r="L107" s="0"/>
@@ -6126,10 +6139,10 @@
       <c r="I108" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="J108" s="14" t="s">
+      <c r="J108" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K108" s="15" t="s">
+      <c r="K108" s="16" t="s">
         <v>94</v>
       </c>
       <c r="L108" s="0"/>
@@ -6174,7 +6187,7 @@
       <c r="J109" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K109" s="13" t="s">
+      <c r="K109" s="14" t="s">
         <v>95</v>
       </c>
       <c r="L109" s="0"/>
@@ -6219,7 +6232,7 @@
       <c r="J110" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K110" s="13" t="s">
+      <c r="K110" s="14" t="s">
         <v>102</v>
       </c>
       <c r="L110" s="0"/>
@@ -6263,7 +6276,7 @@
       <c r="J111" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K111" s="13" t="s">
+      <c r="K111" s="14" t="s">
         <v>104</v>
       </c>
       <c r="L111" s="0"/>
@@ -6307,7 +6320,7 @@
       <c r="J112" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K112" s="13" t="s">
+      <c r="K112" s="14" t="s">
         <v>104</v>
       </c>
       <c r="L112" s="0"/>
@@ -6352,7 +6365,7 @@
       <c r="J113" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K113" s="13" t="s">
+      <c r="K113" s="14" t="s">
         <v>102</v>
       </c>
       <c r="L113" s="0"/>
@@ -6397,7 +6410,7 @@
       <c r="J114" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K114" s="13" t="s">
+      <c r="K114" s="14" t="s">
         <v>104</v>
       </c>
       <c r="L114" s="0"/>
@@ -6442,7 +6455,7 @@
       <c r="J115" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K115" s="13" t="s">
+      <c r="K115" s="14" t="s">
         <v>104</v>
       </c>
       <c r="L115" s="0"/>
@@ -6487,7 +6500,7 @@
       <c r="J116" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K116" s="13" t="s">
+      <c r="K116" s="14" t="s">
         <v>102</v>
       </c>
       <c r="L116" s="0"/>
@@ -6532,7 +6545,7 @@
       <c r="J117" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K117" s="13" t="s">
+      <c r="K117" s="14" t="s">
         <v>104</v>
       </c>
       <c r="L117" s="0"/>
@@ -6577,7 +6590,7 @@
       <c r="J118" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K118" s="13" t="s">
+      <c r="K118" s="14" t="s">
         <v>104</v>
       </c>
       <c r="L118" s="0"/>
@@ -6622,7 +6635,7 @@
       <c r="J119" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K119" s="13" t="s">
+      <c r="K119" s="14" t="s">
         <v>102</v>
       </c>
       <c r="L119" s="0"/>
@@ -6667,7 +6680,7 @@
       <c r="J120" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K120" s="13" t="s">
+      <c r="K120" s="14" t="s">
         <v>104</v>
       </c>
       <c r="L120" s="0"/>
@@ -6712,7 +6725,7 @@
       <c r="J121" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K121" s="13" t="s">
+      <c r="K121" s="14" t="s">
         <v>104</v>
       </c>
       <c r="L121" s="0"/>
@@ -6757,7 +6770,7 @@
       <c r="J122" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="K122" s="13" t="s">
+      <c r="K122" s="14" t="s">
         <v>102</v>
       </c>
       <c r="L122" s="0"/>
@@ -6802,7 +6815,7 @@
       <c r="J123" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K123" s="13" t="s">
+      <c r="K123" s="14" t="s">
         <v>104</v>
       </c>
       <c r="L123" s="0"/>
@@ -6847,7 +6860,7 @@
       <c r="J124" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K124" s="13" t="s">
+      <c r="K124" s="14" t="s">
         <v>104</v>
       </c>
       <c r="L124" s="0"/>
@@ -6892,7 +6905,7 @@
       <c r="J125" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K125" s="13" t="s">
+      <c r="K125" s="14" t="s">
         <v>108</v>
       </c>
       <c r="L125" s="0"/>
@@ -6936,7 +6949,7 @@
       <c r="J126" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K126" s="13" t="s">
+      <c r="K126" s="14" t="s">
         <v>108</v>
       </c>
       <c r="L126" s="0"/>
@@ -6981,7 +6994,7 @@
       <c r="J127" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K127" s="13" t="s">
+      <c r="K127" s="14" t="s">
         <v>111</v>
       </c>
       <c r="L127" s="0"/>
@@ -7025,7 +7038,7 @@
       <c r="J128" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K128" s="13" t="s">
+      <c r="K128" s="14" t="s">
         <v>113</v>
       </c>
       <c r="L128" s="0"/>
@@ -7069,7 +7082,7 @@
       <c r="J129" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K129" s="13" t="s">
+      <c r="K129" s="14" t="s">
         <v>108</v>
       </c>
       <c r="L129" s="0"/>
@@ -7114,7 +7127,7 @@
       <c r="J130" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K130" s="13" t="s">
+      <c r="K130" s="14" t="s">
         <v>113</v>
       </c>
       <c r="L130" s="0"/>
@@ -7159,7 +7172,7 @@
       <c r="J131" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K131" s="13" t="s">
+      <c r="K131" s="14" t="s">
         <v>111</v>
       </c>
       <c r="L131" s="0"/>
@@ -7204,7 +7217,7 @@
       <c r="J132" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K132" s="13" t="s">
+      <c r="K132" s="14" t="s">
         <v>108</v>
       </c>
       <c r="L132" s="0"/>
@@ -7249,7 +7262,7 @@
       <c r="J133" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K133" s="13" t="s">
+      <c r="K133" s="14" t="s">
         <v>108</v>
       </c>
       <c r="L133" s="0"/>
@@ -7294,7 +7307,7 @@
       <c r="J134" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K134" s="13" t="s">
+      <c r="K134" s="14" t="s">
         <v>108</v>
       </c>
       <c r="L134" s="0"/>
@@ -7339,7 +7352,7 @@
       <c r="J135" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K135" s="13" t="s">
+      <c r="K135" s="14" t="s">
         <v>111</v>
       </c>
       <c r="L135" s="0"/>
@@ -7384,7 +7397,7 @@
       <c r="J136" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K136" s="13" t="s">
+      <c r="K136" s="14" t="s">
         <v>113</v>
       </c>
       <c r="L136" s="0"/>
@@ -7429,7 +7442,7 @@
       <c r="J137" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K137" s="13" t="s">
+      <c r="K137" s="14" t="s">
         <v>111</v>
       </c>
       <c r="L137" s="0"/>
@@ -7474,7 +7487,7 @@
       <c r="J138" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K138" s="13" t="s">
+      <c r="K138" s="14" t="s">
         <v>108</v>
       </c>
       <c r="L138" s="0"/>
@@ -7519,7 +7532,7 @@
       <c r="J139" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K139" s="13" t="s">
+      <c r="K139" s="14" t="s">
         <v>108</v>
       </c>
       <c r="L139" s="0"/>
@@ -7564,7 +7577,7 @@
       <c r="J140" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K140" s="13" t="s">
+      <c r="K140" s="14" t="s">
         <v>113</v>
       </c>
       <c r="L140" s="0"/>
@@ -7609,7 +7622,7 @@
       <c r="J141" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K141" s="13" t="s">
+      <c r="K141" s="14" t="s">
         <v>108</v>
       </c>
       <c r="L141" s="0"/>
@@ -7654,7 +7667,7 @@
       <c r="J142" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="K142" s="13" t="s">
+      <c r="K142" s="14" t="s">
         <v>108</v>
       </c>
       <c r="L142" s="0"/>
@@ -7699,7 +7712,7 @@
       <c r="J143" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K143" s="13" t="s">
+      <c r="K143" s="14" t="s">
         <v>111</v>
       </c>
       <c r="L143" s="0"/>
@@ -7744,7 +7757,7 @@
       <c r="J144" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K144" s="13" t="s">
+      <c r="K144" s="14" t="s">
         <v>113</v>
       </c>
       <c r="L144" s="0"/>
@@ -8039,7 +8052,7 @@
       <c r="J150" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K150" s="14" t="s">
+      <c r="K150" s="15" t="s">
         <v>94</v>
       </c>
       <c r="L150" s="0"/>
@@ -8935,7 +8948,7 @@
       <c r="K167" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="L167" s="16" t="s">
+      <c r="L167" s="17" t="s">
         <v>146</v>
       </c>
       <c r="M167" s="2" t="n">
@@ -8949,7 +8962,7 @@
       <c r="O167" s="8" t="n">
         <v>3312</v>
       </c>
-      <c r="P167" s="17" t="n">
+      <c r="P167" s="18" t="n">
         <v>4012</v>
       </c>
       <c r="Q167" s="0" t="n">
@@ -11772,86 +11785,86 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="26.1376518218623"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="13" min="10" style="0" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="16" min="14" style="0" width="8.24696356275304"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" s="18" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="19" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>171</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>172</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>174</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="19" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>179</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="19" t="s">
         <v>180</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="S1" s="18" t="s">
+      <c r="S1" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="U1" s="18" t="s">
+      <c r="U1" s="19" t="s">
         <v>186</v>
       </c>
     </row>
@@ -11887,10 +11900,10 @@
         <f aca="false">mapping!M110</f>
         <v>1001</v>
       </c>
-      <c r="N2" s="17" t="n">
+      <c r="N2" s="18" t="n">
         <v>2300</v>
       </c>
-      <c r="O2" s="17" t="n">
+      <c r="O2" s="18" t="n">
         <v>3400</v>
       </c>
     </row>
@@ -11926,10 +11939,10 @@
         <f aca="false">mapping!M125</f>
         <v>1005</v>
       </c>
-      <c r="N3" s="17" t="n">
+      <c r="N3" s="18" t="n">
         <v>2301</v>
       </c>
-      <c r="O3" s="17" t="n">
+      <c r="O3" s="18" t="n">
         <v>3401</v>
       </c>
     </row>
@@ -11965,10 +11978,10 @@
         <f aca="false">M3</f>
         <v>1005</v>
       </c>
-      <c r="N4" s="17" t="n">
+      <c r="N4" s="18" t="n">
         <v>2302</v>
       </c>
-      <c r="O4" s="17" t="n">
+      <c r="O4" s="18" t="n">
         <v>3402</v>
       </c>
     </row>
@@ -12004,10 +12017,10 @@
         <f aca="false">mapping!M87</f>
         <v>1004</v>
       </c>
-      <c r="N5" s="17" t="n">
+      <c r="N5" s="18" t="n">
         <v>2303</v>
       </c>
-      <c r="O5" s="17" t="n">
+      <c r="O5" s="18" t="n">
         <v>3403</v>
       </c>
     </row>
@@ -12043,10 +12056,10 @@
         <f aca="false">M5</f>
         <v>1004</v>
       </c>
-      <c r="N6" s="17" t="n">
+      <c r="N6" s="18" t="n">
         <v>2304</v>
       </c>
-      <c r="O6" s="17" t="n">
+      <c r="O6" s="18" t="n">
         <v>3404</v>
       </c>
       <c r="Q6" s="0" t="n">
@@ -12091,10 +12104,10 @@
         <f aca="false">mapping!M101</f>
         <v>1010</v>
       </c>
-      <c r="N7" s="17" t="n">
+      <c r="N7" s="18" t="n">
         <v>2305</v>
       </c>
-      <c r="O7" s="17" t="n">
+      <c r="O7" s="18" t="n">
         <v>3405</v>
       </c>
     </row>
@@ -12130,10 +12143,10 @@
         <f aca="false">mapping!M72</f>
         <v>1007</v>
       </c>
-      <c r="N8" s="17" t="n">
+      <c r="N8" s="18" t="n">
         <v>2306</v>
       </c>
-      <c r="O8" s="17" t="n">
+      <c r="O8" s="18" t="n">
         <v>3406</v>
       </c>
     </row>
@@ -12169,10 +12182,10 @@
         <f aca="false">M8</f>
         <v>1007</v>
       </c>
-      <c r="N9" s="17" t="n">
+      <c r="N9" s="18" t="n">
         <v>2307</v>
       </c>
-      <c r="O9" s="17" t="n">
+      <c r="O9" s="18" t="n">
         <v>3407</v>
       </c>
     </row>
@@ -12230,7 +12243,7 @@
         <f aca="false">mapping!O167</f>
         <v>3312</v>
       </c>
-      <c r="P10" s="17" t="n">
+      <c r="P10" s="18" t="n">
         <v>4050</v>
       </c>
       <c r="Q10" s="0" t="n">
@@ -12282,7 +12295,7 @@
         <f aca="false">mapping!N25</f>
         <v>2012</v>
       </c>
-      <c r="O11" s="17" t="n">
+      <c r="O11" s="18" t="n">
         <v>3408</v>
       </c>
       <c r="Q11" s="0" t="n">
@@ -12321,10 +12334,10 @@
         <f aca="false">mapping!M63</f>
         <v>1008</v>
       </c>
-      <c r="N12" s="17" t="n">
+      <c r="N12" s="18" t="n">
         <v>2308</v>
       </c>
-      <c r="O12" s="17" t="n">
+      <c r="O12" s="18" t="n">
         <v>3409</v>
       </c>
     </row>
@@ -12360,39 +12373,39 @@
         <f aca="false">M12</f>
         <v>1008</v>
       </c>
-      <c r="N13" s="17" t="n">
+      <c r="N13" s="18" t="n">
         <v>2309</v>
       </c>
-      <c r="O13" s="17" t="n">
+      <c r="O13" s="18" t="n">
         <v>3410</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="17" t="s">
         <v>223</v>
       </c>
       <c r="M14" s="0" t="n">
@@ -12406,31 +12419,31 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="I15" s="16" t="s">
+      <c r="I15" s="17" t="s">
         <v>218</v>
       </c>
       <c r="M15" s="0" t="n">
